--- a/invoice_gen/result.xlsx
+++ b/invoice_gen/result.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Invoice" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Packing list" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="订单扫描" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Invoice" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Packing list" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="订单扫描" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Invoice'!$A$1:$G$32</definedName>
@@ -398,7 +398,7 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="33" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
@@ -622,7 +622,7 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="35" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="35" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -634,19 +634,18 @@
     <xf numFmtId="4" fontId="35" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="49" fontId="35" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="49" fontId="35" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="4" fontId="34" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -666,6 +665,7 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="49" fontId="35" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -676,9 +676,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="34" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="34" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="34" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -759,180 +756,6 @@
     </indexedColors>
   </colors>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <twoCellAnchor editAs="oneCell">
-    <from>
-      <col>3</col>
-      <colOff>875665</colOff>
-      <row>36</row>
-      <rowOff>93345</rowOff>
-    </from>
-    <to>
-      <col>5</col>
-      <colOff>738505</colOff>
-      <row>42</row>
-      <rowOff>54610</rowOff>
-    </to>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="2" name="图片 1" descr="微信图片_20230906130651"/>
-        <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
-        </cNvPicPr>
-      </nvPicPr>
-      <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="5295265" y="16844645"/>
-          <a:ext cx="2434590" cy="1561465"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <avLst/>
-        </a:prstGeom>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
-    </pic>
-    <clientData/>
-  </twoCellAnchor>
-  <twoCellAnchor editAs="oneCell">
-    <from>
-      <col>5</col>
-      <colOff>11430</colOff>
-      <row>38</row>
-      <rowOff>137160</rowOff>
-    </from>
-    <to>
-      <col>6</col>
-      <colOff>471805</colOff>
-      <row>42</row>
-      <rowOff>52705</rowOff>
-    </to>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="3" name="图片 2" descr="微信图片_20230906130654"/>
-        <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
-        </cNvPicPr>
-      </nvPicPr>
-      <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="7002780" y="17421860"/>
-          <a:ext cx="1851025" cy="981710"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <avLst/>
-        </a:prstGeom>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
-    </pic>
-    <clientData/>
-  </twoCellAnchor>
-</wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <twoCellAnchor editAs="oneCell">
-    <from>
-      <col>11</col>
-      <colOff>511969</colOff>
-      <row>30</row>
-      <rowOff>238602</rowOff>
-    </from>
-    <to>
-      <col>12</col>
-      <colOff>1512094</colOff>
-      <row>31</row>
-      <rowOff>354173</rowOff>
-    </to>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="2" name="图片 1" descr="微信图片_20230906130654"/>
-        <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
-        </cNvPicPr>
-      </nvPicPr>
-      <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="12951460" y="15467330"/>
-          <a:ext cx="1666875" cy="1001395"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <avLst/>
-        </a:prstGeom>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
-    </pic>
-    <clientData/>
-  </twoCellAnchor>
-  <twoCellAnchor editAs="oneCell">
-    <from>
-      <col>12</col>
-      <colOff>409892</colOff>
-      <row>27</row>
-      <rowOff>295910</rowOff>
-    </from>
-    <to>
-      <col>14</col>
-      <colOff>245109</colOff>
-      <row>30</row>
-      <rowOff>668655</rowOff>
-    </to>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="3" name="图片 2" descr="微信图片_20230906130651"/>
-        <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
-        </cNvPicPr>
-      </nvPicPr>
-      <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="13515975" y="14344015"/>
-          <a:ext cx="2549525" cy="1553845"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <avLst/>
-        </a:prstGeom>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
-    </pic>
-    <clientData/>
-  </twoCellAnchor>
-</wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1287,7 +1110,7 @@
       </c>
       <c r="G7" s="39" t="inlineStr">
         <is>
-          <t>JFREF</t>
+          <t>CLF2025-138</t>
         </is>
       </c>
     </row>
@@ -1311,7 +1134,7 @@
       </c>
       <c r="G8" s="46" t="inlineStr">
         <is>
-          <t>JFINV</t>
+          <t>JLFMH25009</t>
         </is>
       </c>
     </row>
@@ -1329,10 +1152,8 @@
           <t>Date:</t>
         </is>
       </c>
-      <c r="G9" s="33" t="inlineStr">
-        <is>
-          <t>JFTIME</t>
-        </is>
+      <c r="G9" s="33" t="n">
+        <v>45797</v>
       </c>
     </row>
     <row r="10" ht="22.5" customHeight="1">
@@ -1346,7 +1167,7 @@
       <c r="E10" s="39" t="n"/>
       <c r="F10" s="34" t="inlineStr">
         <is>
-          <t>DAP:</t>
+          <t>FOB:</t>
         </is>
       </c>
       <c r="G10" s="48" t="inlineStr">
@@ -1502,7 +1323,7 @@
       </c>
       <c r="F20" s="84" t="inlineStr">
         <is>
-          <t>Unit price
+          <t>Unit Price
 (USD)</t>
         </is>
       </c>
@@ -1521,11 +1342,19 @@
           <t>VENDOR#:</t>
         </is>
       </c>
-      <c r="B21" s="86" t="n">
-        <v>6601177476</v>
-      </c>
-      <c r="C21" s="86" t="n">
-        <v>110137230</v>
+      <c r="B21" s="86" t="inlineStr">
+        <is>
+          <t>6601168672/6601177588
+6601177617/6601177670
+6601190236</t>
+        </is>
+      </c>
+      <c r="C21" s="86" t="inlineStr">
+        <is>
+          <t>110137030/110137070
+110137140/110140531
+110145460</t>
+        </is>
       </c>
       <c r="D21" s="87" t="inlineStr">
         <is>
@@ -1533,14 +1362,14 @@
         </is>
       </c>
       <c r="E21" s="88" t="n">
-        <v>8536.4</v>
-      </c>
-      <c r="F21" s="88" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="G21" s="88">
-        <f>F21 * E21</f>
+        <v>41904.9</v>
+      </c>
+      <c r="F21" s="88">
+        <f>G21/E21</f>
         <v/>
+      </c>
+      <c r="G21" s="88" t="n">
+        <v>47399.95499999999</v>
       </c>
     </row>
     <row r="22" ht="35" customHeight="1">
@@ -1549,22 +1378,28 @@
           <t>Des: LEATHER</t>
         </is>
       </c>
-      <c r="B22" s="86" t="n">
-        <v>6601177577</v>
-      </c>
-      <c r="C22" s="86" t="n">
-        <v>110137020</v>
+      <c r="B22" s="86" t="inlineStr">
+        <is>
+          <t>6601190250/6601197009
+6601205635/6601209888</t>
+        </is>
+      </c>
+      <c r="C22" s="86" t="inlineStr">
+        <is>
+          <t>110137020/110137030
+110137140</t>
+        </is>
       </c>
       <c r="D22" s="90" t="n"/>
       <c r="E22" s="88" t="n">
-        <v>3000</v>
-      </c>
-      <c r="F22" s="88" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="G22" s="88">
-        <f>F22 * E22</f>
+        <v>50427.7</v>
+      </c>
+      <c r="F22" s="88">
+        <f>G22/E22</f>
         <v/>
+      </c>
+      <c r="G22" s="88" t="n">
+        <v>59000.40899999999</v>
       </c>
     </row>
     <row r="23" ht="35" customHeight="1">
@@ -1573,256 +1408,164 @@
           <t>Case Qty:</t>
         </is>
       </c>
-      <c r="B23" s="86" t="n">
-        <v>6601177592</v>
-      </c>
-      <c r="C23" s="86" t="n">
-        <v>110137020</v>
-      </c>
-      <c r="D23" s="90" t="n"/>
-      <c r="E23" s="88" t="n">
-        <v>20000</v>
-      </c>
-      <c r="F23" s="88" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="G23" s="88">
-        <f>F23 * E23</f>
+      <c r="B23" s="91" t="n"/>
+      <c r="C23" s="91" t="n"/>
+      <c r="D23" s="91" t="n"/>
+      <c r="E23" s="91" t="n"/>
+      <c r="F23" s="91" t="n"/>
+      <c r="G23" s="91" t="n"/>
+    </row>
+    <row r="24" ht="35" customHeight="1">
+      <c r="A24" s="92" t="inlineStr">
+        <is>
+          <t>MADE IN CAMBODIA</t>
+        </is>
+      </c>
+      <c r="B24" s="91" t="n"/>
+      <c r="C24" s="91" t="n"/>
+      <c r="D24" s="91" t="n"/>
+      <c r="E24" s="91" t="n"/>
+      <c r="F24" s="91" t="n"/>
+      <c r="G24" s="91" t="n"/>
+    </row>
+    <row r="25" ht="35" customHeight="1">
+      <c r="A25" s="93" t="n"/>
+      <c r="B25" s="84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TOTAL OF: </t>
+        </is>
+      </c>
+      <c r="C25" s="84" t="inlineStr">
+        <is>
+          <t>9 PALLETS</t>
+        </is>
+      </c>
+      <c r="D25" s="91" t="n"/>
+      <c r="E25" s="94">
+        <f>SUM(E21:E24)</f>
         <v/>
       </c>
-    </row>
-    <row r="24" ht="35" customHeight="1">
-      <c r="A24" s="89" t="inlineStr">
-        <is>
-          <t>MADE IN CAMBODIA</t>
-        </is>
-      </c>
-      <c r="B24" s="86" t="n">
-        <v>6601190255</v>
-      </c>
-      <c r="C24" s="86" t="n">
-        <v>110137020</v>
-      </c>
-      <c r="D24" s="90" t="n"/>
-      <c r="E24" s="88" t="n">
-        <v>20000</v>
-      </c>
-      <c r="F24" s="88" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="G24" s="88">
-        <f>F24 * E24</f>
+      <c r="F25" s="91" t="n"/>
+      <c r="G25" s="94">
+        <f>SUM(G21:G24)</f>
         <v/>
       </c>
     </row>
-    <row r="25" ht="35" customHeight="1">
-      <c r="A25" s="91" t="n"/>
-      <c r="B25" s="86" t="n">
-        <v>6601197009</v>
-      </c>
-      <c r="C25" s="86" t="n">
-        <v>110137020</v>
-      </c>
-      <c r="D25" s="90" t="n"/>
-      <c r="E25" s="88" t="n">
-        <v>2927.6</v>
-      </c>
-      <c r="F25" s="88" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="G25" s="88">
-        <f>F25 * E25</f>
-        <v/>
-      </c>
-    </row>
-    <row r="26" ht="35" customHeight="1">
-      <c r="A26" s="91" t="n"/>
-      <c r="B26" s="86" t="n">
-        <v>6601177584</v>
-      </c>
-      <c r="C26" s="86" t="n">
-        <v>110137280</v>
-      </c>
-      <c r="D26" s="90" t="n"/>
-      <c r="E26" s="88" t="n">
-        <v>3000</v>
-      </c>
-      <c r="F26" s="88" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="G26" s="88">
-        <f>F26 * E26</f>
-        <v/>
-      </c>
-    </row>
-    <row r="27" ht="35" customHeight="1">
-      <c r="A27" s="91" t="n"/>
-      <c r="B27" s="86" t="n">
-        <v>6601177686</v>
-      </c>
-      <c r="C27" s="86" t="n">
-        <v>110137280</v>
-      </c>
-      <c r="D27" s="90" t="n"/>
-      <c r="E27" s="88" t="n">
-        <v>640.6</v>
-      </c>
-      <c r="F27" s="88" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="G27" s="88">
-        <f>F27 * E27</f>
-        <v/>
-      </c>
-    </row>
-    <row r="28" ht="35" customFormat="1" customHeight="1" s="40">
-      <c r="A28" s="92" t="n"/>
-      <c r="B28" s="86" t="n">
-        <v>6601197017</v>
-      </c>
-      <c r="C28" s="86" t="n">
-        <v>110137280</v>
-      </c>
-      <c r="D28" s="93" t="n"/>
-      <c r="E28" s="88" t="n">
-        <v>17550.5</v>
-      </c>
-      <c r="F28" s="88" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="G28" s="88">
-        <f>F28 * E28</f>
-        <v/>
-      </c>
-    </row>
-    <row r="29" ht="35" customHeight="1">
-      <c r="A29" s="94" t="n"/>
-      <c r="B29" s="84" t="inlineStr">
-        <is>
-          <t xml:space="preserve">TOTAL OF: </t>
-        </is>
-      </c>
-      <c r="C29" s="84" t="inlineStr">
-        <is>
-          <t>7 PALLETS</t>
-        </is>
-      </c>
-      <c r="D29" s="95" t="n"/>
-      <c r="E29" s="95" t="n"/>
-      <c r="F29" s="95" t="n"/>
-      <c r="G29" s="95" t="n"/>
-    </row>
-    <row r="30" ht="24" customHeight="1"/>
-    <row r="31" ht="42" customHeight="1">
-      <c r="A31" s="52" t="n"/>
-      <c r="B31" s="53" t="n"/>
-      <c r="C31" s="53" t="n"/>
-      <c r="D31" s="1" t="n"/>
-      <c r="E31" s="1" t="n"/>
-      <c r="U31" s="36" t="n"/>
-      <c r="V31" s="36" t="n"/>
-      <c r="W31" s="36" t="n"/>
-    </row>
-    <row r="32" ht="53.1" customHeight="1">
-      <c r="A32" s="52" t="n"/>
-      <c r="B32" s="53" t="n"/>
-      <c r="C32" s="53" t="n"/>
-      <c r="D32" s="1" t="n"/>
-      <c r="E32" s="1" t="n"/>
-      <c r="U32" s="36" t="n"/>
-      <c r="V32" s="36" t="n"/>
-      <c r="W32" s="36" t="n"/>
-    </row>
-    <row r="33" ht="27.75" customHeight="1">
-      <c r="A33" s="54" t="n"/>
-      <c r="B33" s="54" t="n"/>
-      <c r="C33" s="54" t="n"/>
-      <c r="D33" s="55" t="n"/>
-      <c r="E33" s="55" t="n"/>
-      <c r="F33" s="55" t="n"/>
-      <c r="G33" s="51" t="n"/>
-    </row>
-    <row r="34" ht="42" customHeight="1">
-      <c r="A34" s="65" t="inlineStr">
+    <row r="26" ht="42" customHeight="1"/>
+    <row r="27" ht="24.75" customHeight="1">
+      <c r="A27" s="52" t="n"/>
+      <c r="B27" s="53" t="n"/>
+      <c r="C27" s="53" t="n"/>
+      <c r="D27" s="1" t="n"/>
+      <c r="E27" s="1" t="n"/>
+      <c r="U27" s="36" t="n"/>
+      <c r="V27" s="36" t="n"/>
+      <c r="W27" s="36" t="n"/>
+    </row>
+    <row r="28" ht="27" customFormat="1" customHeight="1" s="40">
+      <c r="A28" s="52" t="n"/>
+      <c r="B28" s="53" t="n"/>
+      <c r="C28" s="53" t="n"/>
+      <c r="D28" s="1" t="n"/>
+      <c r="E28" s="1" t="n"/>
+      <c r="U28" s="36" t="n"/>
+      <c r="V28" s="36" t="n"/>
+      <c r="W28" s="36" t="n"/>
+    </row>
+    <row r="29" ht="42" customHeight="1">
+      <c r="A29" s="54" t="n"/>
+      <c r="B29" s="54" t="n"/>
+      <c r="C29" s="54" t="n"/>
+      <c r="D29" s="55" t="n"/>
+      <c r="E29" s="55" t="n"/>
+      <c r="F29" s="55" t="n"/>
+      <c r="G29" s="51" t="n"/>
+    </row>
+    <row r="30" ht="42" customHeight="1">
+      <c r="A30" s="65" t="inlineStr">
         <is>
           <t>Country of Original Cambodia</t>
         </is>
       </c>
-      <c r="E34" s="39" t="n"/>
-      <c r="F34" s="39" t="n"/>
-      <c r="G34" s="69" t="n"/>
-    </row>
-    <row r="35" ht="61.5" customHeight="1">
-      <c r="A35" s="56" t="inlineStr">
+      <c r="E30" s="39" t="n"/>
+      <c r="F30" s="39" t="n"/>
+      <c r="G30" s="69" t="n"/>
+    </row>
+    <row r="31" ht="61.5" customHeight="1">
+      <c r="A31" s="56" t="inlineStr">
         <is>
           <t>Manufacture:</t>
         </is>
       </c>
-      <c r="B35" s="66" t="inlineStr">
+      <c r="B31" s="66" t="inlineStr">
         <is>
           <t>CALIFOR UPHOLSTERY MATERIALS CO., LTD.
 XIN BAVET SEZ, Road No. 316A, Trapeang Bon and Prey Kokir Villages, Prey Kokir Commune, Chantrea District,Svay Rieng Province, Kingdom of Cambodia, Tel: +855   975910636</t>
         </is>
       </c>
-      <c r="E35" s="66" t="n"/>
-      <c r="F35" s="39" t="n"/>
-      <c r="G35" s="69" t="n"/>
-    </row>
-    <row r="36" ht="42" customHeight="1">
-      <c r="A36" s="67" t="inlineStr">
+      <c r="E31" s="66" t="n"/>
+      <c r="F31" s="39" t="n"/>
+      <c r="G31" s="69" t="n"/>
+    </row>
+    <row r="32" ht="42" customHeight="1">
+      <c r="A32" s="67" t="inlineStr">
         <is>
           <t>BENEFICIARY BANK：BANK OF CHINA(HONG KONG)LIMITED PHNOM PENH BRANCH
                                                   /BANK OF CHINA PHNOM PENH BRANCH</t>
         </is>
       </c>
-      <c r="E36" s="67" t="n"/>
-      <c r="F36" s="67" t="n"/>
-      <c r="G36" s="69" t="n"/>
-    </row>
-    <row r="37" ht="24.75" customHeight="1">
-      <c r="A37" s="63" t="inlineStr">
+      <c r="E32" s="67" t="n"/>
+      <c r="F32" s="67" t="n"/>
+      <c r="G32" s="69" t="n"/>
+    </row>
+    <row r="33" ht="24.75" customHeight="1">
+      <c r="A33" s="63" t="inlineStr">
         <is>
           <t>A/C NO:100001100764430</t>
         </is>
       </c>
     </row>
-    <row r="38" ht="27" customHeight="1">
-      <c r="A38" s="63" t="inlineStr">
+    <row r="34" ht="27" customHeight="1">
+      <c r="A34" s="63" t="inlineStr">
         <is>
           <t>SWIFT CODE  ：BKCHKHPPXXX</t>
         </is>
       </c>
     </row>
-    <row r="39" ht="21" customHeight="1">
-      <c r="E39" s="47" t="n"/>
-      <c r="F39" s="59" t="inlineStr">
+    <row r="35" ht="27.75" customHeight="1">
+      <c r="E35" s="47" t="n"/>
+      <c r="F35" s="59" t="inlineStr">
         <is>
           <t>CALIFOR UPHOLSTERY MATERIALS CO., LTD.</t>
         </is>
       </c>
-      <c r="G39" s="69" t="n"/>
-    </row>
-    <row r="40" ht="21" customHeight="1">
-      <c r="E40" s="39" t="n"/>
-      <c r="F40" s="60" t="inlineStr">
+      <c r="G35" s="69" t="n"/>
+    </row>
+    <row r="36" ht="24.75" customHeight="1">
+      <c r="E36" s="39" t="n"/>
+      <c r="F36" s="60" t="inlineStr">
         <is>
           <t>Sign &amp; Stamp</t>
         </is>
       </c>
     </row>
-    <row r="41" ht="21" customHeight="1">
-      <c r="E41" s="39" t="n"/>
-      <c r="F41" s="39" t="n"/>
-    </row>
-    <row r="42" ht="21" customHeight="1">
-      <c r="E42" s="39" t="n"/>
-      <c r="F42" s="61" t="inlineStr">
+    <row r="37" ht="21" customHeight="1">
+      <c r="E37" s="39" t="n"/>
+      <c r="F37" s="39" t="n"/>
+    </row>
+    <row r="38" ht="21" customHeight="1">
+      <c r="E38" s="39" t="n"/>
+      <c r="F38" s="61" t="inlineStr">
         <is>
           <t>ZENG XUELI</t>
         </is>
       </c>
-      <c r="G42" s="62" t="n"/>
-    </row>
+      <c r="G38" s="62" t="n"/>
+    </row>
+    <row r="39" ht="21" customHeight="1"/>
+    <row r="40" ht="21" customHeight="1"/>
+    <row r="41" ht="21" customHeight="1"/>
+    <row r="42" ht="21" customHeight="1"/>
     <row r="43" ht="21" customHeight="1"/>
     <row r="44" ht="21" customHeight="1"/>
     <row r="45" ht="25.5" customHeight="1"/>
@@ -1982,19 +1725,22 @@
     <row r="199"/>
     <row r="200"/>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="15">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A27:G27"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A5:G5"/>
     <mergeCell ref="A4:G4"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A37:G37"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A34:G34"/>
     <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A38:G38"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="A5:G5"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="D21:D28"/>
-    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="A33:G33"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A28:G28"/>
   </mergeCells>
   <conditionalFormatting sqref="J24:J35">
     <cfRule type="duplicateValues" priority="1" stopIfTrue="1"/>
@@ -2006,7 +1752,6 @@
   <colBreaks count="1" manualBreakCount="1">
     <brk id="7" min="0" max="1048575" man="1"/>
   </colBreaks>
-  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2131,7 +1876,7 @@
       </c>
       <c r="J7" s="30" t="inlineStr">
         <is>
-          <t>JFREF</t>
+          <t>CLF2025-138</t>
         </is>
       </c>
     </row>
@@ -2157,7 +1902,7 @@
       </c>
       <c r="J8" s="32" t="inlineStr">
         <is>
-          <t>JFINV</t>
+          <t>JLFMH25009</t>
         </is>
       </c>
     </row>
@@ -2177,10 +1922,8 @@
           <t>Date:</t>
         </is>
       </c>
-      <c r="J9" s="33" t="inlineStr">
-        <is>
-          <t>JFTIME</t>
-        </is>
+      <c r="J9" s="33" t="n">
+        <v>45797</v>
       </c>
     </row>
     <row r="10" ht="22.5" customHeight="1">
@@ -2371,7 +2114,7 @@
           <t>Quantity</t>
         </is>
       </c>
-      <c r="G20" s="96" t="n"/>
+      <c r="G20" s="95" t="n"/>
       <c r="H20" s="84" t="inlineStr">
         <is>
           <t>N.W (kgs)</t>
@@ -2389,11 +2132,11 @@
       </c>
     </row>
     <row r="21" ht="27" customHeight="1">
-      <c r="A21" s="93" t="n"/>
-      <c r="B21" s="93" t="n"/>
-      <c r="C21" s="93" t="n"/>
-      <c r="D21" s="93" t="n"/>
-      <c r="E21" s="93" t="n"/>
+      <c r="A21" s="90" t="n"/>
+      <c r="B21" s="90" t="n"/>
+      <c r="C21" s="90" t="n"/>
+      <c r="D21" s="90" t="n"/>
+      <c r="E21" s="90" t="n"/>
       <c r="F21" s="84" t="inlineStr">
         <is>
           <t>PCS</t>
@@ -2404,25 +2147,25 @@
           <t>SF</t>
         </is>
       </c>
-      <c r="H21" s="93" t="n"/>
-      <c r="I21" s="93" t="n"/>
-      <c r="J21" s="93" t="n"/>
+      <c r="H21" s="90" t="n"/>
+      <c r="I21" s="90" t="n"/>
+      <c r="J21" s="90" t="n"/>
     </row>
     <row r="22" ht="27" customHeight="1">
-      <c r="A22" s="97" t="inlineStr">
+      <c r="A22" s="96" t="inlineStr">
         <is>
           <t>VENDOR#:</t>
         </is>
       </c>
       <c r="B22" s="86" t="n">
-        <v>6601177476</v>
+        <v>6601197009</v>
       </c>
       <c r="C22" s="86" t="n">
-        <v>110137230</v>
-      </c>
-      <c r="D22" s="98" t="inlineStr">
-        <is>
-          <t>JF250413-2</t>
+        <v>110137020</v>
+      </c>
+      <c r="D22" s="97" t="inlineStr">
+        <is>
+          <t>JF250515</t>
         </is>
       </c>
       <c r="E22" s="87" t="inlineStr">
@@ -2430,423 +2173,446 @@
           <t>LEATHER</t>
         </is>
       </c>
-      <c r="F22" s="99" t="n">
-        <v>166</v>
+      <c r="F22" s="98" t="n">
+        <v>187</v>
       </c>
       <c r="G22" s="88" t="n">
-        <v>8536.4</v>
+        <v>9791.5</v>
       </c>
       <c r="H22" s="88" t="n">
-        <v>723.5</v>
+        <v>802.7074</v>
       </c>
       <c r="I22" s="88" t="n">
-        <v>768.5</v>
-      </c>
-      <c r="J22" s="100" t="n">
-        <v>1.6434</v>
+        <v>847.4681</v>
+      </c>
+      <c r="J22" s="99" t="n">
+        <v>1.1269</v>
       </c>
     </row>
     <row r="23" ht="27" customHeight="1">
-      <c r="A23" s="101" t="inlineStr">
+      <c r="A23" s="100" t="inlineStr">
         <is>
           <t>Des: LEATHER</t>
         </is>
       </c>
       <c r="B23" s="86" t="n">
-        <v>6601177577</v>
+        <v>6601197009</v>
       </c>
       <c r="C23" s="86" t="n">
         <v>110137020</v>
       </c>
-      <c r="D23" s="102" t="inlineStr">
-        <is>
-          <t>JF250430</t>
-        </is>
-      </c>
-      <c r="E23" s="90" t="n"/>
-      <c r="F23" s="99" t="n">
-        <v>58</v>
+      <c r="D23" s="101" t="inlineStr">
+        <is>
+          <t>JF250515</t>
+        </is>
+      </c>
+      <c r="E23" s="102" t="n"/>
+      <c r="F23" s="98" t="n">
+        <v>1</v>
       </c>
       <c r="G23" s="88" t="n">
-        <v>3000</v>
+        <v>31.7</v>
       </c>
       <c r="H23" s="88" t="n">
-        <v>249.0298</v>
+        <v>4.2926</v>
       </c>
       <c r="I23" s="88" t="n">
-        <v>260.1362</v>
-      </c>
-      <c r="J23" s="100" t="n">
-        <v>0.5742</v>
+        <v>4.5319</v>
+      </c>
+      <c r="J23" s="99" t="n">
+        <v>0.006</v>
       </c>
     </row>
     <row r="24" ht="27" customHeight="1">
-      <c r="A24" s="101" t="inlineStr">
+      <c r="A24" s="100" t="inlineStr">
         <is>
           <t>Case Qty:</t>
         </is>
       </c>
       <c r="B24" s="86" t="n">
-        <v>6601177592</v>
+        <v>6601177588</v>
       </c>
       <c r="C24" s="86" t="n">
-        <v>110137020</v>
-      </c>
-      <c r="D24" s="102" t="inlineStr">
-        <is>
-          <t>JF250430</t>
-        </is>
-      </c>
-      <c r="E24" s="90" t="n"/>
-      <c r="F24" s="99" t="n">
-        <v>177</v>
+        <v>110137140</v>
+      </c>
+      <c r="D24" s="101" t="inlineStr">
+        <is>
+          <t>JF250610</t>
+        </is>
+      </c>
+      <c r="E24" s="102" t="n"/>
+      <c r="F24" s="98" t="n">
+        <v>25</v>
       </c>
       <c r="G24" s="88" t="n">
-        <v>9236.6</v>
+        <v>1252.4</v>
       </c>
       <c r="H24" s="88" t="n">
-        <v>759.9702</v>
+        <v>101.2245</v>
       </c>
       <c r="I24" s="88" t="n">
-        <v>793.8638</v>
-      </c>
-      <c r="J24" s="100" t="n">
-        <v>3.0888</v>
+        <v>105.8163</v>
+      </c>
+      <c r="J24" s="99" t="n">
+        <v>0.1507</v>
       </c>
     </row>
     <row r="25" ht="27" customHeight="1">
-      <c r="A25" s="101" t="inlineStr">
+      <c r="A25" s="100" t="inlineStr">
         <is>
           <t>MADE IN CAMBODIA</t>
         </is>
       </c>
       <c r="B25" s="86" t="n">
-        <v>6601177592</v>
+        <v>6601205635</v>
       </c>
       <c r="C25" s="86" t="n">
-        <v>110137020</v>
-      </c>
-      <c r="D25" s="102" t="inlineStr">
-        <is>
-          <t>JF250430</t>
-        </is>
-      </c>
-      <c r="E25" s="90" t="n"/>
-      <c r="F25" s="99" t="n">
-        <v>200</v>
+        <v>110137140</v>
+      </c>
+      <c r="D25" s="101" t="inlineStr">
+        <is>
+          <t>JF250610</t>
+        </is>
+      </c>
+      <c r="E25" s="102" t="n"/>
+      <c r="F25" s="98" t="n">
+        <v>201</v>
       </c>
       <c r="G25" s="88" t="n">
-        <v>10344.8</v>
+        <v>10000</v>
       </c>
       <c r="H25" s="88" t="n">
-        <v>848</v>
+        <v>813.8449000000001</v>
       </c>
       <c r="I25" s="88" t="n">
-        <v>893</v>
-      </c>
-      <c r="J25" s="100" t="n">
-        <v>2.6136</v>
+        <v>850.7633</v>
+      </c>
+      <c r="J25" s="99" t="n">
+        <v>1.2112</v>
       </c>
     </row>
     <row r="26" ht="27" customHeight="1">
       <c r="A26" s="103" t="n"/>
       <c r="B26" s="86" t="n">
-        <v>6601190255</v>
+        <v>6601209888</v>
       </c>
       <c r="C26" s="86" t="n">
-        <v>110137020</v>
-      </c>
-      <c r="D26" s="102" t="inlineStr">
-        <is>
-          <t>JF250430</t>
-        </is>
-      </c>
-      <c r="E26" s="90" t="n"/>
-      <c r="F26" s="99" t="n">
-        <v>214</v>
+        <v>110137140</v>
+      </c>
+      <c r="D26" s="101" t="inlineStr">
+        <is>
+          <t>JF250610</t>
+        </is>
+      </c>
+      <c r="E26" s="102" t="n"/>
+      <c r="F26" s="98" t="n">
+        <v>19</v>
       </c>
       <c r="G26" s="88" t="n">
-        <v>11150.9</v>
+        <v>943.6</v>
       </c>
       <c r="H26" s="88" t="n">
-        <v>927.5</v>
+        <v>76.9306</v>
       </c>
       <c r="I26" s="88" t="n">
-        <v>972.5</v>
-      </c>
-      <c r="J26" s="100" t="n">
-        <v>1.416</v>
+        <v>80.4204</v>
+      </c>
+      <c r="J26" s="99" t="n">
+        <v>2.574</v>
       </c>
     </row>
     <row r="27" ht="27" customHeight="1">
       <c r="A27" s="103" t="n"/>
       <c r="B27" s="86" t="n">
-        <v>6601190255</v>
+        <v>6601168672</v>
       </c>
       <c r="C27" s="86" t="n">
-        <v>110137020</v>
-      </c>
-      <c r="D27" s="102" t="inlineStr">
-        <is>
-          <t>JF250430</t>
-        </is>
-      </c>
-      <c r="E27" s="90" t="n"/>
-      <c r="F27" s="99" t="n">
-        <v>167</v>
+        <v>110137070</v>
+      </c>
+      <c r="D27" s="101" t="inlineStr">
+        <is>
+          <t>JF250515</t>
+        </is>
+      </c>
+      <c r="E27" s="102" t="n"/>
+      <c r="F27" s="98" t="n">
+        <v>200</v>
       </c>
       <c r="G27" s="88" t="n">
-        <v>8849.1</v>
+        <v>12119.9</v>
       </c>
       <c r="H27" s="88" t="n">
-        <v>727.1761</v>
+        <v>1056</v>
       </c>
       <c r="I27" s="88" t="n">
-        <v>759.85</v>
-      </c>
-      <c r="J27" s="100" t="n">
-        <v>1.105</v>
+        <v>1101</v>
+      </c>
+      <c r="J27" s="99" t="n">
+        <v>3.0492</v>
       </c>
     </row>
     <row r="28" ht="27" customFormat="1" customHeight="1" s="3">
       <c r="A28" s="103" t="n"/>
       <c r="B28" s="86" t="n">
-        <v>6601177592</v>
+        <v>6601177670</v>
       </c>
       <c r="C28" s="86" t="n">
-        <v>110137020</v>
-      </c>
-      <c r="D28" s="102" t="inlineStr">
-        <is>
-          <t>JF250430</t>
-        </is>
-      </c>
-      <c r="E28" s="90" t="n"/>
-      <c r="F28" s="99" t="n">
-        <v>8</v>
+        <v>110145460</v>
+      </c>
+      <c r="D28" s="101" t="inlineStr">
+        <is>
+          <t>JF250515</t>
+        </is>
+      </c>
+      <c r="E28" s="102" t="n"/>
+      <c r="F28" s="98" t="n">
+        <v>47</v>
       </c>
       <c r="G28" s="88" t="n">
-        <v>418.6</v>
+        <v>2955.8</v>
       </c>
       <c r="H28" s="88" t="n">
-        <v>34.8348</v>
+        <v>445</v>
       </c>
       <c r="I28" s="88" t="n">
-        <v>36.4</v>
-      </c>
-      <c r="J28" s="100" t="n">
-        <v>0.0529</v>
+        <v>400</v>
+      </c>
+      <c r="J28" s="99" t="n">
+        <v>1.7424</v>
       </c>
     </row>
     <row r="29" ht="27" customHeight="1">
       <c r="A29" s="103" t="n"/>
       <c r="B29" s="86" t="n">
-        <v>6601197009</v>
+        <v>6601177617</v>
       </c>
       <c r="C29" s="86" t="n">
-        <v>110137020</v>
-      </c>
-      <c r="D29" s="102" t="inlineStr">
-        <is>
-          <t>JF250430</t>
-        </is>
-      </c>
-      <c r="E29" s="90" t="n"/>
-      <c r="F29" s="99" t="n">
-        <v>55</v>
+        <v>110140531</v>
+      </c>
+      <c r="D29" s="101" t="inlineStr">
+        <is>
+          <t>JF250515</t>
+        </is>
+      </c>
+      <c r="E29" s="102" t="n"/>
+      <c r="F29" s="98" t="n">
+        <v>225</v>
       </c>
       <c r="G29" s="88" t="n">
-        <v>2927.6</v>
+        <v>12111.8</v>
       </c>
       <c r="H29" s="88" t="n">
-        <v>239.4891</v>
+        <v>953</v>
       </c>
       <c r="I29" s="88" t="n">
-        <v>250.25</v>
-      </c>
-      <c r="J29" s="100" t="n">
-        <v>1.3939</v>
+        <v>998</v>
+      </c>
+      <c r="J29" s="99" t="n">
+        <v>2.8512</v>
       </c>
     </row>
     <row r="30" ht="27" customHeight="1">
       <c r="A30" s="103" t="n"/>
       <c r="B30" s="86" t="n">
-        <v>6601177584</v>
+        <v>6601177617</v>
       </c>
       <c r="C30" s="86" t="n">
-        <v>110137280</v>
-      </c>
-      <c r="D30" s="102" t="inlineStr">
-        <is>
-          <t>JF250430</t>
-        </is>
-      </c>
-      <c r="E30" s="90" t="n"/>
-      <c r="F30" s="99" t="n">
-        <v>58</v>
+        <v>110140531</v>
+      </c>
+      <c r="D30" s="101" t="inlineStr">
+        <is>
+          <t>JF250515</t>
+        </is>
+      </c>
+      <c r="E30" s="102" t="n"/>
+      <c r="F30" s="98" t="n">
+        <v>225</v>
       </c>
       <c r="G30" s="88" t="n">
-        <v>3000</v>
+        <v>12199.6</v>
       </c>
       <c r="H30" s="88" t="n">
-        <v>248.783</v>
+        <v>956.5</v>
       </c>
       <c r="I30" s="88" t="n">
-        <v>259.8894</v>
-      </c>
-      <c r="J30" s="100" t="n">
-        <v>1.47</v>
+        <v>1001.5</v>
+      </c>
+      <c r="J30" s="99" t="n">
+        <v>2.5048</v>
       </c>
     </row>
     <row r="31" ht="27" customHeight="1">
       <c r="A31" s="103" t="n"/>
       <c r="B31" s="86" t="n">
-        <v>6601177686</v>
+        <v>6601190236</v>
       </c>
       <c r="C31" s="86" t="n">
-        <v>110137280</v>
-      </c>
-      <c r="D31" s="102" t="inlineStr">
-        <is>
-          <t>JF250430</t>
-        </is>
-      </c>
-      <c r="E31" s="90" t="n"/>
-      <c r="F31" s="99" t="n">
-        <v>12</v>
+        <v>110137030</v>
+      </c>
+      <c r="D31" s="101" t="inlineStr">
+        <is>
+          <t>JF250510</t>
+        </is>
+      </c>
+      <c r="E31" s="102" t="n"/>
+      <c r="F31" s="98" t="n">
+        <v>24</v>
       </c>
       <c r="G31" s="88" t="n">
-        <v>640.6</v>
+        <v>1265.4</v>
       </c>
       <c r="H31" s="88" t="n">
-        <v>51.4723</v>
+        <v>101.5304</v>
       </c>
       <c r="I31" s="88" t="n">
-        <v>53.7702</v>
-      </c>
-      <c r="J31" s="100" t="n">
-        <v>0.3041</v>
+        <v>106.2261</v>
+      </c>
+      <c r="J31" s="99" t="n">
+        <v>0.2672</v>
       </c>
     </row>
     <row r="32" ht="27" customHeight="1">
       <c r="A32" s="103" t="n"/>
       <c r="B32" s="86" t="n">
-        <v>6601197017</v>
+        <v>6601190250</v>
       </c>
       <c r="C32" s="86" t="n">
-        <v>110137280</v>
-      </c>
-      <c r="D32" s="102" t="inlineStr">
-        <is>
-          <t>JF250430</t>
-        </is>
-      </c>
-      <c r="E32" s="90" t="n"/>
-      <c r="F32" s="99" t="n">
-        <v>165</v>
+        <v>110137030</v>
+      </c>
+      <c r="D32" s="101" t="inlineStr">
+        <is>
+          <t>JF250510</t>
+        </is>
+      </c>
+      <c r="E32" s="102" t="n"/>
+      <c r="F32" s="98" t="n">
+        <v>206</v>
       </c>
       <c r="G32" s="88" t="n">
-        <v>8506.4</v>
+        <v>10769.6</v>
       </c>
       <c r="H32" s="88" t="n">
-        <v>707.7447</v>
+        <v>871.4696</v>
       </c>
       <c r="I32" s="88" t="n">
-        <v>739.3404</v>
-      </c>
-      <c r="J32" s="100" t="n">
+        <v>911.7739</v>
+      </c>
+      <c r="J32" s="99" t="n">
+        <v>2.8512</v>
+      </c>
+    </row>
+    <row r="33" ht="27" customHeight="1">
+      <c r="A33" s="103" t="n"/>
+      <c r="B33" s="86" t="n">
+        <v>6601190250</v>
+      </c>
+      <c r="C33" s="86" t="n">
+        <v>110137030</v>
+      </c>
+      <c r="D33" s="101" t="inlineStr">
+        <is>
+          <t>JF250510</t>
+        </is>
+      </c>
+      <c r="E33" s="102" t="n"/>
+      <c r="F33" s="98" t="n">
+        <v>248</v>
+      </c>
+      <c r="G33" s="88" t="n">
+        <v>12900</v>
+      </c>
+      <c r="H33" s="88" t="n">
+        <v>1059</v>
+      </c>
+      <c r="I33" s="88" t="n">
+        <v>1104</v>
+      </c>
+      <c r="J33" s="99" t="n">
         <v>2.8908</v>
       </c>
     </row>
-    <row r="33" ht="27" customHeight="1">
-      <c r="A33" s="104" t="n"/>
-      <c r="B33" s="86" t="n">
-        <v>6601197017</v>
-      </c>
-      <c r="C33" s="86" t="n">
-        <v>110137280</v>
-      </c>
-      <c r="D33" s="105" t="inlineStr">
-        <is>
-          <t>JF250430</t>
-        </is>
-      </c>
-      <c r="E33" s="93" t="n"/>
-      <c r="F33" s="99" t="n">
-        <v>176</v>
-      </c>
-      <c r="G33" s="88" t="n">
-        <v>9044.1</v>
-      </c>
-      <c r="H33" s="88" t="n">
-        <v>757</v>
-      </c>
-      <c r="I33" s="88" t="n">
-        <v>802</v>
-      </c>
-      <c r="J33" s="100" t="n">
-        <v>2.2968</v>
-      </c>
-    </row>
     <row r="34" ht="27" customHeight="1">
-      <c r="A34" s="101" t="n"/>
-      <c r="B34" s="86" t="inlineStr">
+      <c r="A34" s="104" t="n"/>
+      <c r="B34" s="86" t="n">
+        <v>6601190250</v>
+      </c>
+      <c r="C34" s="86" t="n">
+        <v>110137030</v>
+      </c>
+      <c r="D34" s="105" t="inlineStr">
+        <is>
+          <t>JF250510</t>
+        </is>
+      </c>
+      <c r="E34" s="90" t="n"/>
+      <c r="F34" s="98" t="n">
+        <v>115</v>
+      </c>
+      <c r="G34" s="88" t="n">
+        <v>5991.3</v>
+      </c>
+      <c r="H34" s="88" t="n">
+        <v>492</v>
+      </c>
+      <c r="I34" s="88" t="n">
+        <v>537</v>
+      </c>
+      <c r="J34" s="99" t="n">
+        <v>1.8216</v>
+      </c>
+    </row>
+    <row r="35" ht="27" customHeight="1">
+      <c r="A35" s="100" t="n"/>
+      <c r="B35" s="86" t="inlineStr">
         <is>
           <t>LEATHER (HS.CODE: 4107.12.00)</t>
         </is>
       </c>
-      <c r="C34" s="96" t="n"/>
-      <c r="D34" s="87" t="n"/>
-      <c r="E34" s="87" t="n"/>
-      <c r="F34" s="99" t="n"/>
-      <c r="G34" s="88" t="n"/>
-      <c r="H34" s="88" t="n"/>
-      <c r="I34" s="88" t="n"/>
-      <c r="J34" s="100" t="n"/>
-    </row>
-    <row r="35" ht="27" customHeight="1">
-      <c r="A35" s="94" t="n"/>
-      <c r="B35" s="84" t="inlineStr">
+      <c r="C35" s="95" t="n"/>
+      <c r="D35" s="87" t="n"/>
+      <c r="E35" s="87" t="n"/>
+      <c r="F35" s="98" t="n"/>
+      <c r="G35" s="88" t="n"/>
+      <c r="H35" s="88" t="n"/>
+      <c r="I35" s="88" t="n"/>
+      <c r="J35" s="99" t="n"/>
+    </row>
+    <row r="36" ht="27" customHeight="1">
+      <c r="A36" s="93" t="n"/>
+      <c r="B36" s="84" t="inlineStr">
         <is>
           <t xml:space="preserve">TOTAL OF: </t>
         </is>
       </c>
-      <c r="C35" s="84" t="inlineStr">
-        <is>
-          <t>7 PALLETS</t>
-        </is>
-      </c>
-      <c r="D35" s="95" t="n"/>
-      <c r="E35" s="95" t="n"/>
-      <c r="F35" s="106">
-        <f>SUM(F22:F33)</f>
+      <c r="C36" s="84" t="inlineStr">
+        <is>
+          <t>9 PALLETS</t>
+        </is>
+      </c>
+      <c r="D36" s="91" t="n"/>
+      <c r="E36" s="91" t="n"/>
+      <c r="F36" s="106">
+        <f>SUM(F22:F34)</f>
         <v/>
       </c>
-      <c r="G35" s="107">
-        <f>SUM(G22:G33)</f>
+      <c r="G36" s="94">
+        <f>SUM(G22:G34)</f>
         <v/>
       </c>
-      <c r="H35" s="107">
-        <f>SUM(H22:H33)</f>
+      <c r="H36" s="94">
+        <f>SUM(H22:H34)</f>
         <v/>
       </c>
-      <c r="I35" s="107">
-        <f>SUM(I22:I33)</f>
+      <c r="I36" s="94">
+        <f>SUM(I22:I34)</f>
         <v/>
       </c>
-      <c r="J35" s="108">
-        <f>SUM(J22:J33)</f>
+      <c r="J36" s="107">
+        <f>SUM(J22:J34)</f>
         <v/>
       </c>
     </row>
-    <row r="36" ht="27.75" customHeight="1"/>
-    <row r="37" ht="24.75" customHeight="1">
-      <c r="A37" s="17" t="n"/>
-      <c r="B37" s="17" t="n"/>
-      <c r="C37" s="17" t="n"/>
-      <c r="D37" s="17" t="n"/>
-      <c r="E37" s="17" t="n"/>
-    </row>
+    <row r="37" ht="24.75" customHeight="1"/>
     <row r="38" ht="21" customHeight="1">
       <c r="A38" s="17" t="n"/>
       <c r="B38" s="17" t="n"/>
@@ -2862,95 +2628,97 @@
       <c r="E39" s="17" t="n"/>
     </row>
     <row r="40" ht="21" customHeight="1">
-      <c r="A40" s="18" t="n"/>
-      <c r="B40" s="19" t="n"/>
-      <c r="C40" s="19" t="n"/>
-      <c r="D40" s="19" t="n"/>
-      <c r="E40" s="19" t="n"/>
-      <c r="F40" s="20" t="n"/>
-      <c r="G40" s="21" t="n"/>
-      <c r="H40" s="22" t="n"/>
-      <c r="I40" s="22" t="n"/>
-      <c r="J40" s="22" t="n"/>
-      <c r="M40" s="36" t="n"/>
-    </row>
-    <row r="41" ht="42" customHeight="1">
-      <c r="A41" s="75" t="inlineStr">
+      <c r="A40" s="17" t="n"/>
+      <c r="B40" s="17" t="n"/>
+      <c r="C40" s="17" t="n"/>
+      <c r="D40" s="17" t="n"/>
+      <c r="E40" s="17" t="n"/>
+    </row>
+    <row r="41" ht="21" customHeight="1">
+      <c r="A41" s="18" t="n"/>
+      <c r="B41" s="19" t="n"/>
+      <c r="C41" s="19" t="n"/>
+      <c r="D41" s="19" t="n"/>
+      <c r="E41" s="19" t="n"/>
+      <c r="F41" s="20" t="n"/>
+      <c r="G41" s="21" t="n"/>
+      <c r="H41" s="22" t="n"/>
+      <c r="I41" s="22" t="n"/>
+      <c r="J41" s="22" t="n"/>
+      <c r="M41" s="36" t="n"/>
+    </row>
+    <row r="42" ht="42" customHeight="1">
+      <c r="A42" s="75" t="inlineStr">
         <is>
           <t>Country of Original Cambodia</t>
         </is>
       </c>
-      <c r="G41" s="75" t="n"/>
-      <c r="H41" s="5" t="n"/>
-      <c r="I41" s="5" t="n"/>
-      <c r="J41" s="5" t="n"/>
-      <c r="K41" s="5" t="n"/>
-      <c r="L41" s="5" t="n"/>
-      <c r="M41" s="36" t="n"/>
-    </row>
-    <row r="42" ht="61.5" customHeight="1">
-      <c r="A42" s="24" t="inlineStr">
+      <c r="G42" s="75" t="n"/>
+      <c r="H42" s="5" t="n"/>
+      <c r="I42" s="5" t="n"/>
+      <c r="J42" s="5" t="n"/>
+      <c r="K42" s="5" t="n"/>
+      <c r="L42" s="5" t="n"/>
+      <c r="M42" s="36" t="n"/>
+    </row>
+    <row r="43" ht="61.5" customHeight="1">
+      <c r="A43" s="24" t="inlineStr">
         <is>
           <t>Manufacture:</t>
         </is>
       </c>
-      <c r="B42" s="76" t="inlineStr">
+      <c r="B43" s="76" t="inlineStr">
         <is>
           <t>CALIFOR UPHOLSTERY MATERIALS CO., LTD.
 XIN BAVET SEZ, Road No. 316A, Trapeang Bon and Prey Kokir Villages, Prey Kokir Commune, Chantrea District,Svay Rieng Province, Kingdom of Cambodia, Tel: +855   975910636</t>
         </is>
       </c>
-      <c r="G42" s="76" t="n"/>
-      <c r="H42" s="76" t="n"/>
-      <c r="I42" s="76" t="n"/>
-      <c r="J42" s="76" t="n"/>
-      <c r="K42" s="5" t="n"/>
-      <c r="L42" s="5" t="n"/>
-      <c r="M42" s="37" t="n"/>
-    </row>
-    <row r="43" ht="44.1" customHeight="1">
-      <c r="A43" s="77" t="inlineStr">
+      <c r="G43" s="76" t="n"/>
+      <c r="H43" s="76" t="n"/>
+      <c r="I43" s="76" t="n"/>
+      <c r="J43" s="76" t="n"/>
+      <c r="K43" s="5" t="n"/>
+      <c r="L43" s="5" t="n"/>
+      <c r="M43" s="37" t="n"/>
+    </row>
+    <row r="44" ht="44.1" customHeight="1">
+      <c r="A44" s="77" t="inlineStr">
         <is>
           <t>BENEFICIARY BANK：BANK OF CHINA(HONG KONG)LIMITED PHNOM PENH BRANCH
                                           /BANK OF CHINA PHNOM PENH BRANCH</t>
         </is>
       </c>
-      <c r="G43" s="77" t="n"/>
-      <c r="H43" s="77" t="n"/>
-      <c r="I43" s="77" t="n"/>
-      <c r="J43" s="77" t="n"/>
-      <c r="K43" s="72" t="n"/>
-      <c r="L43" s="72" t="n"/>
-      <c r="M43" s="37" t="n"/>
-    </row>
-    <row r="44" ht="24.75" customHeight="1">
-      <c r="A44" s="72" t="inlineStr">
+      <c r="G44" s="77" t="n"/>
+      <c r="H44" s="77" t="n"/>
+      <c r="I44" s="77" t="n"/>
+      <c r="J44" s="77" t="n"/>
+      <c r="K44" s="72" t="n"/>
+      <c r="L44" s="72" t="n"/>
+      <c r="M44" s="37" t="n"/>
+    </row>
+    <row r="45" ht="24.75" customHeight="1">
+      <c r="A45" s="72" t="inlineStr">
         <is>
           <t>A/C NO:100001100764430</t>
         </is>
       </c>
     </row>
-    <row r="45" ht="27" customHeight="1">
-      <c r="A45" s="72" t="inlineStr">
+    <row r="46" ht="27" customHeight="1">
+      <c r="A46" s="72" t="inlineStr">
         <is>
           <t>SWIFT CODE  ：BKCHKHPPXXX</t>
         </is>
       </c>
     </row>
-    <row r="46" ht="25.5" customHeight="1">
-      <c r="H46" s="12" t="inlineStr">
+    <row r="47" ht="21" customHeight="1">
+      <c r="H47" s="12" t="inlineStr">
         <is>
           <t>CALIFOR UPHOLSTERY MATERIALS CO., LTD.</t>
         </is>
       </c>
-      <c r="I46" s="12" t="n"/>
-      <c r="J46" s="12" t="n"/>
-      <c r="K46" s="12" t="n"/>
-    </row>
-    <row r="47" ht="21" customHeight="1">
-      <c r="H47" s="5" t="n"/>
-      <c r="I47" s="5" t="n"/>
-      <c r="J47" s="5" t="n"/>
+      <c r="I47" s="12" t="n"/>
+      <c r="J47" s="12" t="n"/>
+      <c r="K47" s="12" t="n"/>
     </row>
     <row r="48" ht="21" customHeight="1">
       <c r="H48" s="5" t="n"/>
@@ -2961,15 +2729,19 @@
       <c r="H49" s="5" t="n"/>
       <c r="I49" s="5" t="n"/>
       <c r="J49" s="5" t="n"/>
-      <c r="K49" s="73" t="n"/>
     </row>
     <row r="50" ht="21" customHeight="1">
       <c r="H50" s="5" t="n"/>
       <c r="I50" s="5" t="n"/>
       <c r="J50" s="5" t="n"/>
-      <c r="K50" s="38" t="n"/>
-    </row>
-    <row r="51" ht="21" customHeight="1"/>
+      <c r="K50" s="73" t="n"/>
+    </row>
+    <row r="51" ht="21" customHeight="1">
+      <c r="H51" s="5" t="n"/>
+      <c r="I51" s="5" t="n"/>
+      <c r="J51" s="5" t="n"/>
+      <c r="K51" s="38" t="n"/>
+    </row>
     <row r="52" ht="17.25" customHeight="1"/>
     <row r="53"/>
     <row r="54"/>
@@ -3121,29 +2893,29 @@
     <row r="200" ht="42" customHeight="1"/>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A6:J6"/>
+    <mergeCell ref="A44:F44"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="A46:L46"/>
     <mergeCell ref="I20:I21"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A200:B200"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="A43:F43"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="B42:F42"/>
     <mergeCell ref="A4:J4"/>
-    <mergeCell ref="A6:J6"/>
     <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="A41:F41"/>
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E22:E34"/>
+    <mergeCell ref="A200:B200"/>
+    <mergeCell ref="B43:F43"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="A45:L45"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="F20:G20"/>
     <mergeCell ref="A2:J2"/>
-    <mergeCell ref="E22:E33"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="A44:L44"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="A45:L45"/>
-    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="B35:C35"/>
   </mergeCells>
   <conditionalFormatting sqref="O24:O36">
     <cfRule type="duplicateValues" priority="1" stopIfTrue="1"/>
@@ -3152,7 +2924,6 @@
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" scale="46"/>
-  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/invoice_gen/result.xlsx
+++ b/invoice_gen/result.xlsx
@@ -281,7 +281,7 @@
       <sz val="14"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
@@ -298,6 +298,11 @@
       <patternFill patternType="solid">
         <fgColor theme="1"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D3D3D3"/>
       </patternFill>
     </fill>
   </fills>
@@ -476,7 +481,7 @@
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="139">
+  <cellXfs count="140">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
@@ -768,7 +773,7 @@
     <xf numFmtId="168" fontId="36" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="40" fillId="4" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="41" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -816,6 +821,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="4" fontId="38" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="4" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -4020,69 +4028,69 @@
       <c r="B20" s="65" t="n"/>
     </row>
     <row r="21" ht="27" customHeight="1">
-      <c r="A21" s="120" t="inlineStr">
+      <c r="A21" s="129" t="inlineStr">
         <is>
           <t>Mark &amp; Nº</t>
         </is>
       </c>
-      <c r="B21" s="120" t="inlineStr">
+      <c r="B21" s="129" t="inlineStr">
         <is>
           <t>P.O N°</t>
         </is>
       </c>
-      <c r="C21" s="120" t="inlineStr">
+      <c r="C21" s="129" t="inlineStr">
         <is>
           <t>ITEM N°</t>
         </is>
       </c>
-      <c r="D21" s="120" t="inlineStr">
+      <c r="D21" s="129" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="E21" s="120" t="inlineStr">
+      <c r="E21" s="129" t="inlineStr">
         <is>
           <t>Quantity</t>
         </is>
       </c>
-      <c r="F21" s="129" t="n"/>
-      <c r="G21" s="120" t="inlineStr">
+      <c r="F21" s="130" t="n"/>
+      <c r="G21" s="129" t="inlineStr">
         <is>
           <t>N.W (kgs)</t>
         </is>
       </c>
-      <c r="H21" s="120" t="inlineStr">
+      <c r="H21" s="129" t="inlineStr">
         <is>
           <t>G.W (kgs)</t>
         </is>
       </c>
-      <c r="I21" s="120" t="inlineStr">
+      <c r="I21" s="129" t="inlineStr">
         <is>
           <t>CBM</t>
         </is>
       </c>
     </row>
     <row r="22" ht="27" customHeight="1">
-      <c r="A22" s="130" t="n"/>
-      <c r="B22" s="130" t="n"/>
-      <c r="C22" s="130" t="n"/>
-      <c r="D22" s="130" t="n"/>
-      <c r="E22" s="120" t="inlineStr">
+      <c r="A22" s="131" t="n"/>
+      <c r="B22" s="131" t="n"/>
+      <c r="C22" s="131" t="n"/>
+      <c r="D22" s="131" t="n"/>
+      <c r="E22" s="129" t="inlineStr">
         <is>
           <t>PCS</t>
         </is>
       </c>
-      <c r="F22" s="120" t="inlineStr">
+      <c r="F22" s="129" t="inlineStr">
         <is>
           <t>SF</t>
         </is>
       </c>
-      <c r="G22" s="130" t="n"/>
-      <c r="H22" s="130" t="n"/>
-      <c r="I22" s="130" t="n"/>
+      <c r="G22" s="131" t="n"/>
+      <c r="H22" s="131" t="n"/>
+      <c r="I22" s="131" t="n"/>
     </row>
     <row r="23" ht="27" customHeight="1">
-      <c r="A23" s="131" t="inlineStr">
+      <c r="A23" s="132" t="inlineStr">
         <is>
           <t>VENDOR#:</t>
         </is>
@@ -4096,7 +4104,7 @@
         </is>
       </c>
       <c r="D23" s="111" t="n"/>
-      <c r="E23" s="132" t="n">
+      <c r="E23" s="133" t="n">
         <v>83</v>
       </c>
       <c r="F23" s="123" t="n">
@@ -4108,12 +4116,12 @@
       <c r="H23" s="123" t="n">
         <v>435.75</v>
       </c>
-      <c r="I23" s="133" t="n">
+      <c r="I23" s="134" t="n">
         <v>1.4686</v>
       </c>
     </row>
     <row r="24" ht="27" customHeight="1">
-      <c r="A24" s="134" t="inlineStr">
+      <c r="A24" s="135" t="inlineStr">
         <is>
           <t>Des: LEATHER</t>
         </is>
@@ -4127,7 +4135,7 @@
         </is>
       </c>
       <c r="D24" s="111" t="n"/>
-      <c r="E24" s="132" t="n">
+      <c r="E24" s="133" t="n">
         <v>5</v>
       </c>
       <c r="F24" s="123" t="n">
@@ -4139,12 +4147,12 @@
       <c r="H24" s="123" t="n">
         <v>26.25</v>
       </c>
-      <c r="I24" s="133" t="n">
+      <c r="I24" s="134" t="n">
         <v>0.0885</v>
       </c>
     </row>
     <row r="25" ht="27" customHeight="1">
-      <c r="A25" s="134" t="inlineStr">
+      <c r="A25" s="135" t="inlineStr">
         <is>
           <t>Case Qty:</t>
         </is>
@@ -4158,7 +4166,7 @@
         </is>
       </c>
       <c r="D25" s="111" t="n"/>
-      <c r="E25" s="132" t="n">
+      <c r="E25" s="133" t="n">
         <v>6</v>
       </c>
       <c r="F25" s="123" t="n">
@@ -4170,12 +4178,12 @@
       <c r="H25" s="123" t="n">
         <v>31.5</v>
       </c>
-      <c r="I25" s="133" t="n">
+      <c r="I25" s="134" t="n">
         <v>0.1062</v>
       </c>
     </row>
     <row r="26" ht="27" customHeight="1">
-      <c r="A26" s="134" t="inlineStr">
+      <c r="A26" s="135" t="inlineStr">
         <is>
           <t>MADE IN CAMBODIA</t>
         </is>
@@ -4189,7 +4197,7 @@
         </is>
       </c>
       <c r="D26" s="111" t="n"/>
-      <c r="E26" s="132" t="n">
+      <c r="E26" s="133" t="n">
         <v>101</v>
       </c>
       <c r="F26" s="123" t="n">
@@ -4201,12 +4209,12 @@
       <c r="H26" s="123" t="n">
         <v>453.0972</v>
       </c>
-      <c r="I26" s="133" t="n">
+      <c r="I26" s="134" t="n">
         <v>1.5554</v>
       </c>
     </row>
     <row r="27" ht="27" customHeight="1">
-      <c r="A27" s="135" t="n"/>
+      <c r="A27" s="136" t="n"/>
       <c r="B27" s="122" t="n">
         <v>9000637260</v>
       </c>
@@ -4216,7 +4224,7 @@
         </is>
       </c>
       <c r="D27" s="111" t="n"/>
-      <c r="E27" s="132" t="n">
+      <c r="E27" s="133" t="n">
         <v>7</v>
       </c>
       <c r="F27" s="123" t="n">
@@ -4228,12 +4236,12 @@
       <c r="H27" s="123" t="n">
         <v>31.4028</v>
       </c>
-      <c r="I27" s="133" t="n">
+      <c r="I27" s="134" t="n">
         <v>0.1078</v>
       </c>
     </row>
     <row r="28" ht="27" customHeight="1">
-      <c r="A28" s="135" t="n"/>
+      <c r="A28" s="136" t="n"/>
       <c r="B28" s="122" t="n">
         <v>9000619872</v>
       </c>
@@ -4243,7 +4251,7 @@
         </is>
       </c>
       <c r="D28" s="111" t="n"/>
-      <c r="E28" s="132" t="n">
+      <c r="E28" s="133" t="n">
         <v>135</v>
       </c>
       <c r="F28" s="123" t="n">
@@ -4255,12 +4263,12 @@
       <c r="H28" s="123" t="n">
         <v>612</v>
       </c>
-      <c r="I28" s="133" t="n">
+      <c r="I28" s="134" t="n">
         <v>1.9008</v>
       </c>
     </row>
     <row r="29" ht="27" customHeight="1">
-      <c r="A29" s="135" t="n"/>
+      <c r="A29" s="136" t="n"/>
       <c r="B29" s="122" t="n">
         <v>9000619872</v>
       </c>
@@ -4270,7 +4278,7 @@
         </is>
       </c>
       <c r="D29" s="111" t="n"/>
-      <c r="E29" s="132" t="n">
+      <c r="E29" s="133" t="n">
         <v>109</v>
       </c>
       <c r="F29" s="123" t="n">
@@ -4282,12 +4290,12 @@
       <c r="H29" s="123" t="n">
         <v>500.7188</v>
       </c>
-      <c r="I29" s="133" t="n">
+      <c r="I29" s="134" t="n">
         <v>1.9655</v>
       </c>
     </row>
     <row r="30" ht="27" customHeight="1">
-      <c r="A30" s="135" t="n"/>
+      <c r="A30" s="136" t="n"/>
       <c r="B30" s="122" t="n">
         <v>9000619872</v>
       </c>
@@ -4297,7 +4305,7 @@
         </is>
       </c>
       <c r="D30" s="111" t="n"/>
-      <c r="E30" s="132" t="n">
+      <c r="E30" s="133" t="n">
         <v>3</v>
       </c>
       <c r="F30" s="123" t="n">
@@ -4309,12 +4317,12 @@
       <c r="H30" s="123" t="n">
         <v>13.7813</v>
       </c>
-      <c r="I30" s="133" t="n">
+      <c r="I30" s="134" t="n">
         <v>0.0541</v>
       </c>
     </row>
     <row r="31" ht="27" customHeight="1">
-      <c r="A31" s="135" t="n"/>
+      <c r="A31" s="136" t="n"/>
       <c r="B31" s="122" t="n">
         <v>9000619872</v>
       </c>
@@ -4324,7 +4332,7 @@
         </is>
       </c>
       <c r="D31" s="111" t="n"/>
-      <c r="E31" s="132" t="n">
+      <c r="E31" s="133" t="n">
         <v>27</v>
       </c>
       <c r="F31" s="123" t="n">
@@ -4336,12 +4344,12 @@
       <c r="H31" s="123" t="n">
         <v>159</v>
       </c>
-      <c r="I31" s="133" t="n">
+      <c r="I31" s="134" t="n">
         <v>2.772</v>
       </c>
     </row>
     <row r="32" ht="27" customHeight="1">
-      <c r="A32" s="135" t="n"/>
+      <c r="A32" s="136" t="n"/>
       <c r="B32" s="122" t="n">
         <v>9000661047</v>
       </c>
@@ -4351,7 +4359,7 @@
         </is>
       </c>
       <c r="D32" s="111" t="n"/>
-      <c r="E32" s="132" t="n">
+      <c r="E32" s="133" t="n">
         <v>226</v>
       </c>
       <c r="F32" s="123" t="n">
@@ -4363,12 +4371,12 @@
       <c r="H32" s="123" t="n">
         <v>989.7076</v>
       </c>
-      <c r="I32" s="133" t="n">
+      <c r="I32" s="134" t="n">
         <v>2.8062</v>
       </c>
     </row>
     <row r="33" ht="27" customHeight="1">
-      <c r="A33" s="135" t="n"/>
+      <c r="A33" s="136" t="n"/>
       <c r="B33" s="122" t="n">
         <v>9000661047</v>
       </c>
@@ -4378,7 +4386,7 @@
         </is>
       </c>
       <c r="D33" s="111" t="n"/>
-      <c r="E33" s="132" t="n">
+      <c r="E33" s="133" t="n">
         <v>10</v>
       </c>
       <c r="F33" s="123" t="n">
@@ -4390,12 +4398,12 @@
       <c r="H33" s="123" t="n">
         <v>43.7924</v>
       </c>
-      <c r="I33" s="133" t="n">
+      <c r="I33" s="134" t="n">
         <v>0.1242</v>
       </c>
     </row>
     <row r="34" ht="27" customHeight="1">
-      <c r="A34" s="135" t="n"/>
+      <c r="A34" s="136" t="n"/>
       <c r="B34" s="122" t="n">
         <v>9000632447</v>
       </c>
@@ -4405,7 +4413,7 @@
         </is>
       </c>
       <c r="D34" s="111" t="n"/>
-      <c r="E34" s="132" t="n">
+      <c r="E34" s="133" t="n">
         <v>146</v>
       </c>
       <c r="F34" s="123" t="n">
@@ -4417,12 +4425,12 @@
       <c r="H34" s="123" t="n">
         <v>868.6014</v>
       </c>
-      <c r="I34" s="133" t="n">
+      <c r="I34" s="134" t="n">
         <v>2.4611</v>
       </c>
     </row>
     <row r="35" ht="27" customHeight="1">
-      <c r="A35" s="135" t="n"/>
+      <c r="A35" s="136" t="n"/>
       <c r="B35" s="122" t="n">
         <v>9000632447</v>
       </c>
@@ -4432,7 +4440,7 @@
         </is>
       </c>
       <c r="D35" s="111" t="n"/>
-      <c r="E35" s="132" t="n">
+      <c r="E35" s="133" t="n">
         <v>2</v>
       </c>
       <c r="F35" s="123" t="n">
@@ -4444,12 +4452,12 @@
       <c r="H35" s="123" t="n">
         <v>11.8986</v>
       </c>
-      <c r="I35" s="133" t="n">
+      <c r="I35" s="134" t="n">
         <v>0.0337</v>
       </c>
     </row>
     <row r="36" ht="27" customHeight="1">
-      <c r="A36" s="135" t="n"/>
+      <c r="A36" s="136" t="n"/>
       <c r="B36" s="122" t="n">
         <v>9000591002</v>
       </c>
@@ -4459,7 +4467,7 @@
         </is>
       </c>
       <c r="D36" s="111" t="n"/>
-      <c r="E36" s="132" t="n">
+      <c r="E36" s="133" t="n">
         <v>210</v>
       </c>
       <c r="F36" s="123" t="n">
@@ -4471,12 +4479,12 @@
       <c r="H36" s="123" t="n">
         <v>866.7453</v>
       </c>
-      <c r="I36" s="133" t="n">
+      <c r="I36" s="134" t="n">
         <v>2.7458</v>
       </c>
     </row>
     <row r="37" ht="27" customHeight="1">
-      <c r="A37" s="135" t="n"/>
+      <c r="A37" s="136" t="n"/>
       <c r="B37" s="122" t="n">
         <v>9000591002</v>
       </c>
@@ -4486,7 +4494,7 @@
         </is>
       </c>
       <c r="D37" s="111" t="n"/>
-      <c r="E37" s="132" t="n">
+      <c r="E37" s="133" t="n">
         <v>2</v>
       </c>
       <c r="F37" s="123" t="n">
@@ -4498,12 +4506,12 @@
       <c r="H37" s="123" t="n">
         <v>8.2547</v>
       </c>
-      <c r="I37" s="133" t="n">
+      <c r="I37" s="134" t="n">
         <v>0.0262</v>
       </c>
     </row>
     <row r="38" ht="27" customHeight="1">
-      <c r="A38" s="135" t="n"/>
+      <c r="A38" s="136" t="n"/>
       <c r="B38" s="122" t="n">
         <v>9000591002</v>
       </c>
@@ -4513,7 +4521,7 @@
         </is>
       </c>
       <c r="D38" s="111" t="n"/>
-      <c r="E38" s="132" t="n">
+      <c r="E38" s="133" t="n">
         <v>128</v>
       </c>
       <c r="F38" s="123" t="n">
@@ -4525,12 +4533,12 @@
       <c r="H38" s="123" t="n">
         <v>513.4884</v>
       </c>
-      <c r="I38" s="133" t="n">
+      <c r="I38" s="134" t="n">
         <v>1.6896</v>
       </c>
     </row>
     <row r="39" ht="27" customHeight="1">
-      <c r="A39" s="135" t="n"/>
+      <c r="A39" s="136" t="n"/>
       <c r="B39" s="122" t="n">
         <v>9000591002</v>
       </c>
@@ -4540,7 +4548,7 @@
         </is>
       </c>
       <c r="D39" s="111" t="n"/>
-      <c r="E39" s="132" t="n">
+      <c r="E39" s="133" t="n">
         <v>1</v>
       </c>
       <c r="F39" s="123" t="n">
@@ -4552,12 +4560,12 @@
       <c r="H39" s="123" t="n">
         <v>4.0116</v>
       </c>
-      <c r="I39" s="133" t="n">
+      <c r="I39" s="134" t="n">
         <v>0.0132</v>
       </c>
     </row>
     <row r="40" ht="27" customHeight="1">
-      <c r="A40" s="135" t="n"/>
+      <c r="A40" s="136" t="n"/>
       <c r="B40" s="122" t="n">
         <v>9000663929</v>
       </c>
@@ -4567,7 +4575,7 @@
         </is>
       </c>
       <c r="D40" s="111" t="n"/>
-      <c r="E40" s="132" t="n">
+      <c r="E40" s="133" t="n">
         <v>101</v>
       </c>
       <c r="F40" s="123" t="n">
@@ -4579,12 +4587,12 @@
       <c r="H40" s="123" t="n">
         <v>492.375</v>
       </c>
-      <c r="I40" s="133" t="n">
+      <c r="I40" s="134" t="n">
         <v>1.7306</v>
       </c>
     </row>
     <row r="41" ht="27" customHeight="1">
-      <c r="A41" s="135" t="n"/>
+      <c r="A41" s="136" t="n"/>
       <c r="B41" s="122" t="n">
         <v>9000663929</v>
       </c>
@@ -4594,7 +4602,7 @@
         </is>
       </c>
       <c r="D41" s="111" t="n"/>
-      <c r="E41" s="132" t="n">
+      <c r="E41" s="133" t="n">
         <v>3</v>
       </c>
       <c r="F41" s="123" t="n">
@@ -4606,12 +4614,12 @@
       <c r="H41" s="123" t="n">
         <v>14.625</v>
       </c>
-      <c r="I41" s="133" t="n">
+      <c r="I41" s="134" t="n">
         <v>0.0514</v>
       </c>
     </row>
     <row r="42" ht="27" customHeight="1">
-      <c r="A42" s="135" t="n"/>
+      <c r="A42" s="136" t="n"/>
       <c r="B42" s="122" t="n">
         <v>9000653386</v>
       </c>
@@ -4621,7 +4629,7 @@
         </is>
       </c>
       <c r="D42" s="111" t="n"/>
-      <c r="E42" s="132" t="n">
+      <c r="E42" s="133" t="n">
         <v>134</v>
       </c>
       <c r="F42" s="123" t="n">
@@ -4633,12 +4641,12 @@
       <c r="H42" s="123" t="n">
         <v>392.0213</v>
       </c>
-      <c r="I42" s="133" t="n">
+      <c r="I42" s="134" t="n">
         <v>1.5054</v>
       </c>
     </row>
     <row r="43" ht="27" customHeight="1">
-      <c r="A43" s="135" t="n"/>
+      <c r="A43" s="136" t="n"/>
       <c r="B43" s="122" t="n">
         <v>9000653386</v>
       </c>
@@ -4648,7 +4656,7 @@
         </is>
       </c>
       <c r="D43" s="111" t="n"/>
-      <c r="E43" s="132" t="n">
+      <c r="E43" s="133" t="n">
         <v>7</v>
       </c>
       <c r="F43" s="123" t="n">
@@ -4660,12 +4668,12 @@
       <c r="H43" s="123" t="n">
         <v>20.4787</v>
       </c>
-      <c r="I43" s="133" t="n">
+      <c r="I43" s="134" t="n">
         <v>0.0786</v>
       </c>
     </row>
     <row r="44" ht="27" customHeight="1">
-      <c r="A44" s="135" t="n"/>
+      <c r="A44" s="136" t="n"/>
       <c r="B44" s="122" t="n">
         <v>9000689724</v>
       </c>
@@ -4675,7 +4683,7 @@
         </is>
       </c>
       <c r="D44" s="111" t="n"/>
-      <c r="E44" s="132" t="n">
+      <c r="E44" s="133" t="n">
         <v>182</v>
       </c>
       <c r="F44" s="123" t="n">
@@ -4687,12 +4695,12 @@
       <c r="H44" s="123" t="n">
         <v>782.3214</v>
       </c>
-      <c r="I44" s="133" t="n">
+      <c r="I44" s="134" t="n">
         <v>2.2063</v>
       </c>
     </row>
     <row r="45" ht="27" customHeight="1">
-      <c r="A45" s="135" t="n"/>
+      <c r="A45" s="136" t="n"/>
       <c r="B45" s="122" t="n">
         <v>9000689724</v>
       </c>
@@ -4702,7 +4710,7 @@
         </is>
       </c>
       <c r="D45" s="111" t="n"/>
-      <c r="E45" s="132" t="n">
+      <c r="E45" s="133" t="n">
         <v>14</v>
       </c>
       <c r="F45" s="123" t="n">
@@ -4714,12 +4722,12 @@
       <c r="H45" s="123" t="n">
         <v>60.1786</v>
       </c>
-      <c r="I45" s="133" t="n">
+      <c r="I45" s="134" t="n">
         <v>0.1697</v>
       </c>
     </row>
     <row r="46" ht="27" customHeight="1">
-      <c r="A46" s="135" t="n"/>
+      <c r="A46" s="136" t="n"/>
       <c r="B46" s="122" t="n">
         <v>9000689724</v>
       </c>
@@ -4729,7 +4737,7 @@
         </is>
       </c>
       <c r="D46" s="111" t="n"/>
-      <c r="E46" s="132" t="n">
+      <c r="E46" s="133" t="n">
         <v>203</v>
       </c>
       <c r="F46" s="123" t="n">
@@ -4741,12 +4749,12 @@
       <c r="H46" s="123" t="n">
         <v>842.2863</v>
       </c>
-      <c r="I46" s="133" t="n">
+      <c r="I46" s="134" t="n">
         <v>2.2042</v>
       </c>
     </row>
     <row r="47" ht="27" customHeight="1">
-      <c r="A47" s="135" t="n"/>
+      <c r="A47" s="136" t="n"/>
       <c r="B47" s="122" t="n">
         <v>9000689724</v>
       </c>
@@ -4756,7 +4764,7 @@
         </is>
       </c>
       <c r="D47" s="111" t="n"/>
-      <c r="E47" s="132" t="n">
+      <c r="E47" s="133" t="n">
         <v>29</v>
       </c>
       <c r="F47" s="123" t="n">
@@ -4768,12 +4776,12 @@
       <c r="H47" s="123" t="n">
         <v>120.3266</v>
       </c>
-      <c r="I47" s="133" t="n">
+      <c r="I47" s="134" t="n">
         <v>0.3149</v>
       </c>
     </row>
     <row r="48" ht="27" customHeight="1">
-      <c r="A48" s="135" t="n"/>
+      <c r="A48" s="136" t="n"/>
       <c r="B48" s="122" t="n">
         <v>9000689724</v>
       </c>
@@ -4783,7 +4791,7 @@
         </is>
       </c>
       <c r="D48" s="111" t="n"/>
-      <c r="E48" s="132" t="n">
+      <c r="E48" s="133" t="n">
         <v>16</v>
       </c>
       <c r="F48" s="123" t="n">
@@ -4795,12 +4803,12 @@
       <c r="H48" s="123" t="n">
         <v>66.3871</v>
       </c>
-      <c r="I48" s="133" t="n">
+      <c r="I48" s="134" t="n">
         <v>0.1737</v>
       </c>
     </row>
     <row r="49" ht="27" customHeight="1">
-      <c r="A49" s="135" t="n"/>
+      <c r="A49" s="136" t="n"/>
       <c r="B49" s="122" t="n">
         <v>9000688275</v>
       </c>
@@ -4810,7 +4818,7 @@
         </is>
       </c>
       <c r="D49" s="111" t="n"/>
-      <c r="E49" s="132" t="n">
+      <c r="E49" s="133" t="n">
         <v>200</v>
       </c>
       <c r="F49" s="123" t="n">
@@ -4822,12 +4830,12 @@
       <c r="H49" s="123" t="n">
         <v>865</v>
       </c>
-      <c r="I49" s="133" t="n">
+      <c r="I49" s="134" t="n">
         <v>2.4948</v>
       </c>
     </row>
     <row r="50" ht="27" customHeight="1">
-      <c r="A50" s="135" t="n"/>
+      <c r="A50" s="136" t="n"/>
       <c r="B50" s="122" t="n">
         <v>9000688275</v>
       </c>
@@ -4837,7 +4845,7 @@
         </is>
       </c>
       <c r="D50" s="111" t="n"/>
-      <c r="E50" s="132" t="n">
+      <c r="E50" s="133" t="n">
         <v>200</v>
       </c>
       <c r="F50" s="123" t="n">
@@ -4849,12 +4857,12 @@
       <c r="H50" s="123" t="n">
         <v>875.5</v>
       </c>
-      <c r="I50" s="133" t="n">
+      <c r="I50" s="134" t="n">
         <v>2.2572</v>
       </c>
     </row>
     <row r="51" ht="27" customHeight="1">
-      <c r="A51" s="135" t="n"/>
+      <c r="A51" s="136" t="n"/>
       <c r="B51" s="122" t="n">
         <v>9000688275</v>
       </c>
@@ -4864,7 +4872,7 @@
         </is>
       </c>
       <c r="D51" s="111" t="n"/>
-      <c r="E51" s="132" t="n">
+      <c r="E51" s="133" t="n">
         <v>209</v>
       </c>
       <c r="F51" s="123" t="n">
@@ -4876,12 +4884,12 @@
       <c r="H51" s="123" t="n">
         <v>914</v>
       </c>
-      <c r="I51" s="133" t="n">
+      <c r="I51" s="134" t="n">
         <v>2.6532</v>
       </c>
     </row>
     <row r="52" ht="27" customHeight="1">
-      <c r="A52" s="135" t="n"/>
+      <c r="A52" s="136" t="n"/>
       <c r="B52" s="122" t="n">
         <v>9000688275</v>
       </c>
@@ -4891,7 +4899,7 @@
         </is>
       </c>
       <c r="D52" s="111" t="n"/>
-      <c r="E52" s="132" t="n">
+      <c r="E52" s="133" t="n">
         <v>184</v>
       </c>
       <c r="F52" s="123" t="n">
@@ -4903,12 +4911,12 @@
       <c r="H52" s="123" t="n">
         <v>770.9259</v>
       </c>
-      <c r="I52" s="133" t="n">
+      <c r="I52" s="134" t="n">
         <v>2.2601</v>
       </c>
     </row>
     <row r="53" ht="27" customHeight="1">
-      <c r="A53" s="135" t="n"/>
+      <c r="A53" s="136" t="n"/>
       <c r="B53" s="122" t="n">
         <v>9000688275</v>
       </c>
@@ -4918,7 +4926,7 @@
         </is>
       </c>
       <c r="D53" s="111" t="n"/>
-      <c r="E53" s="132" t="n">
+      <c r="E53" s="133" t="n">
         <v>32</v>
       </c>
       <c r="F53" s="123" t="n">
@@ -4930,12 +4938,12 @@
       <c r="H53" s="123" t="n">
         <v>134.0741</v>
       </c>
-      <c r="I53" s="133" t="n">
+      <c r="I53" s="134" t="n">
         <v>0.3931</v>
       </c>
     </row>
     <row r="54" ht="27" customFormat="1" customHeight="1" s="1">
-      <c r="A54" s="135" t="n"/>
+      <c r="A54" s="136" t="n"/>
       <c r="B54" s="122" t="n">
         <v>9000688275</v>
       </c>
@@ -4945,7 +4953,7 @@
         </is>
       </c>
       <c r="D54" s="111" t="n"/>
-      <c r="E54" s="132" t="n">
+      <c r="E54" s="133" t="n">
         <v>177</v>
       </c>
       <c r="F54" s="123" t="n">
@@ -4957,12 +4965,12 @@
       <c r="H54" s="123" t="n">
         <v>764.8262999999999</v>
       </c>
-      <c r="I54" s="133" t="n">
+      <c r="I54" s="134" t="n">
         <v>2.4717</v>
       </c>
     </row>
     <row r="55" ht="27" customHeight="1">
-      <c r="A55" s="135" t="n"/>
+      <c r="A55" s="136" t="n"/>
       <c r="B55" s="122" t="n">
         <v>9000688275</v>
       </c>
@@ -4972,7 +4980,7 @@
         </is>
       </c>
       <c r="D55" s="111" t="n"/>
-      <c r="E55" s="132" t="n">
+      <c r="E55" s="133" t="n">
         <v>13</v>
       </c>
       <c r="F55" s="123" t="n">
@@ -4984,12 +4992,12 @@
       <c r="H55" s="123" t="n">
         <v>56.1737</v>
       </c>
-      <c r="I55" s="133" t="n">
+      <c r="I55" s="134" t="n">
         <v>0.1815</v>
       </c>
     </row>
     <row r="56" ht="27" customHeight="1">
-      <c r="A56" s="135" t="n"/>
+      <c r="A56" s="136" t="n"/>
       <c r="B56" s="122" t="n">
         <v>9000688275</v>
       </c>
@@ -4999,7 +5007,7 @@
         </is>
       </c>
       <c r="D56" s="111" t="n"/>
-      <c r="E56" s="132" t="n">
+      <c r="E56" s="133" t="n">
         <v>200</v>
       </c>
       <c r="F56" s="123" t="n">
@@ -5011,12 +5019,12 @@
       <c r="H56" s="123" t="n">
         <v>872</v>
       </c>
-      <c r="I56" s="133" t="n">
+      <c r="I56" s="134" t="n">
         <v>2.6532</v>
       </c>
     </row>
     <row r="57" ht="27" customHeight="1">
-      <c r="A57" s="135" t="n"/>
+      <c r="A57" s="136" t="n"/>
       <c r="B57" s="122" t="n">
         <v>9000688275</v>
       </c>
@@ -5026,7 +5034,7 @@
         </is>
       </c>
       <c r="D57" s="111" t="n"/>
-      <c r="E57" s="132" t="n">
+      <c r="E57" s="133" t="n">
         <v>181</v>
       </c>
       <c r="F57" s="123" t="n">
@@ -5038,12 +5046,12 @@
       <c r="H57" s="123" t="n">
         <v>791.037</v>
       </c>
-      <c r="I57" s="133" t="n">
+      <c r="I57" s="134" t="n">
         <v>2.5409</v>
       </c>
     </row>
     <row r="58" ht="27" customHeight="1">
-      <c r="A58" s="135" t="n"/>
+      <c r="A58" s="136" t="n"/>
       <c r="B58" s="122" t="n">
         <v>9000688275</v>
       </c>
@@ -5053,7 +5061,7 @@
         </is>
       </c>
       <c r="D58" s="111" t="n"/>
-      <c r="E58" s="132" t="n">
+      <c r="E58" s="133" t="n">
         <v>8</v>
       </c>
       <c r="F58" s="123" t="n">
@@ -5065,12 +5073,12 @@
       <c r="H58" s="123" t="n">
         <v>34.963</v>
       </c>
-      <c r="I58" s="133" t="n">
+      <c r="I58" s="134" t="n">
         <v>0.1123</v>
       </c>
     </row>
     <row r="59" ht="27" customHeight="1">
-      <c r="A59" s="135" t="n"/>
+      <c r="A59" s="136" t="n"/>
       <c r="B59" s="122" t="n">
         <v>9000688275</v>
       </c>
@@ -5080,7 +5088,7 @@
         </is>
       </c>
       <c r="D59" s="111" t="n"/>
-      <c r="E59" s="132" t="n">
+      <c r="E59" s="133" t="n">
         <v>200</v>
       </c>
       <c r="F59" s="123" t="n">
@@ -5092,12 +5100,12 @@
       <c r="H59" s="123" t="n">
         <v>863</v>
       </c>
-      <c r="I59" s="133" t="n">
+      <c r="I59" s="134" t="n">
         <v>2.5344</v>
       </c>
     </row>
     <row r="60" ht="27" customHeight="1">
-      <c r="A60" s="135" t="n"/>
+      <c r="A60" s="136" t="n"/>
       <c r="B60" s="122" t="n">
         <v>9000688275</v>
       </c>
@@ -5107,7 +5115,7 @@
         </is>
       </c>
       <c r="D60" s="111" t="n"/>
-      <c r="E60" s="132" t="n">
+      <c r="E60" s="133" t="n">
         <v>200</v>
       </c>
       <c r="F60" s="123" t="n">
@@ -5119,12 +5127,12 @@
       <c r="H60" s="123" t="n">
         <v>827.6596</v>
       </c>
-      <c r="I60" s="133" t="n">
+      <c r="I60" s="134" t="n">
         <v>2.0895</v>
       </c>
     </row>
     <row r="61" ht="27" customHeight="1">
-      <c r="A61" s="135" t="n"/>
+      <c r="A61" s="136" t="n"/>
       <c r="B61" s="122" t="n">
         <v>9000688275</v>
       </c>
@@ -5134,7 +5142,7 @@
         </is>
       </c>
       <c r="D61" s="111" t="n"/>
-      <c r="E61" s="132" t="n">
+      <c r="E61" s="133" t="n">
         <v>35</v>
       </c>
       <c r="F61" s="123" t="n">
@@ -5146,12 +5154,12 @@
       <c r="H61" s="123" t="n">
         <v>144.8404</v>
       </c>
-      <c r="I61" s="133" t="n">
+      <c r="I61" s="134" t="n">
         <v>0.3657</v>
       </c>
     </row>
     <row r="62" ht="27" customHeight="1">
-      <c r="A62" s="135" t="n"/>
+      <c r="A62" s="136" t="n"/>
       <c r="B62" s="122" t="n">
         <v>9000688275</v>
       </c>
@@ -5161,7 +5169,7 @@
         </is>
       </c>
       <c r="D62" s="111" t="n"/>
-      <c r="E62" s="132" t="n">
+      <c r="E62" s="133" t="n">
         <v>298</v>
       </c>
       <c r="F62" s="123" t="n">
@@ -5173,24 +5181,24 @@
       <c r="H62" s="123" t="n">
         <v>1275.5</v>
       </c>
-      <c r="I62" s="133" t="n">
+      <c r="I62" s="134" t="n">
         <v>3.2076</v>
       </c>
     </row>
     <row r="63" ht="27" customHeight="1">
-      <c r="A63" s="134" t="n"/>
+      <c r="A63" s="135" t="n"/>
       <c r="B63" s="122" t="inlineStr">
         <is>
           <t>LEATHER (HS.CODE: 4107.12.00)</t>
         </is>
       </c>
-      <c r="C63" s="129" t="n"/>
-      <c r="D63" s="136" t="n"/>
-      <c r="E63" s="132" t="n"/>
+      <c r="C63" s="130" t="n"/>
+      <c r="D63" s="137" t="n"/>
+      <c r="E63" s="133" t="n"/>
       <c r="F63" s="123" t="n"/>
       <c r="G63" s="123" t="n"/>
       <c r="H63" s="123" t="n"/>
-      <c r="I63" s="133" t="n"/>
+      <c r="I63" s="134" t="n"/>
     </row>
     <row r="64" ht="27" customHeight="1">
       <c r="A64" s="127" t="n"/>
@@ -5205,7 +5213,7 @@
         </is>
       </c>
       <c r="D64" s="111" t="n"/>
-      <c r="E64" s="137">
+      <c r="E64" s="138">
         <f>SUM(E23:E62)</f>
         <v/>
       </c>
@@ -5221,7 +5229,7 @@
         <f>SUM(H23:H62)</f>
         <v/>
       </c>
-      <c r="I64" s="138">
+      <c r="I64" s="139">
         <f>SUM(I23:I62)</f>
         <v/>
       </c>

--- a/invoice_gen/result.xlsx
+++ b/invoice_gen/result.xlsx
@@ -619,6 +619,50 @@
       </bottom>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="00000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="00000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="00000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="00000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="00000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="00000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="00000000"/>
       </left>
@@ -651,50 +695,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="00000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="00000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="00000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="00000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="00000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="00000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="00000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="00000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
     <border/>
   </borders>
   <cellStyleXfs count="1">
@@ -702,7 +702,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="141">
+  <cellXfs count="140">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -970,8 +970,8 @@
     <xf numFmtId="0" fontId="27" fillId="3" borderId="32" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="49" fontId="28" fillId="0" borderId="32" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1003,7 +1003,7 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="32" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="33" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="33" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="26" fillId="0" borderId="32" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -1015,27 +1015,21 @@
     <xf numFmtId="4" fontId="26" fillId="0" borderId="32" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="33" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="4" fontId="26" fillId="0" borderId="33" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="34" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="34" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="34" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="35" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="35" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="35" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="4" fontId="25" fillId="0" borderId="32" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="33" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1048,6 +1042,7 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="34" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="49" fontId="26" fillId="0" borderId="34" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1546,7 +1541,7 @@
       <c r="F8" s="97" t="n"/>
       <c r="G8" s="49" t="inlineStr">
         <is>
-          <t>DAP</t>
+          <t>FOB</t>
         </is>
       </c>
       <c r="H8" s="93" t="n"/>
@@ -1631,7 +1626,8 @@
     <row r="12" ht="22.5" customFormat="1" customHeight="1" s="39">
       <c r="A12" s="103" t="inlineStr">
         <is>
-          <t>1.23.07.0154J</t>
+          <t>1.23.07.0154J/1.23.07.0157J
+1.23.07.0220D</t>
         </is>
       </c>
       <c r="B12" s="101" t="n"/>
@@ -1639,128 +1635,62 @@
       <c r="D12" s="101" t="n"/>
       <c r="E12" s="101" t="n"/>
       <c r="F12" s="102" t="n"/>
-      <c r="G12" s="104" t="n">
-        <v>1.3</v>
+      <c r="G12" s="104">
+        <f>I12/H12</f>
+        <v/>
       </c>
       <c r="H12" s="103" t="n">
-        <v>31925.1</v>
-      </c>
-      <c r="I12" s="104">
-        <f>G12 * H12</f>
-        <v/>
+        <v>123197.8</v>
+      </c>
+      <c r="I12" s="104" t="n">
+        <v>175324.095</v>
       </c>
       <c r="J12" s="102" t="n"/>
     </row>
-    <row r="13" ht="22.5" customFormat="1" customHeight="1" s="39">
-      <c r="A13" s="103" t="inlineStr">
-        <is>
-          <t>1.23.07.0157J</t>
-        </is>
-      </c>
-      <c r="B13" s="101" t="n"/>
+    <row r="13" ht="13.5" customFormat="1" customHeight="1" s="39">
+      <c r="A13" s="105" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TOTAL OF: </t>
+        </is>
+      </c>
+      <c r="B13" s="106" t="n"/>
       <c r="C13" s="101" t="n"/>
       <c r="D13" s="101" t="n"/>
       <c r="E13" s="101" t="n"/>
       <c r="F13" s="102" t="n"/>
-      <c r="G13" s="104" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="H13" s="103" t="n">
-        <v>11067.7</v>
-      </c>
-      <c r="I13" s="104">
-        <f>G13 * H13</f>
+      <c r="G13" s="107" t="n"/>
+      <c r="H13" s="108">
+        <f>SUM(H12:H12)</f>
         <v/>
       </c>
+      <c r="I13" s="108">
+        <f>SUM(I12:I12)</f>
+        <v/>
+      </c>
       <c r="J13" s="102" t="n"/>
     </row>
-    <row r="14" ht="22.5" customHeight="1" s="88">
-      <c r="A14" s="103" t="inlineStr">
-        <is>
-          <t>1.23.07.0220D</t>
-        </is>
-      </c>
-      <c r="B14" s="101" t="n"/>
-      <c r="C14" s="101" t="n"/>
-      <c r="D14" s="101" t="n"/>
-      <c r="E14" s="101" t="n"/>
-      <c r="F14" s="102" t="n"/>
-      <c r="G14" s="104" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="H14" s="103" t="n">
-        <v>78616.8</v>
-      </c>
-      <c r="I14" s="104">
-        <f>G14 * H14</f>
-        <v/>
-      </c>
-      <c r="J14" s="102" t="n"/>
-    </row>
-    <row r="15" ht="22.5" customFormat="1" customHeight="1" s="39">
-      <c r="A15" s="103" t="inlineStr">
-        <is>
-          <t>1.23.07.0220D</t>
-        </is>
-      </c>
-      <c r="B15" s="101" t="n"/>
-      <c r="C15" s="101" t="n"/>
-      <c r="D15" s="101" t="n"/>
-      <c r="E15" s="101" t="n"/>
-      <c r="F15" s="102" t="n"/>
-      <c r="G15" s="104" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="H15" s="103" t="n">
-        <v>1588.2</v>
-      </c>
-      <c r="I15" s="104">
-        <f>G15 * H15</f>
-        <v/>
-      </c>
-      <c r="J15" s="102" t="n"/>
-    </row>
-    <row r="16" ht="13.5" customHeight="1" s="88">
-      <c r="A16" s="105" t="inlineStr">
-        <is>
-          <t xml:space="preserve">TOTAL OF: </t>
-        </is>
-      </c>
-      <c r="B16" s="106" t="n"/>
-      <c r="C16" s="101" t="n"/>
-      <c r="D16" s="101" t="n"/>
-      <c r="E16" s="101" t="n"/>
-      <c r="F16" s="102" t="n"/>
-      <c r="G16" s="107" t="n"/>
-      <c r="H16" s="108">
-        <f>SUM(H12:H15)</f>
-        <v/>
-      </c>
-      <c r="I16" s="108">
-        <f>SUM(I12:I15)</f>
-        <v/>
-      </c>
-      <c r="J16" s="102" t="n"/>
-    </row>
+    <row r="14" ht="23.1" customHeight="1" s="88"/>
+    <row r="15" ht="14.1" customFormat="1" customHeight="1" s="39"/>
+    <row r="16" ht="115.5" customHeight="1" s="88"/>
     <row r="17"/>
     <row r="18"/>
     <row r="19" ht="18" customHeight="1" s="88"/>
     <row r="20" ht="18" customHeight="1" s="88"/>
-    <row r="21" ht="18" customHeight="1" s="88"/>
+    <row r="21" ht="18" customHeight="1" s="88">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Authorized Signature For EXporter</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Authorized Signature For Importer</t>
+        </is>
+      </c>
+    </row>
     <row r="22" ht="18" customHeight="1" s="88"/>
     <row r="23" ht="18" customHeight="1" s="88"/>
-    <row r="24" ht="18" customHeight="1" s="88">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Authorized Signature For EXporter</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Authorized Signature For Importer</t>
-        </is>
-      </c>
-    </row>
+    <row r="24" ht="18" customHeight="1" s="88"/>
     <row r="25" ht="18" customHeight="1" s="88"/>
     <row r="26" ht="18" customHeight="1" s="88"/>
     <row r="27" ht="18" customHeight="1" s="88"/>
@@ -1772,35 +1702,20 @@
       <c r="J29" s="112" t="n"/>
     </row>
     <row r="30">
-      <c r="A30" s="109" t="n"/>
-      <c r="E30" s="110" t="n"/>
-      <c r="F30" s="111" t="n"/>
-      <c r="J30" s="112" t="n"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="109" t="n"/>
-      <c r="E31" s="110" t="n"/>
-      <c r="F31" s="111" t="n"/>
-      <c r="J31" s="112" t="n"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="109" t="n"/>
-      <c r="E32" s="110" t="n"/>
-      <c r="F32" s="111" t="n"/>
-      <c r="J32" s="112" t="n"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="113" t="n"/>
-      <c r="B33" s="114" t="n"/>
-      <c r="C33" s="114" t="n"/>
-      <c r="D33" s="114" t="n"/>
-      <c r="E33" s="115" t="n"/>
-      <c r="F33" s="116" t="n"/>
-      <c r="G33" s="114" t="n"/>
-      <c r="H33" s="114" t="n"/>
-      <c r="I33" s="114" t="n"/>
-      <c r="J33" s="117" t="n"/>
-    </row>
+      <c r="A30" s="113" t="n"/>
+      <c r="B30" s="114" t="n"/>
+      <c r="C30" s="114" t="n"/>
+      <c r="D30" s="114" t="n"/>
+      <c r="E30" s="115" t="n"/>
+      <c r="F30" s="116" t="n"/>
+      <c r="G30" s="114" t="n"/>
+      <c r="H30" s="114" t="n"/>
+      <c r="I30" s="114" t="n"/>
+      <c r="J30" s="117" t="n"/>
+    </row>
+    <row r="31"/>
+    <row r="32"/>
+    <row r="33"/>
     <row r="34"/>
     <row r="35"/>
     <row r="36"/>
@@ -1969,29 +1884,24 @@
     <row r="199"/>
     <row r="200"/>
   </sheetData>
-  <mergeCells count="41">
+  <mergeCells count="35">
     <mergeCell ref="G7:J7"/>
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="D8:F8"/>
     <mergeCell ref="D5:F5"/>
     <mergeCell ref="I12:J12"/>
-    <mergeCell ref="A14:F14"/>
     <mergeCell ref="F4:J4"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="A24:E24"/>
     <mergeCell ref="D10:F10"/>
     <mergeCell ref="G6:J6"/>
     <mergeCell ref="I11:J11"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="F24:J24"/>
     <mergeCell ref="A11:F11"/>
-    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B13:F13"/>
     <mergeCell ref="A12:F12"/>
-    <mergeCell ref="A15:F15"/>
     <mergeCell ref="D7:F7"/>
     <mergeCell ref="F19:J19"/>
     <mergeCell ref="A10:C10"/>
-    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="A21:E21"/>
     <mergeCell ref="G10:J10"/>
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="A5:C5"/>
@@ -1999,9 +1909,8 @@
     <mergeCell ref="G8:J8"/>
     <mergeCell ref="I13:J13"/>
     <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="I15:J15"/>
     <mergeCell ref="G5:J5"/>
+    <mergeCell ref="F21:J21"/>
     <mergeCell ref="G2:J2"/>
     <mergeCell ref="G9:J9"/>
     <mergeCell ref="A19:E19"/>
@@ -2172,7 +2081,7 @@
       <c r="E10" s="10" t="n"/>
       <c r="F10" s="12" t="inlineStr">
         <is>
-          <t>DAP :</t>
+          <t>FOB :</t>
         </is>
       </c>
       <c r="G10" s="16">
@@ -2330,12 +2239,14 @@
       </c>
       <c r="B21" s="121" t="inlineStr">
         <is>
-          <t>RB0604</t>
+          <t>RB0604/RB3358
+SJ0B-317</t>
         </is>
       </c>
       <c r="C21" s="121" t="inlineStr">
         <is>
-          <t>1.23.07.0154J</t>
+          <t>1.23.07.0154J/1.23.07.0157J
+1.23.07.0220D</t>
         </is>
       </c>
       <c r="D21" s="122" t="inlineStr">
@@ -2344,14 +2255,14 @@
         </is>
       </c>
       <c r="E21" s="123" t="n">
-        <v>31925.1</v>
-      </c>
-      <c r="F21" s="123" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="G21" s="124">
-        <f>F21 * E21</f>
+        <v>123197.8</v>
+      </c>
+      <c r="F21" s="123">
+        <f>G21/E21</f>
         <v/>
+      </c>
+      <c r="G21" s="124" t="n">
+        <v>175324.095</v>
       </c>
     </row>
     <row r="22" ht="35" customHeight="1" s="88">
@@ -2360,27 +2271,12 @@
           <t>Des: COW LEATHER</t>
         </is>
       </c>
-      <c r="B22" s="121" t="inlineStr">
-        <is>
-          <t>RB3358</t>
-        </is>
-      </c>
-      <c r="C22" s="121" t="inlineStr">
-        <is>
-          <t>1.23.07.0157J</t>
-        </is>
-      </c>
-      <c r="D22" s="126" t="n"/>
-      <c r="E22" s="123" t="n">
-        <v>11067.7</v>
-      </c>
-      <c r="F22" s="123" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="G22" s="127">
-        <f>F22 * E22</f>
-        <v/>
-      </c>
+      <c r="B22" s="107" t="n"/>
+      <c r="C22" s="107" t="n"/>
+      <c r="D22" s="107" t="n"/>
+      <c r="E22" s="107" t="n"/>
+      <c r="F22" s="107" t="n"/>
+      <c r="G22" s="126" t="n"/>
     </row>
     <row r="23" ht="35" customHeight="1" s="88">
       <c r="A23" s="125" t="inlineStr">
@@ -2388,58 +2284,28 @@
           <t>Case Qty</t>
         </is>
       </c>
-      <c r="B23" s="121" t="inlineStr">
-        <is>
-          <t>SJ0B-317</t>
-        </is>
-      </c>
-      <c r="C23" s="121" t="inlineStr">
-        <is>
-          <t>1.23.07.0220D</t>
-        </is>
-      </c>
-      <c r="D23" s="126" t="n"/>
-      <c r="E23" s="123" t="n">
-        <v>78616.8</v>
-      </c>
-      <c r="F23" s="123" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="G23" s="127">
-        <f>F23 * E23</f>
-        <v/>
-      </c>
+      <c r="B23" s="107" t="n"/>
+      <c r="C23" s="107" t="n"/>
+      <c r="D23" s="107" t="n"/>
+      <c r="E23" s="107" t="n"/>
+      <c r="F23" s="107" t="n"/>
+      <c r="G23" s="126" t="n"/>
     </row>
     <row r="24" ht="35" customHeight="1" s="88">
-      <c r="A24" s="128" t="inlineStr">
+      <c r="A24" s="127" t="inlineStr">
         <is>
           <t>MADE IN CAMBODIA</t>
         </is>
       </c>
-      <c r="B24" s="121" t="inlineStr">
-        <is>
-          <t>SJ0B-317</t>
-        </is>
-      </c>
-      <c r="C24" s="121" t="inlineStr">
-        <is>
-          <t>1.23.07.0220D</t>
-        </is>
-      </c>
-      <c r="D24" s="129" t="n"/>
-      <c r="E24" s="123" t="n">
-        <v>1588.2</v>
-      </c>
-      <c r="F24" s="123" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="G24" s="130">
-        <f>F24 * E24</f>
-        <v/>
-      </c>
+      <c r="B24" s="107" t="n"/>
+      <c r="C24" s="107" t="n"/>
+      <c r="D24" s="107" t="n"/>
+      <c r="E24" s="107" t="n"/>
+      <c r="F24" s="107" t="n"/>
+      <c r="G24" s="128" t="n"/>
     </row>
     <row r="25" ht="35" customHeight="1" s="88">
-      <c r="A25" s="131" t="n"/>
+      <c r="A25" s="128" t="n"/>
       <c r="B25" s="119" t="inlineStr">
         <is>
           <t xml:space="preserve">TOTAL OF: </t>
@@ -2451,7 +2317,7 @@
         </is>
       </c>
       <c r="D25" s="107" t="n"/>
-      <c r="E25" s="132">
+      <c r="E25" s="129">
         <f>SUM(E21:E24)</f>
         <v/>
       </c>
@@ -2733,7 +2599,7 @@
     <row r="199"/>
     <row r="200"/>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="14">
     <mergeCell ref="A4:G4"/>
     <mergeCell ref="A28:G28"/>
     <mergeCell ref="A1:G1"/>
@@ -2743,9 +2609,8 @@
     <mergeCell ref="A33:G33"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="A34:G34"/>
+    <mergeCell ref="A30:C30"/>
     <mergeCell ref="B31:C31"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="D21:D24"/>
     <mergeCell ref="A5:G5"/>
     <mergeCell ref="A3:G3"/>
     <mergeCell ref="A6:G6"/>
@@ -2939,7 +2804,7 @@
       <c r="G10" s="5" t="n"/>
       <c r="H10" s="12" t="inlineStr">
         <is>
-          <t>DAP :</t>
+          <t>FOB :</t>
         </is>
       </c>
       <c r="I10" s="16" t="inlineStr">
@@ -3104,10 +2969,10 @@
       </c>
     </row>
     <row r="20" ht="27" customHeight="1" s="88">
-      <c r="A20" s="129" t="n"/>
-      <c r="B20" s="129" t="n"/>
-      <c r="C20" s="129" t="n"/>
-      <c r="D20" s="129" t="n"/>
+      <c r="A20" s="130" t="n"/>
+      <c r="B20" s="130" t="n"/>
+      <c r="C20" s="130" t="n"/>
+      <c r="D20" s="130" t="n"/>
       <c r="E20" s="119" t="inlineStr">
         <is>
           <t>PCS</t>
@@ -3118,12 +2983,12 @@
           <t>SF</t>
         </is>
       </c>
-      <c r="G20" s="129" t="n"/>
-      <c r="H20" s="129" t="n"/>
-      <c r="I20" s="129" t="n"/>
+      <c r="G20" s="130" t="n"/>
+      <c r="H20" s="130" t="n"/>
+      <c r="I20" s="130" t="n"/>
     </row>
     <row r="21" ht="27" customHeight="1" s="88">
-      <c r="A21" s="133" t="inlineStr">
+      <c r="A21" s="131" t="inlineStr">
         <is>
           <t>VENDOR#:</t>
         </is>
@@ -3143,7 +3008,7 @@
           <t>COW LEATHER</t>
         </is>
       </c>
-      <c r="E21" s="134" t="n">
+      <c r="E21" s="132" t="n">
         <v>220</v>
       </c>
       <c r="F21" s="123" t="n">
@@ -3155,12 +3020,12 @@
       <c r="H21" s="123" t="n">
         <v>985.5</v>
       </c>
-      <c r="I21" s="135" t="n">
+      <c r="I21" s="133" t="n">
         <v>2.574</v>
       </c>
     </row>
     <row r="22" ht="27" customHeight="1" s="88">
-      <c r="A22" s="136" t="inlineStr">
+      <c r="A22" s="134" t="inlineStr">
         <is>
           <t>Des: LEATHER</t>
         </is>
@@ -3175,8 +3040,8 @@
           <t>1.23.07.0154J</t>
         </is>
       </c>
-      <c r="D22" s="126" t="n"/>
-      <c r="E22" s="134" t="n">
+      <c r="D22" s="135" t="n"/>
+      <c r="E22" s="132" t="n">
         <v>185</v>
       </c>
       <c r="F22" s="123" t="n">
@@ -3188,12 +3053,12 @@
       <c r="H22" s="123" t="n">
         <v>848.5</v>
       </c>
-      <c r="I22" s="135" t="n">
+      <c r="I22" s="133" t="n">
         <v>2.4948</v>
       </c>
     </row>
     <row r="23" ht="27" customHeight="1" s="88">
-      <c r="A23" s="136" t="inlineStr">
+      <c r="A23" s="134" t="inlineStr">
         <is>
           <t>Case Qty</t>
         </is>
@@ -3208,8 +3073,8 @@
           <t>1.23.07.0154J</t>
         </is>
       </c>
-      <c r="D23" s="126" t="n"/>
-      <c r="E23" s="134" t="n">
+      <c r="D23" s="135" t="n"/>
+      <c r="E23" s="132" t="n">
         <v>185</v>
       </c>
       <c r="F23" s="123" t="n">
@@ -3221,12 +3086,12 @@
       <c r="H23" s="123" t="n">
         <v>844.5</v>
       </c>
-      <c r="I23" s="135" t="n">
+      <c r="I23" s="133" t="n">
         <v>2.376</v>
       </c>
     </row>
     <row r="24" ht="27" customHeight="1" s="88">
-      <c r="A24" s="136" t="inlineStr">
+      <c r="A24" s="134" t="inlineStr">
         <is>
           <t>MADE IN CAMBODIA</t>
         </is>
@@ -3241,8 +3106,8 @@
           <t>1.23.07.0157J</t>
         </is>
       </c>
-      <c r="D24" s="126" t="n"/>
-      <c r="E24" s="134" t="n">
+      <c r="D24" s="135" t="n"/>
+      <c r="E24" s="132" t="n">
         <v>190</v>
       </c>
       <c r="F24" s="123" t="n">
@@ -3254,12 +3119,12 @@
       <c r="H24" s="123" t="n">
         <v>888.5</v>
       </c>
-      <c r="I24" s="135" t="n">
+      <c r="I24" s="133" t="n">
         <v>2.97</v>
       </c>
     </row>
     <row r="25" ht="27" customHeight="1" s="88">
-      <c r="A25" s="137" t="n"/>
+      <c r="A25" s="136" t="n"/>
       <c r="B25" s="121" t="inlineStr">
         <is>
           <t>SJ0B-317</t>
@@ -3270,8 +3135,8 @@
           <t>1.23.07.0220D</t>
         </is>
       </c>
-      <c r="D25" s="126" t="n"/>
-      <c r="E25" s="134" t="n">
+      <c r="D25" s="135" t="n"/>
+      <c r="E25" s="132" t="n">
         <v>185</v>
       </c>
       <c r="F25" s="123" t="n">
@@ -3283,12 +3148,12 @@
       <c r="H25" s="123" t="n">
         <v>787</v>
       </c>
-      <c r="I25" s="135" t="n">
+      <c r="I25" s="133" t="n">
         <v>2.6532</v>
       </c>
     </row>
     <row r="26" ht="27" customFormat="1" customHeight="1" s="2">
-      <c r="A26" s="137" t="n"/>
+      <c r="A26" s="136" t="n"/>
       <c r="B26" s="121" t="inlineStr">
         <is>
           <t>SJ0B-317</t>
@@ -3299,8 +3164,8 @@
           <t>1.23.07.0220D</t>
         </is>
       </c>
-      <c r="D26" s="126" t="n"/>
-      <c r="E26" s="134" t="n">
+      <c r="D26" s="135" t="n"/>
+      <c r="E26" s="132" t="n">
         <v>183</v>
       </c>
       <c r="F26" s="123" t="n">
@@ -3312,12 +3177,12 @@
       <c r="H26" s="123" t="n">
         <v>778.5</v>
       </c>
-      <c r="I26" s="135" t="n">
+      <c r="I26" s="133" t="n">
         <v>2.5344</v>
       </c>
     </row>
     <row r="27" ht="27" customHeight="1" s="88">
-      <c r="A27" s="137" t="n"/>
+      <c r="A27" s="136" t="n"/>
       <c r="B27" s="121" t="inlineStr">
         <is>
           <t>SJ0B-317</t>
@@ -3328,8 +3193,8 @@
           <t>1.23.07.0220D</t>
         </is>
       </c>
-      <c r="D27" s="126" t="n"/>
-      <c r="E27" s="134" t="n">
+      <c r="D27" s="135" t="n"/>
+      <c r="E27" s="132" t="n">
         <v>190</v>
       </c>
       <c r="F27" s="123" t="n">
@@ -3341,12 +3206,12 @@
       <c r="H27" s="123" t="n">
         <v>776.5</v>
       </c>
-      <c r="I27" s="135" t="n">
+      <c r="I27" s="133" t="n">
         <v>3.0492</v>
       </c>
     </row>
     <row r="28" ht="27" customHeight="1" s="88">
-      <c r="A28" s="137" t="n"/>
+      <c r="A28" s="136" t="n"/>
       <c r="B28" s="121" t="inlineStr">
         <is>
           <t>SJ0B-317</t>
@@ -3357,8 +3222,8 @@
           <t>1.23.07.0220D</t>
         </is>
       </c>
-      <c r="D28" s="126" t="n"/>
-      <c r="E28" s="134" t="n">
+      <c r="D28" s="135" t="n"/>
+      <c r="E28" s="132" t="n">
         <v>190</v>
       </c>
       <c r="F28" s="123" t="n">
@@ -3370,12 +3235,12 @@
       <c r="H28" s="123" t="n">
         <v>774.5</v>
       </c>
-      <c r="I28" s="135" t="n">
+      <c r="I28" s="133" t="n">
         <v>3.0492</v>
       </c>
     </row>
     <row r="29" ht="27" customHeight="1" s="88">
-      <c r="A29" s="137" t="n"/>
+      <c r="A29" s="136" t="n"/>
       <c r="B29" s="121" t="inlineStr">
         <is>
           <t>SJ0B-317</t>
@@ -3386,8 +3251,8 @@
           <t>1.23.07.0220D</t>
         </is>
       </c>
-      <c r="D29" s="126" t="n"/>
-      <c r="E29" s="134" t="n">
+      <c r="D29" s="135" t="n"/>
+      <c r="E29" s="132" t="n">
         <v>190</v>
       </c>
       <c r="F29" s="123" t="n">
@@ -3399,12 +3264,12 @@
       <c r="H29" s="123" t="n">
         <v>780</v>
       </c>
-      <c r="I29" s="135" t="n">
+      <c r="I29" s="133" t="n">
         <v>3.0492</v>
       </c>
     </row>
     <row r="30" ht="27" customHeight="1" s="88">
-      <c r="A30" s="137" t="n"/>
+      <c r="A30" s="136" t="n"/>
       <c r="B30" s="121" t="inlineStr">
         <is>
           <t>SJ0B-317</t>
@@ -3415,8 +3280,8 @@
           <t>1.23.07.0220D</t>
         </is>
       </c>
-      <c r="D30" s="126" t="n"/>
-      <c r="E30" s="134" t="n">
+      <c r="D30" s="135" t="n"/>
+      <c r="E30" s="132" t="n">
         <v>190</v>
       </c>
       <c r="F30" s="123" t="n">
@@ -3428,12 +3293,12 @@
       <c r="H30" s="123" t="n">
         <v>778</v>
       </c>
-      <c r="I30" s="135" t="n">
+      <c r="I30" s="133" t="n">
         <v>3.0492</v>
       </c>
     </row>
     <row r="31" ht="27" customHeight="1" s="88">
-      <c r="A31" s="137" t="n"/>
+      <c r="A31" s="136" t="n"/>
       <c r="B31" s="121" t="inlineStr">
         <is>
           <t>SJ0B-317</t>
@@ -3444,8 +3309,8 @@
           <t>1.23.07.0220D</t>
         </is>
       </c>
-      <c r="D31" s="126" t="n"/>
-      <c r="E31" s="134" t="n">
+      <c r="D31" s="135" t="n"/>
+      <c r="E31" s="132" t="n">
         <v>190</v>
       </c>
       <c r="F31" s="123" t="n">
@@ -3457,12 +3322,12 @@
       <c r="H31" s="123" t="n">
         <v>784</v>
       </c>
-      <c r="I31" s="135" t="n">
+      <c r="I31" s="133" t="n">
         <v>3.0492</v>
       </c>
     </row>
     <row r="32" ht="27" customHeight="1" s="88">
-      <c r="A32" s="137" t="n"/>
+      <c r="A32" s="136" t="n"/>
       <c r="B32" s="121" t="inlineStr">
         <is>
           <t>SJ0B-317</t>
@@ -3473,8 +3338,8 @@
           <t>1.23.07.0220D</t>
         </is>
       </c>
-      <c r="D32" s="126" t="n"/>
-      <c r="E32" s="134" t="n">
+      <c r="D32" s="135" t="n"/>
+      <c r="E32" s="132" t="n">
         <v>142</v>
       </c>
       <c r="F32" s="123" t="n">
@@ -3486,12 +3351,12 @@
       <c r="H32" s="123" t="n">
         <v>566.7759</v>
       </c>
-      <c r="I32" s="135" t="n">
+      <c r="I32" s="133" t="n">
         <v>2.4884</v>
       </c>
     </row>
     <row r="33" ht="27" customHeight="1" s="88">
-      <c r="A33" s="137" t="n"/>
+      <c r="A33" s="136" t="n"/>
       <c r="B33" s="121" t="inlineStr">
         <is>
           <t>SJ0B-317</t>
@@ -3502,8 +3367,8 @@
           <t>1.23.07.0220D</t>
         </is>
       </c>
-      <c r="D33" s="129" t="n"/>
-      <c r="E33" s="134" t="n">
+      <c r="D33" s="130" t="n"/>
+      <c r="E33" s="132" t="n">
         <v>32</v>
       </c>
       <c r="F33" s="123" t="n">
@@ -3515,12 +3380,12 @@
       <c r="H33" s="123" t="n">
         <v>127.7241</v>
       </c>
-      <c r="I33" s="135" t="n">
+      <c r="I33" s="133" t="n">
         <v>0.5608</v>
       </c>
     </row>
     <row r="34" ht="27" customHeight="1" s="88">
-      <c r="A34" s="136" t="n"/>
+      <c r="A34" s="134" t="n"/>
       <c r="B34" s="121" t="inlineStr">
         <is>
           <t>LEATHER (HS.CODE: 4107.12.00)</t>
@@ -3528,14 +3393,14 @@
       </c>
       <c r="C34" s="102" t="n"/>
       <c r="D34" s="122" t="n"/>
-      <c r="E34" s="134" t="n"/>
+      <c r="E34" s="132" t="n"/>
       <c r="F34" s="123" t="n"/>
       <c r="G34" s="123" t="n"/>
       <c r="H34" s="123" t="n"/>
-      <c r="I34" s="135" t="n"/>
+      <c r="I34" s="133" t="n"/>
     </row>
     <row r="35" ht="27" customHeight="1" s="88">
-      <c r="A35" s="138" t="n"/>
+      <c r="A35" s="137" t="n"/>
       <c r="B35" s="119" t="inlineStr">
         <is>
           <t xml:space="preserve">TOTAL OF: </t>
@@ -3547,23 +3412,23 @@
         </is>
       </c>
       <c r="D35" s="107" t="n"/>
-      <c r="E35" s="139">
+      <c r="E35" s="138">
         <f>SUM(E21:E33)</f>
         <v/>
       </c>
-      <c r="F35" s="132">
+      <c r="F35" s="129">
         <f>SUM(F21:F33)</f>
         <v/>
       </c>
-      <c r="G35" s="132">
+      <c r="G35" s="129">
         <f>SUM(G21:G33)</f>
         <v/>
       </c>
-      <c r="H35" s="132">
+      <c r="H35" s="129">
         <f>SUM(H21:H33)</f>
         <v/>
       </c>
-      <c r="I35" s="140">
+      <c r="I35" s="139">
         <f>SUM(I21:I33)</f>
         <v/>
       </c>

--- a/invoice_gen/result.xlsx
+++ b/invoice_gen/result.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Contract" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Invoice" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Packing list" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Contract" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Invoice" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Packing list" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <externalReferences>
-    <externalReference xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+    <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Contract'!$A$1:$F$34</definedName>
@@ -27,9 +27,9 @@
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy;@"/>
     <numFmt numFmtId="165" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="166" formatCode="#,##0.000000"/>
+    <numFmt numFmtId="166" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="167" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="168" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="168" formatCode="##,000.00"/>
   </numFmts>
   <fonts count="33">
     <font>
@@ -221,20 +221,20 @@
     <font>
       <name val="Times New Roman"/>
       <b val="1"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <b val="1"/>
       <sz val="12"/>
     </font>
     <font>
       <name val="Times New Roman"/>
       <sz val="12"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <b val="1"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="10"/>
     </font>
   </fonts>
   <fills count="2">
@@ -245,7 +245,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -317,17 +317,6 @@
       <left style="thin">
         <color rgb="00000000"/>
       </left>
-      <right style="thin">
-        <color rgb="00000000"/>
-      </right>
-      <bottom style="thin">
-        <color rgb="00000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="00000000"/>
-      </left>
       <right/>
       <top/>
       <bottom/>
@@ -348,26 +337,6 @@
       <left style="thin">
         <color rgb="00000000"/>
       </left>
-      <right style="thin">
-        <color rgb="00000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="00000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="00000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color rgb="00000000"/>
       </right>
@@ -422,7 +391,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -535,9 +504,6 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="16" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="3">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="4" fontId="11" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -597,6 +563,9 @@
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="16" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="3">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
@@ -647,91 +616,74 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="168" fontId="27" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="166" fontId="27" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="30" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="29" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="4" fontId="29" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="32" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="4" fontId="32" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="32" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="32" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="30" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="30" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="4" fontId="29" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="30" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="30" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="29" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="29" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="3" fontId="31" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="31" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="31" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -813,7 +765,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor>
     <from>
       <col>7</col>
@@ -833,7 +785,7 @@
         <cNvGrpSpPr/>
       </nvGrpSpPr>
       <grpSpPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="0">
+        <a:xfrm rot="0">
           <a:off x="10679029" y="10008937"/>
           <a:ext cx="3025707" cy="1327636"/>
           <a:chOff x="7095490" y="13465334"/>
@@ -844,24 +796,24 @@
         <nvPicPr>
           <cNvPr id="4" name="图片 2" descr="微信图片_20231124163945"/>
           <cNvPicPr>
-            <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
+            <a:picLocks noChangeAspect="1"/>
           </cNvPicPr>
         </nvPicPr>
         <blipFill>
-          <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-          <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:blip r:embed="rId1"/>
+          <a:stretch>
             <a:fillRect/>
           </a:stretch>
         </blipFill>
         <spPr>
-          <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:xfrm>
             <a:off x="9526289" y="14283149"/>
             <a:ext cx="2179637" cy="1332388"/>
           </a:xfrm>
-          <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:prstGeom prst="rect">
             <avLst/>
           </a:prstGeom>
-          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:ln>
             <a:prstDash val="solid"/>
           </a:ln>
         </spPr>
@@ -873,8 +825,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook r:id="rId1">
     <sheetNames>
       <sheetName val="Contract"/>
       <sheetName val="Packing list"/>
@@ -1159,33 +1111,33 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H200"/>
+  <dimension ref="A1:P202"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col width="27" customWidth="1" style="49" min="1" max="1"/>
-    <col width="30" customWidth="1" style="49" min="2" max="2"/>
-    <col width="17" customWidth="1" style="49" min="3" max="3"/>
-    <col width="19" customWidth="1" style="49" min="4" max="4"/>
-    <col width="15" customWidth="1" style="49" min="5" max="5"/>
-    <col width="21" customWidth="1" style="49" min="6" max="6"/>
-    <col width="28.7109375" customWidth="1" style="49" min="7" max="16382"/>
-    <col width="28.7109375" customWidth="1" style="49" min="16383" max="16384"/>
+    <col width="24.42578125" customWidth="1" style="48" min="1" max="1"/>
+    <col width="21.42578125" customWidth="1" style="48" min="2" max="2"/>
+    <col width="17.42578125" customWidth="1" style="48" min="3" max="3"/>
+    <col width="16.7109375" customWidth="1" style="48" min="4" max="4"/>
+    <col width="17.140625" customWidth="1" style="48" min="5" max="5"/>
+    <col width="26.85546875" customWidth="1" style="48" min="6" max="6"/>
+    <col width="28.7109375" customWidth="1" style="48" min="7" max="16382"/>
+    <col width="28.7109375" customWidth="1" style="48" min="16383" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="45.95" customFormat="1" customHeight="1" s="31">
-      <c r="A1" s="60" t="inlineStr">
+      <c r="A1" s="59" t="inlineStr">
         <is>
           <t>SALES CONTRACT</t>
         </is>
       </c>
     </row>
     <row r="2" ht="27" customFormat="1" customHeight="1" s="20">
-      <c r="A2" s="60" t="inlineStr">
+      <c r="A2" s="59" t="inlineStr">
         <is>
           <t>HỢP ĐỒNG MUA BÁN</t>
         </is>
@@ -1201,7 +1153,7 @@
         </is>
       </c>
       <c r="F3" s="80" t="n">
-        <v>45694</v>
+        <v>45825</v>
       </c>
     </row>
     <row r="4" ht="30" customFormat="1" customHeight="1" s="31">
@@ -1214,20 +1166,20 @@
 Số hợp đồng</t>
         </is>
       </c>
-      <c r="F4" s="54" t="inlineStr">
-        <is>
-          <t>HAPPY25007</t>
+      <c r="F4" s="53" t="inlineStr">
+        <is>
+          <t>JFINV</t>
         </is>
       </c>
     </row>
     <row r="5" ht="25.5" customFormat="1" customHeight="1" s="31">
-      <c r="A5" s="57" t="inlineStr">
+      <c r="A5" s="56" t="inlineStr">
         <is>
           <t>The Seller:
 Bên bán</t>
         </is>
       </c>
-      <c r="B5" s="61" t="inlineStr">
+      <c r="B5" s="60" t="inlineStr">
         <is>
           <t>CALIFOR UPHOLSTERY MATERIALS CO.,LTD.</t>
         </is>
@@ -1254,7 +1206,7 @@
       </c>
     </row>
     <row r="8" ht="25.5" customFormat="1" customHeight="1" s="31">
-      <c r="A8" s="57" t="inlineStr">
+      <c r="A8" s="56" t="inlineStr">
         <is>
           <t>Phone number: 
 Số điện thoại</t>
@@ -1271,47 +1223,47 @@
       <c r="F8" s="32" t="n"/>
     </row>
     <row r="9" ht="29.1" customFormat="1" customHeight="1" s="31">
-      <c r="A9" s="57" t="inlineStr">
+      <c r="A9" s="56" t="inlineStr">
         <is>
           <t>Tax code:
 Mã số thuế</t>
         </is>
       </c>
-      <c r="B9" s="58" t="inlineStr">
+      <c r="B9" s="57" t="inlineStr">
         <is>
           <t>L001-901903209</t>
         </is>
       </c>
-      <c r="C9" s="58" t="n"/>
-      <c r="D9" s="58" t="n"/>
-      <c r="E9" s="58" t="n"/>
-      <c r="F9" s="58" t="n"/>
+      <c r="C9" s="57" t="n"/>
+      <c r="D9" s="57" t="n"/>
+      <c r="E9" s="57" t="n"/>
+      <c r="F9" s="57" t="n"/>
     </row>
     <row r="10" ht="29.1" customFormat="1" customHeight="1" s="31">
-      <c r="A10" s="57" t="inlineStr">
+      <c r="A10" s="56" t="inlineStr">
         <is>
           <t>Representative:
 Đại diện bởi</t>
         </is>
       </c>
-      <c r="B10" s="58" t="inlineStr">
+      <c r="B10" s="57" t="inlineStr">
         <is>
           <t>Mr. ZENG XUELI</t>
         </is>
       </c>
-      <c r="C10" s="58" t="n"/>
-      <c r="D10" s="58" t="n"/>
-      <c r="E10" s="58" t="n"/>
-      <c r="F10" s="58" t="n"/>
+      <c r="C10" s="57" t="n"/>
+      <c r="D10" s="57" t="n"/>
+      <c r="E10" s="57" t="n"/>
+      <c r="F10" s="57" t="n"/>
     </row>
     <row r="11" ht="30" customFormat="1" customHeight="1" s="31">
-      <c r="A11" s="57" t="inlineStr">
+      <c r="A11" s="56" t="inlineStr">
         <is>
           <t>The Buyer:
 Bên Mua</t>
         </is>
       </c>
-      <c r="B11" s="62" t="inlineStr">
+      <c r="B11" s="61" t="inlineStr">
         <is>
           <t xml:space="preserve">HAPPY FURNITURE ( VIETNAM) CO.,LTD.
 CÔNG TY TNHH HAPPY FURNITURE ( VIỆT NAM) </t>
@@ -1325,7 +1277,7 @@
 Địa chỉ</t>
         </is>
       </c>
-      <c r="B12" s="58" t="inlineStr">
+      <c r="B12" s="57" t="inlineStr">
         <is>
           <t>NO.5,HUU NGHI AVENUE, VSIP, TINH PHONG COMMUNE, SON TINH DISTRICT, QUANG NGAI PROVINCE, VIETNAM
 Số 5, Đại Lộ Hữu Nghị, Khu công nghiệp Việt Nam, Singapore, Xã Tịnh Phong, Huyện Sơn Tịnh, tỉnh Quảng Ngãi, Việt Nam</t>
@@ -1333,7 +1285,7 @@
       </c>
     </row>
     <row r="13" ht="30" customFormat="1" customHeight="1" s="37">
-      <c r="A13" s="57" t="inlineStr">
+      <c r="A13" s="56" t="inlineStr">
         <is>
           <t>Tax code:
 Mã số thuế</t>
@@ -1344,27 +1296,27 @@
           <t>4300829902</t>
         </is>
       </c>
-      <c r="C13" s="58" t="n"/>
-      <c r="D13" s="58" t="n"/>
-      <c r="E13" s="58" t="n"/>
-      <c r="F13" s="58" t="n"/>
+      <c r="C13" s="57" t="n"/>
+      <c r="D13" s="57" t="n"/>
+      <c r="E13" s="57" t="n"/>
+      <c r="F13" s="57" t="n"/>
     </row>
     <row r="14" ht="30" customFormat="1" customHeight="1" s="37">
-      <c r="A14" s="57" t="inlineStr">
+      <c r="A14" s="56" t="inlineStr">
         <is>
           <t>Representative:
 Đại diện bởi</t>
         </is>
       </c>
-      <c r="B14" s="58" t="inlineStr">
+      <c r="B14" s="57" t="inlineStr">
         <is>
           <t>Mr. ZHANG DONGHAI</t>
         </is>
       </c>
-      <c r="C14" s="58" t="n"/>
-      <c r="D14" s="58" t="n"/>
-      <c r="E14" s="58" t="n"/>
-      <c r="F14" s="58" t="n"/>
+      <c r="C14" s="57" t="n"/>
+      <c r="D14" s="57" t="n"/>
+      <c r="E14" s="57" t="n"/>
+      <c r="F14" s="57" t="n"/>
     </row>
     <row r="15" ht="25.5" customFormat="1" customHeight="1" s="37">
       <c r="A15" s="39" t="inlineStr">
@@ -1400,369 +1352,255 @@
       <c r="F16" s="33" t="n"/>
     </row>
     <row r="17" ht="18.95" customFormat="1" customHeight="1" s="31">
-      <c r="A17" s="57" t="inlineStr">
+      <c r="A17" s="56" t="inlineStr">
         <is>
           <t>The undersigned Sellers 、Buyers and Beneficiary have agreed to close the  following transactions according to the terms and conditions Stipulated below:</t>
         </is>
       </c>
     </row>
     <row r="18" ht="12.75" customFormat="1" customHeight="1" s="31">
-      <c r="A18" s="57" t="inlineStr">
+      <c r="A18" s="56" t="inlineStr">
         <is>
           <t>Người bán, người mua và người thụ hưởng đã thống nhất đồng ý các giao dịch sau theo các điều khoản và điều kiện được quy định dưới đây:</t>
         </is>
       </c>
     </row>
-    <row r="19" ht="36" customFormat="1" customHeight="1" s="31">
-      <c r="A19" s="81" t="inlineStr">
-        <is>
-          <t>P.O N°</t>
-        </is>
-      </c>
-      <c r="B19" s="81" t="inlineStr">
+    <row r="19" ht="12.75" customFormat="1" customHeight="1" s="31">
+      <c r="A19" s="56" t="n"/>
+      <c r="B19" s="56" t="n"/>
+      <c r="C19" s="56" t="n"/>
+      <c r="D19" s="56" t="n"/>
+      <c r="E19" s="56" t="n"/>
+      <c r="F19" s="56" t="n"/>
+    </row>
+    <row r="20" ht="29" customFormat="1" customHeight="1" s="31">
+      <c r="A20" s="81" t="inlineStr">
+        <is>
+          <t>P.O Nº</t>
+        </is>
+      </c>
+      <c r="B20" s="81" t="inlineStr">
         <is>
           <t>Name of Cormodity
-Tên và miêu</t>
-        </is>
-      </c>
-      <c r="C19" s="81" t="inlineStr">
+Tên và miêu tả</t>
+        </is>
+      </c>
+      <c r="C20" s="81" t="inlineStr">
         <is>
           <t>Description
-tả hàng hóa</t>
-        </is>
-      </c>
-      <c r="D19" s="81" t="inlineStr">
-        <is>
-          <t>Quantity
+Tả hàng hóa</t>
+        </is>
+      </c>
+      <c r="D20" s="81" t="inlineStr">
+        <is>
+          <t>Quantity(SF)
 Số lượng(SF)</t>
         </is>
       </c>
-      <c r="E19" s="81" t="inlineStr">
-        <is>
-          <t>Unit Price
-Đơn giá(USD)</t>
-        </is>
-      </c>
-      <c r="F19" s="81" t="inlineStr">
-        <is>
-          <t>Total value
-Trị giá(USD)</t>
-        </is>
-      </c>
-    </row>
-    <row r="20" ht="30" customFormat="1" customHeight="1" s="31">
-      <c r="A20" s="82" t="inlineStr">
-        <is>
-          <t>YNGY25022</t>
-        </is>
-      </c>
-      <c r="B20" s="82" t="inlineStr">
-        <is>
-          <t>Nick Dove</t>
-        </is>
-      </c>
-      <c r="C20" s="83" t="inlineStr">
-        <is>
-          <t>COW LEATHER
-DA BÒ THUỘC</t>
-        </is>
-      </c>
-      <c r="D20" s="84" t="n">
-        <v>83901.8</v>
-      </c>
-      <c r="E20" s="85" t="n"/>
-      <c r="F20" s="84">
-        <f>E20 * D20</f>
+      <c r="E20" s="81" t="inlineStr">
+        <is>
+          <t>Unit Price(USD)
+Đơn giá)</t>
+        </is>
+      </c>
+      <c r="F20" s="81" t="inlineStr">
+        <is>
+          <t>Total value(USD)
+Trị giá</t>
+        </is>
+      </c>
+    </row>
+    <row r="21" ht="21" customFormat="1" customHeight="1" s="31">
+      <c r="A21" s="82" t="inlineStr">
+        <is>
+          <t>2024.11.29/2025.01.15
+2025.4.14/KBCGDD167779</t>
+        </is>
+      </c>
+      <c r="B21" s="82" t="inlineStr">
+        <is>
+          <t>NMP-029J/RB0604
+RB08649</t>
+        </is>
+      </c>
+      <c r="C21" s="83" t="inlineStr">
+        <is>
+          <t>COW LEATHER</t>
+        </is>
+      </c>
+      <c r="D21" s="84" t="n">
+        <v>79931.60000000001</v>
+      </c>
+      <c r="E21" s="84">
+        <f>F21/D21</f>
         <v/>
       </c>
-    </row>
-    <row r="21" ht="30" customFormat="1" customHeight="1" s="31">
-      <c r="A21" s="82" t="inlineStr">
-        <is>
-          <t>YNGY25017</t>
-        </is>
-      </c>
-      <c r="B21" s="82" t="inlineStr">
-        <is>
-          <t>M1243</t>
-        </is>
-      </c>
-      <c r="C21" s="86" t="n"/>
-      <c r="D21" s="84" t="n">
-        <v>10178.9</v>
-      </c>
-      <c r="E21" s="85" t="n"/>
-      <c r="F21" s="84">
-        <f>E21 * D21</f>
+      <c r="F21" s="84" t="n">
+        <v>98243.129</v>
+      </c>
+    </row>
+    <row r="22" ht="29" customFormat="1" customHeight="1" s="31">
+      <c r="A22" s="85" t="inlineStr">
+        <is>
+          <t>TOTAL OF:</t>
+        </is>
+      </c>
+      <c r="B22" s="85" t="n"/>
+      <c r="C22" s="85" t="n"/>
+      <c r="D22" s="86">
+        <f>SUM(D21:D21)</f>
         <v/>
       </c>
-    </row>
-    <row r="22" ht="30" customFormat="1" customHeight="1" s="31">
-      <c r="A22" s="82" t="inlineStr">
-        <is>
-          <t>GYOJY_M24360</t>
-        </is>
-      </c>
-      <c r="B22" s="82" t="inlineStr">
-        <is>
-          <t>M1243</t>
-        </is>
-      </c>
-      <c r="C22" s="86" t="n"/>
-      <c r="D22" s="84" t="n">
-        <v>10294.5</v>
-      </c>
       <c r="E22" s="85" t="n"/>
-      <c r="F22" s="84">
-        <f>E22 * D22</f>
+      <c r="F22" s="86">
+        <f>SUM(F21:F21)</f>
         <v/>
       </c>
     </row>
-    <row r="23" ht="30" customFormat="1" customHeight="1" s="31">
-      <c r="A23" s="82" t="inlineStr">
-        <is>
-          <t>GYOJY_M24367</t>
-        </is>
-      </c>
-      <c r="B23" s="82" t="inlineStr">
-        <is>
-          <t>M1243</t>
-        </is>
-      </c>
-      <c r="C23" s="86" t="n"/>
-      <c r="D23" s="84" t="n">
-        <v>10379.2</v>
-      </c>
-      <c r="E23" s="85" t="n"/>
-      <c r="F23" s="84">
-        <f>E23 * D23</f>
-        <v/>
-      </c>
-    </row>
-    <row r="24" ht="30" customFormat="1" customHeight="1" s="31">
-      <c r="A24" s="82" t="n">
-        <v>20250531</v>
-      </c>
-      <c r="B24" s="82" t="inlineStr">
-        <is>
-          <t>Almond</t>
-        </is>
-      </c>
-      <c r="C24" s="86" t="n"/>
-      <c r="D24" s="84" t="n">
-        <v>1018</v>
-      </c>
-      <c r="E24" s="85" t="n"/>
-      <c r="F24" s="84">
-        <f>E24 * D24</f>
-        <v/>
-      </c>
-    </row>
-    <row r="25" ht="30" customFormat="1" customHeight="1" s="31">
-      <c r="A25" s="82" t="n">
-        <v>20250531</v>
-      </c>
-      <c r="B25" s="82" t="inlineStr">
-        <is>
-          <t>KNOX BLACK 660</t>
-        </is>
-      </c>
-      <c r="C25" s="86" t="n"/>
-      <c r="D25" s="84" t="n">
-        <v>1023.9</v>
-      </c>
-      <c r="E25" s="85" t="n"/>
-      <c r="F25" s="84">
-        <f>E25 * D25</f>
-        <v/>
-      </c>
-    </row>
-    <row r="26" ht="30" customFormat="1" customHeight="1" s="31">
-      <c r="A26" s="82" t="n">
-        <v>20250531</v>
-      </c>
-      <c r="B26" s="82" t="inlineStr">
-        <is>
-          <t>KNOX SILVER GRAY 998</t>
-        </is>
-      </c>
-      <c r="C26" s="87" t="n"/>
-      <c r="D26" s="84" t="n">
-        <v>969.6</v>
-      </c>
-      <c r="E26" s="85" t="n"/>
-      <c r="F26" s="84">
-        <f>E26 * D26</f>
-        <v/>
-      </c>
-    </row>
-    <row r="27" ht="36" customFormat="1" customHeight="1" s="31">
-      <c r="A27" s="88" t="inlineStr">
-        <is>
-          <t>TOTAL AMOUNT(Tổng trị giá):</t>
-        </is>
-      </c>
-      <c r="B27" s="89" t="n"/>
-      <c r="C27" s="81" t="inlineStr">
-        <is>
-          <t>12 PALLETS</t>
-        </is>
-      </c>
-      <c r="D27" s="90" t="n"/>
-      <c r="E27" s="90" t="n"/>
-      <c r="F27" s="90" t="n"/>
-    </row>
-    <row r="28" ht="29.1" customFormat="1" customHeight="1" s="31">
-      <c r="A28" s="57" t="n"/>
-      <c r="B28" s="57" t="n"/>
-      <c r="C28" s="57" t="n"/>
-      <c r="D28" s="57" t="n"/>
-      <c r="E28" s="57" t="n"/>
-      <c r="F28" s="57" t="n"/>
-    </row>
-    <row r="29" ht="29.1" customFormat="1" customHeight="1" s="31">
-      <c r="B29" s="57" t="n"/>
-      <c r="C29" s="57" t="n"/>
-      <c r="D29" s="57" t="n"/>
-      <c r="E29" s="57" t="n"/>
-      <c r="F29" s="57" t="n"/>
-    </row>
-    <row r="30" ht="29.1" customFormat="1" customHeight="1" s="31">
-      <c r="A30" s="42" t="inlineStr">
-        <is>
-          <t>FCA:</t>
-        </is>
-      </c>
-      <c r="B30" s="43" t="inlineStr">
-        <is>
-          <t xml:space="preserve">BAVET,SVAYRIENG </t>
-        </is>
-      </c>
-      <c r="C30" s="43" t="n"/>
-      <c r="D30" s="44" t="n"/>
-      <c r="E30" s="44" t="n"/>
-      <c r="F30" s="55" t="n"/>
-    </row>
-    <row r="31" ht="29.1" customFormat="1" customHeight="1" s="31">
-      <c r="A31" s="57" t="inlineStr">
+    <row r="23" ht="28.5" customFormat="1" customHeight="1" s="31">
+      <c r="B23" s="56" t="n"/>
+      <c r="C23" s="56" t="n"/>
+      <c r="D23" s="56" t="n"/>
+      <c r="E23" s="56" t="n"/>
+      <c r="F23" s="56" t="n"/>
+    </row>
+    <row r="24" ht="21" customFormat="1" customHeight="1" s="31">
+      <c r="A24" s="62" t="inlineStr">
+        <is>
+          <t>FOB: BAVET</t>
+        </is>
+      </c>
+      <c r="C24" s="42" t="n"/>
+      <c r="D24" s="43" t="n"/>
+      <c r="E24" s="43" t="n"/>
+      <c r="F24" s="54" t="n"/>
+    </row>
+    <row r="25" ht="28.5" customFormat="1" customHeight="1" s="31">
+      <c r="A25" s="56" t="inlineStr">
         <is>
           <t>Term of Payment: 100% TT after shipment
 Điều kiện thanh toán: 100% T/T, thanh toán sau khi giao hàng)</t>
         </is>
       </c>
-      <c r="E31" s="44" t="n"/>
-      <c r="F31" s="44" t="n"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="57" t="inlineStr">
+      <c r="E25" s="43" t="n"/>
+      <c r="F25" s="43" t="n"/>
+    </row>
+    <row r="26" ht="25.5" customFormat="1" customHeight="1" s="31">
+      <c r="A26" s="56" t="inlineStr">
         <is>
           <t xml:space="preserve">Transaction method:  
 Phương thức giao hàng: </t>
         </is>
       </c>
-      <c r="B32" s="45" t="inlineStr">
-        <is>
-          <t xml:space="preserve">FCA (USD) </t>
-        </is>
-      </c>
-      <c r="C32" s="44" t="n"/>
-      <c r="D32" s="44" t="n"/>
-      <c r="E32" s="44" t="n"/>
-      <c r="F32" s="44" t="n"/>
-    </row>
-    <row r="33" ht="29.1" customHeight="1">
-      <c r="A33" s="57" t="inlineStr">
+      <c r="B26" s="44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FOB (USD) </t>
+        </is>
+      </c>
+      <c r="C26" s="43" t="n"/>
+      <c r="D26" s="43" t="n"/>
+      <c r="E26" s="43" t="n"/>
+      <c r="F26" s="43" t="n"/>
+    </row>
+    <row r="27" ht="29.1" customFormat="1" customHeight="1" s="31">
+      <c r="A27" s="56" t="inlineStr">
         <is>
           <t xml:space="preserve">Beneficiary bank information:
 Thông tin ngân hàng thụ hưởng </t>
         </is>
       </c>
-      <c r="C33" s="45" t="inlineStr">
+      <c r="C27" s="44" t="inlineStr">
         <is>
           <t>CALIFOR UPHOLSTERY MATERIALS CO.,LTD.</t>
         </is>
       </c>
-      <c r="E33" s="44" t="n"/>
-      <c r="F33" s="44" t="n"/>
-    </row>
-    <row r="34" ht="51" customHeight="1">
-      <c r="A34" s="58" t="inlineStr">
+      <c r="E27" s="43" t="n"/>
+      <c r="F27" s="43" t="n"/>
+    </row>
+    <row r="28" ht="25.5" customFormat="1" customHeight="1" s="31">
+      <c r="A28" s="57" t="inlineStr">
         <is>
           <t xml:space="preserve">Beneficiary Bank' s Name:
 Tên ngân hàng thụ hưởng: </t>
         </is>
       </c>
-      <c r="B34" s="44" t="n"/>
-      <c r="C34" s="58" t="inlineStr">
+      <c r="B28" s="43" t="n"/>
+      <c r="C28" s="57" t="inlineStr">
         <is>
           <t xml:space="preserve"> BANK OF CHINA (HONG KONG) LIMITED PHNOM PENH BRANCH</t>
         </is>
       </c>
     </row>
-    <row r="35" ht="28.5" customHeight="1">
-      <c r="A35" s="57" t="inlineStr">
+    <row r="29" ht="28.5" customFormat="1" customHeight="1" s="31">
+      <c r="A29" s="56" t="inlineStr">
         <is>
           <t>Bank Address:
 Địa chỉ ngân hàng</t>
         </is>
       </c>
-      <c r="C35" s="45" t="inlineStr">
+      <c r="C29" s="44" t="inlineStr">
         <is>
           <t>1st AND 2nd FLOOR,CANADIA TOWER,No.315 ANDDUONG ST.
 PHNOM PEMH,CAMBODIA.</t>
         </is>
       </c>
-      <c r="D35" s="57" t="n"/>
-      <c r="E35" s="57" t="n"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="58" t="inlineStr">
+      <c r="D29" s="56" t="n"/>
+      <c r="E29" s="56" t="n"/>
+    </row>
+    <row r="30" ht="29.1" customFormat="1" customHeight="1" s="31">
+      <c r="A30" s="57" t="inlineStr">
         <is>
           <t>Bank account
 Số tài khoản :</t>
         </is>
       </c>
-      <c r="B36" s="44" t="n"/>
-      <c r="C36" s="46" t="inlineStr">
+      <c r="B30" s="43" t="n"/>
+      <c r="C30" s="45" t="inlineStr">
         <is>
           <t>100001100764430</t>
         </is>
       </c>
-      <c r="D36" s="47" t="n"/>
-      <c r="E36" s="47" t="n"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="45" t="inlineStr">
+      <c r="D30" s="46" t="n"/>
+      <c r="E30" s="46" t="n"/>
+    </row>
+    <row r="31" ht="116.65" customFormat="1" customHeight="1" s="31">
+      <c r="A31" s="44" t="inlineStr">
         <is>
           <t>SWIFT CODE：</t>
         </is>
       </c>
-      <c r="B37" s="44" t="n"/>
-      <c r="C37" s="45" t="inlineStr">
+      <c r="B31" s="43" t="n"/>
+      <c r="C31" s="44" t="inlineStr">
         <is>
           <t>BKCHKHPPXXX</t>
         </is>
       </c>
-      <c r="D37" s="44" t="n"/>
-      <c r="E37" s="44" t="n"/>
-    </row>
-    <row r="38">
-      <c r="E38" s="44" t="n"/>
-    </row>
-    <row r="39" ht="116.65" customHeight="1">
-      <c r="A39" s="59" t="inlineStr">
+      <c r="D31" s="43" t="n"/>
+      <c r="E31" s="43" t="n"/>
+    </row>
+    <row r="32">
+      <c r="E32" s="43" t="n"/>
+    </row>
+    <row r="33" ht="116.65" customHeight="1">
+      <c r="A33" s="58" t="inlineStr">
         <is>
           <t>HAPPY FURNITURE ( VIETNAM) CO.,LTD.</t>
         </is>
       </c>
-      <c r="C39" s="48" t="n"/>
-      <c r="D39" s="57" t="n"/>
-      <c r="E39" s="59" t="inlineStr">
+      <c r="C33" s="47" t="n"/>
+      <c r="D33" s="56" t="n"/>
+      <c r="E33" s="58" t="inlineStr">
         <is>
           <t>CALIFOR UPHOLSTERY MATERIALS CO.,LTD.</t>
         </is>
       </c>
     </row>
+    <row r="34"/>
+    <row r="35"/>
+    <row r="36"/>
+    <row r="37"/>
+    <row r="38"/>
+    <row r="39"/>
     <row r="40"/>
     <row r="41"/>
     <row r="42"/>
@@ -1924,24 +1762,28 @@
     <row r="198"/>
     <row r="199"/>
     <row r="200"/>
+    <row r="201"/>
+    <row r="202"/>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="C20:C26"/>
+  <mergeCells count="18">
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="C28:F28"/>
     <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="A35:B35"/>
     <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="A17:F17"/>
     <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A1:F1"/>
     <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="A31:B31"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B16" r:id="rId1"/>
@@ -1961,21 +1803,21 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H200"/>
+  <dimension ref="A1:P206"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A8" zoomScale="95" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A2" zoomScale="95" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="7.140625" defaultRowHeight="15"/>
   <cols>
-    <col width="26" customWidth="1" style="16" min="1" max="1"/>
-    <col width="27" customWidth="1" style="16" min="2" max="2"/>
-    <col width="33" customWidth="1" style="16" min="3" max="3"/>
-    <col width="20" customWidth="1" style="16" min="4" max="4"/>
-    <col width="18" customWidth="1" style="16" min="5" max="5"/>
-    <col width="18" customWidth="1" style="16" min="6" max="6"/>
-    <col width="23" customWidth="1" style="69" min="7" max="7"/>
+    <col width="24" customWidth="1" style="16" min="1" max="1"/>
+    <col width="20.28515625" customWidth="1" style="16" min="2" max="2"/>
+    <col width="31" customWidth="1" style="16" min="3" max="3"/>
+    <col width="20.7109375" customWidth="1" style="16" min="4" max="4"/>
+    <col width="15.28515625" customWidth="1" style="16" min="5" max="5"/>
+    <col width="16.28515625" customWidth="1" style="16" min="6" max="6"/>
+    <col width="24.140625" customWidth="1" style="69" min="7" max="7"/>
     <col width="25.140625" customWidth="1" style="16" min="8" max="8"/>
     <col width="15.5703125" customWidth="1" style="16" min="9" max="9"/>
     <col width="10.28515625" customWidth="1" style="16" min="10" max="10"/>
@@ -2018,12 +1860,12 @@
           <t>Tel: +855   975910636</t>
         </is>
       </c>
-      <c r="B5" s="91" t="n"/>
-      <c r="C5" s="91" t="n"/>
-      <c r="D5" s="91" t="n"/>
-      <c r="E5" s="91" t="n"/>
-      <c r="F5" s="91" t="n"/>
-      <c r="G5" s="91" t="n"/>
+      <c r="B5" s="87" t="n"/>
+      <c r="C5" s="87" t="n"/>
+      <c r="D5" s="87" t="n"/>
+      <c r="E5" s="87" t="n"/>
+      <c r="F5" s="87" t="n"/>
+      <c r="G5" s="87" t="n"/>
     </row>
     <row r="6" ht="39" customHeight="1">
       <c r="A6" s="65" t="inlineStr">
@@ -2031,12 +1873,12 @@
           <t>INVOICE</t>
         </is>
       </c>
-      <c r="B6" s="92" t="n"/>
-      <c r="C6" s="92" t="n"/>
-      <c r="D6" s="92" t="n"/>
-      <c r="E6" s="92" t="n"/>
-      <c r="F6" s="92" t="n"/>
-      <c r="G6" s="92" t="n"/>
+      <c r="B6" s="88" t="n"/>
+      <c r="C6" s="88" t="n"/>
+      <c r="D6" s="88" t="n"/>
+      <c r="E6" s="88" t="n"/>
+      <c r="F6" s="88" t="n"/>
+      <c r="G6" s="88" t="n"/>
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="F7" s="23" t="inlineStr">
@@ -2046,7 +1888,7 @@
       </c>
       <c r="G7" s="8" t="inlineStr">
         <is>
-          <t>CLF2025-157</t>
+          <t>CLF2025-181</t>
         </is>
       </c>
     </row>
@@ -2069,7 +1911,7 @@
       </c>
       <c r="G8" s="11" t="inlineStr">
         <is>
-          <t>HAPPY25007</t>
+          <t>JFINV</t>
         </is>
       </c>
     </row>
@@ -2084,8 +1926,8 @@
           <t>Date:</t>
         </is>
       </c>
-      <c r="G9" s="93" t="n">
-        <v>45694</v>
+      <c r="G9" s="89" t="n">
+        <v>45825</v>
       </c>
     </row>
     <row r="10" ht="22.5" customFormat="1" customHeight="1" s="63">
@@ -2101,7 +1943,7 @@
       </c>
       <c r="G10" s="78" t="inlineStr">
         <is>
-          <t>FCA  BAVET,SVAYRIENG</t>
+          <t>FOB BAVET</t>
         </is>
       </c>
     </row>
@@ -2183,298 +2025,178 @@
       <c r="F18" s="78" t="n"/>
       <c r="G18" s="78" t="n"/>
     </row>
-    <row r="19" ht="35" customFormat="1" customHeight="1" s="63">
-      <c r="A19" s="94" t="inlineStr">
-        <is>
-          <t>Mark &amp; N°</t>
-        </is>
-      </c>
-      <c r="B19" s="94" t="inlineStr">
-        <is>
-          <t>P.O N°</t>
-        </is>
-      </c>
-      <c r="C19" s="94" t="inlineStr">
-        <is>
-          <t>ITEM N°</t>
-        </is>
-      </c>
-      <c r="D19" s="94" t="inlineStr">
+    <row r="19" ht="30" customFormat="1" customHeight="1" s="63">
+      <c r="A19" s="81" t="inlineStr">
+        <is>
+          <t>Mark &amp; Nº</t>
+        </is>
+      </c>
+      <c r="B19" s="81" t="inlineStr">
+        <is>
+          <t>P.O. Nº</t>
+        </is>
+      </c>
+      <c r="C19" s="81" t="inlineStr">
+        <is>
+          <t>ITEM Nº</t>
+        </is>
+      </c>
+      <c r="D19" s="81" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="E19" s="94" t="inlineStr">
-        <is>
-          <t>Quantity
-(SF)</t>
-        </is>
-      </c>
-      <c r="F19" s="94" t="inlineStr">
-        <is>
-          <t>Unit Price
-(USD)</t>
-        </is>
-      </c>
-      <c r="G19" s="94" t="inlineStr">
-        <is>
-          <t>Amount(USD)</t>
-        </is>
-      </c>
-    </row>
-    <row r="20" ht="35" customFormat="1" customHeight="1" s="63">
-      <c r="A20" s="95" t="inlineStr">
+      <c r="E19" s="81" t="inlineStr">
+        <is>
+          <t>Quantity</t>
+        </is>
+      </c>
+      <c r="F19" s="81" t="inlineStr">
+        <is>
+          <t>Unit price (USD)</t>
+        </is>
+      </c>
+      <c r="G19" s="81" t="inlineStr">
+        <is>
+          <t>Amount (USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" ht="30" customFormat="1" customHeight="1" s="63">
+      <c r="A20" s="90" t="inlineStr">
         <is>
           <t>VENDOR#:</t>
         </is>
       </c>
-      <c r="B20" s="96" t="inlineStr">
-        <is>
-          <t>YNGY25022</t>
-        </is>
-      </c>
-      <c r="C20" s="96" t="inlineStr">
-        <is>
-          <t>Nick Dove</t>
-        </is>
-      </c>
-      <c r="D20" s="97" t="inlineStr">
-        <is>
-          <t>COW LEATHER
-DA BÒ THUỘC</t>
-        </is>
-      </c>
-      <c r="E20" s="98" t="n">
-        <v>83901.8</v>
-      </c>
-      <c r="F20" s="99">
+      <c r="B20" s="82" t="inlineStr">
+        <is>
+          <t>2024.11.29/2025.01.15
+2025.4.14/KBCGDD167779</t>
+        </is>
+      </c>
+      <c r="C20" s="82" t="inlineStr">
+        <is>
+          <t>NMP-029J/RB0604
+RB08649</t>
+        </is>
+      </c>
+      <c r="D20" s="83" t="inlineStr">
+        <is>
+          <t>COW LEATHER</t>
+        </is>
+      </c>
+      <c r="E20" s="84" t="n">
+        <v>79931.60000000001</v>
+      </c>
+      <c r="F20" s="84">
         <f>G20/E20</f>
         <v/>
       </c>
-      <c r="G20" s="98" t="n"/>
-    </row>
-    <row r="21" ht="35" customFormat="1" customHeight="1" s="63">
-      <c r="A21" s="100" t="inlineStr">
+      <c r="G20" s="84" t="n">
+        <v>98243.129</v>
+      </c>
+    </row>
+    <row r="21" ht="30" customFormat="1" customHeight="1" s="63">
+      <c r="A21" s="91" t="inlineStr">
         <is>
           <t>Des: COW LEATHER</t>
         </is>
       </c>
-      <c r="B21" s="96" t="inlineStr">
-        <is>
-          <t>YNGY25017</t>
-        </is>
-      </c>
-      <c r="C21" s="96" t="inlineStr">
-        <is>
-          <t>M1243</t>
-        </is>
-      </c>
-      <c r="D21" s="86" t="n"/>
-      <c r="E21" s="98" t="n">
-        <v>10178.9</v>
-      </c>
-      <c r="F21" s="99">
-        <f>G21/E21</f>
+      <c r="B21" s="82" t="n"/>
+      <c r="C21" s="82" t="n"/>
+      <c r="D21" s="83" t="n"/>
+      <c r="E21" s="84" t="n"/>
+      <c r="F21" s="84" t="n"/>
+      <c r="G21" s="84" t="n"/>
+    </row>
+    <row r="22" ht="30" customFormat="1" customHeight="1" s="63">
+      <c r="A22" s="91" t="inlineStr">
+        <is>
+          <t>MADE IN CAMBODIA</t>
+        </is>
+      </c>
+      <c r="B22" s="82" t="n"/>
+      <c r="C22" s="82" t="n"/>
+      <c r="D22" s="83" t="n"/>
+      <c r="E22" s="84" t="n"/>
+      <c r="F22" s="84" t="n"/>
+      <c r="G22" s="84" t="n"/>
+    </row>
+    <row r="23" ht="30" customFormat="1" customHeight="1" s="63">
+      <c r="A23" s="85" t="n"/>
+      <c r="B23" s="85" t="inlineStr">
+        <is>
+          <t>TOTAL OF:</t>
+        </is>
+      </c>
+      <c r="C23" s="85" t="n"/>
+      <c r="D23" s="85" t="n"/>
+      <c r="E23" s="86">
+        <f>SUM(E20:E22)</f>
         <v/>
       </c>
-      <c r="G21" s="98" t="n"/>
-    </row>
-    <row r="22" ht="35" customFormat="1" customHeight="1" s="63">
-      <c r="A22" s="100" t="inlineStr">
-        <is>
-          <t>Case Qty:</t>
-        </is>
-      </c>
-      <c r="B22" s="96" t="inlineStr">
-        <is>
-          <t>GYOJY_M24360</t>
-        </is>
-      </c>
-      <c r="C22" s="96" t="inlineStr">
-        <is>
-          <t>M1243</t>
-        </is>
-      </c>
-      <c r="D22" s="86" t="n"/>
-      <c r="E22" s="98" t="n">
-        <v>10294.5</v>
-      </c>
-      <c r="F22" s="99">
-        <f>G22/E22</f>
+      <c r="F23" s="85" t="n"/>
+      <c r="G23" s="86">
+        <f>SUM(G20:G22)</f>
         <v/>
       </c>
-      <c r="G22" s="98" t="n"/>
-    </row>
-    <row r="23" ht="35" customFormat="1" customHeight="1" s="63">
-      <c r="A23" s="100" t="inlineStr">
-        <is>
-          <t>MADE IN CAMBODIA</t>
-        </is>
-      </c>
-      <c r="B23" s="96" t="inlineStr">
-        <is>
-          <t>GYOJY_M24367</t>
-        </is>
-      </c>
-      <c r="C23" s="96" t="inlineStr">
-        <is>
-          <t>M1243</t>
-        </is>
-      </c>
-      <c r="D23" s="86" t="n"/>
-      <c r="E23" s="98" t="n">
-        <v>10379.2</v>
-      </c>
-      <c r="F23" s="99">
-        <f>G23/E23</f>
-        <v/>
-      </c>
-      <c r="G23" s="98" t="n"/>
-    </row>
-    <row r="24" ht="35" customFormat="1" customHeight="1" s="63">
-      <c r="A24" s="101" t="n"/>
-      <c r="B24" s="96" t="n">
-        <v>20250531</v>
-      </c>
-      <c r="C24" s="96" t="inlineStr">
-        <is>
-          <t>Almond</t>
-        </is>
-      </c>
-      <c r="D24" s="86" t="n"/>
-      <c r="E24" s="98" t="n">
-        <v>1018</v>
-      </c>
-      <c r="F24" s="99">
-        <f>G24/E24</f>
-        <v/>
-      </c>
-      <c r="G24" s="98" t="n"/>
-    </row>
-    <row r="25" ht="35" customFormat="1" customHeight="1" s="63">
-      <c r="A25" s="101" t="n"/>
-      <c r="B25" s="96" t="n">
-        <v>20250531</v>
-      </c>
-      <c r="C25" s="96" t="inlineStr">
-        <is>
-          <t>KNOX BLACK 660</t>
-        </is>
-      </c>
-      <c r="D25" s="86" t="n"/>
-      <c r="E25" s="98" t="n">
-        <v>1023.9</v>
-      </c>
-      <c r="F25" s="99">
-        <f>G25/E25</f>
-        <v/>
-      </c>
-      <c r="G25" s="98" t="n"/>
-    </row>
-    <row r="26" ht="35" customFormat="1" customHeight="1" s="63">
-      <c r="A26" s="102" t="n"/>
-      <c r="B26" s="96" t="n">
-        <v>20250531</v>
-      </c>
-      <c r="C26" s="96" t="inlineStr">
-        <is>
-          <t>KNOX SILVER GRAY 998</t>
-        </is>
-      </c>
-      <c r="D26" s="87" t="n"/>
-      <c r="E26" s="98" t="n">
-        <v>969.6</v>
-      </c>
-      <c r="F26" s="99">
-        <f>G26/E26</f>
-        <v/>
-      </c>
-      <c r="G26" s="98" t="n"/>
-    </row>
-    <row r="27" ht="35" customFormat="1" customHeight="1" s="63">
-      <c r="A27" s="103" t="n"/>
-      <c r="B27" s="94" t="inlineStr">
-        <is>
-          <t xml:space="preserve">TOTAL OF: </t>
-        </is>
-      </c>
-      <c r="C27" s="94" t="inlineStr">
-        <is>
-          <t>12 PALLETS</t>
-        </is>
-      </c>
-      <c r="D27" s="90" t="n"/>
-      <c r="E27" s="104">
-        <f>SUM(E20:E26)</f>
-        <v/>
-      </c>
-      <c r="F27" s="90" t="n"/>
-      <c r="G27" s="104">
-        <f>SUM(G20:G26)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="28" ht="34" customFormat="1" customHeight="1" s="63">
-      <c r="A28" s="90" t="n"/>
-      <c r="B28" s="105" t="inlineStr">
-        <is>
-          <t>NW:</t>
-        </is>
-      </c>
-      <c r="C28" s="104" t="inlineStr">
-        <is>
-          <t>8876.9999 KGS</t>
-        </is>
-      </c>
-      <c r="D28" s="90" t="n"/>
-      <c r="E28" s="90" t="n"/>
-      <c r="F28" s="90" t="n"/>
-      <c r="G28" s="90" t="n"/>
-    </row>
-    <row r="29" ht="34" customFormat="1" customHeight="1" s="63">
-      <c r="A29" s="90" t="n"/>
-      <c r="B29" s="105" t="inlineStr">
-        <is>
-          <t>GW:</t>
-        </is>
-      </c>
-      <c r="C29" s="104" t="inlineStr">
-        <is>
-          <t>9416.9999 KGS</t>
-        </is>
-      </c>
-      <c r="D29" s="90" t="n"/>
-      <c r="E29" s="90" t="n"/>
-      <c r="F29" s="90" t="n"/>
-      <c r="G29" s="90" t="n"/>
-    </row>
-    <row r="30" ht="42" customFormat="1" customHeight="1" s="63"/>
-    <row r="31" ht="27.75" customHeight="1">
-      <c r="A31" s="28" t="n"/>
-      <c r="F31" s="78" t="n"/>
-      <c r="G31" s="78" t="n"/>
-    </row>
-    <row r="32" ht="27.75" customHeight="1">
-      <c r="A32" s="28" t="n"/>
-      <c r="F32" s="78" t="n"/>
-      <c r="G32" s="78" t="n"/>
-    </row>
-    <row r="33" ht="42" customHeight="1">
-      <c r="A33" s="74" t="inlineStr">
+    </row>
+    <row r="24" ht="30" customFormat="1" customHeight="1" s="63">
+      <c r="A24" s="92" t="n"/>
+      <c r="B24" s="85" t="inlineStr">
+        <is>
+          <t>NET WEIGHT:</t>
+        </is>
+      </c>
+      <c r="C24" s="93" t="n">
+        <v>6012.5</v>
+      </c>
+      <c r="D24" s="92" t="n"/>
+      <c r="E24" s="92" t="n"/>
+      <c r="F24" s="92" t="n"/>
+      <c r="G24" s="92" t="n"/>
+    </row>
+    <row r="25" ht="30" customFormat="1" customHeight="1" s="63">
+      <c r="A25" s="92" t="n"/>
+      <c r="B25" s="85" t="inlineStr">
+        <is>
+          <t>GROSS WEIGHT:</t>
+        </is>
+      </c>
+      <c r="C25" s="93" t="n">
+        <v>6372.5</v>
+      </c>
+      <c r="D25" s="92" t="n"/>
+      <c r="E25" s="92" t="n"/>
+      <c r="F25" s="92" t="n"/>
+      <c r="G25" s="92" t="n"/>
+    </row>
+    <row r="26" ht="27" customFormat="1" customHeight="1" s="63">
+      <c r="A26" s="28" t="n"/>
+      <c r="F26" s="78" t="n"/>
+      <c r="G26" s="78" t="n"/>
+    </row>
+    <row r="27" ht="42" customFormat="1" customHeight="1" s="63">
+      <c r="A27" s="28" t="n"/>
+      <c r="F27" s="78" t="n"/>
+      <c r="G27" s="78" t="n"/>
+    </row>
+    <row r="28" ht="42" customFormat="1" customHeight="1" s="63">
+      <c r="A28" s="74" t="inlineStr">
         <is>
           <t>Country of Original Cambodia</t>
         </is>
       </c>
-      <c r="D33" s="74" t="n"/>
-      <c r="G33" s="78" t="n"/>
-    </row>
-    <row r="34" ht="56.25" customHeight="1">
-      <c r="A34" s="26" t="inlineStr">
+      <c r="D28" s="74" t="n"/>
+      <c r="G28" s="78" t="n"/>
+    </row>
+    <row r="29" ht="56.25" customFormat="1" customHeight="1" s="63">
+      <c r="A29" s="26" t="inlineStr">
         <is>
           <t>Manufacture:</t>
         </is>
       </c>
-      <c r="B34" s="67" t="inlineStr">
+      <c r="B29" s="67" t="inlineStr">
         <is>
           <t>CALIFOR UPHOLSTERY MATERIALS CO., LTD.
 XIN BAVET SEZ, Road No. 316A, Trapeang Bon and Prey Kokir Villages, Prey Kokir Commune
@@ -2482,54 +2204,59 @@
         </is>
       </c>
     </row>
-    <row r="35" ht="57.4" customHeight="1">
-      <c r="A35" s="64" t="inlineStr">
+    <row r="30" ht="57.4" customFormat="1" customHeight="1" s="63">
+      <c r="A30" s="64" t="inlineStr">
         <is>
           <t>BENEFICIARY BANK：BANK OF CHINA(HONG KONG)LIMITED PHNOM PENH BRANCH
                                                   /BANK OF CHINA PHNOM PENH BRANCH</t>
         </is>
       </c>
-      <c r="D35" s="64" t="n"/>
-      <c r="E35" s="64" t="n"/>
-      <c r="F35" s="64" t="n"/>
+      <c r="D30" s="64" t="n"/>
+      <c r="E30" s="64" t="n"/>
+      <c r="F30" s="64" t="n"/>
+      <c r="G30" s="78" t="n"/>
+    </row>
+    <row r="31" ht="24.75" customHeight="1">
+      <c r="A31" s="63" t="inlineStr">
+        <is>
+          <t>A/C NO:100001100764430</t>
+        </is>
+      </c>
+    </row>
+    <row r="32" ht="27" customHeight="1">
+      <c r="A32" s="63" t="inlineStr">
+        <is>
+          <t>SWIFT CODE  ：BKCHKHPPXXX</t>
+        </is>
+      </c>
+    </row>
+    <row r="33" ht="27.75" customHeight="1">
+      <c r="F33" s="78" t="inlineStr">
+        <is>
+          <t>CALIFOR UPHOLSTERY MATERIALS CO., LTD.</t>
+        </is>
+      </c>
+      <c r="G33" s="78" t="n"/>
+    </row>
+    <row r="34" ht="24.75" customHeight="1">
+      <c r="F34" s="30" t="inlineStr">
+        <is>
+          <t>Sign &amp; Stamp</t>
+        </is>
+      </c>
+      <c r="G34" s="78" t="n"/>
+    </row>
+    <row r="35" ht="21" customHeight="1">
       <c r="G35" s="78" t="n"/>
     </row>
-    <row r="36" ht="24.75" customHeight="1">
-      <c r="A36" s="63" t="inlineStr">
-        <is>
-          <t>A/C NO:100001100764430</t>
-        </is>
-      </c>
-    </row>
-    <row r="37" ht="27" customHeight="1">
-      <c r="A37" s="63" t="inlineStr">
-        <is>
-          <t>SWIFT CODE  ：BKCHKHPPXXX</t>
-        </is>
-      </c>
-    </row>
-    <row r="38" ht="21" customHeight="1">
-      <c r="F38" s="78" t="inlineStr">
-        <is>
-          <t>CALIFOR UPHOLSTERY MATERIALS CO., LTD.</t>
-        </is>
-      </c>
-      <c r="G38" s="78" t="n"/>
-    </row>
-    <row r="39" ht="21" customHeight="1">
-      <c r="F39" s="30" t="inlineStr">
-        <is>
-          <t>Sign &amp; Stamp</t>
-        </is>
-      </c>
-      <c r="G39" s="78" t="n"/>
-    </row>
-    <row r="40" ht="21" customHeight="1">
-      <c r="G40" s="78" t="n"/>
-    </row>
-    <row r="41" ht="21" customHeight="1">
-      <c r="G41" s="78" t="n"/>
-    </row>
+    <row r="36" ht="21" customHeight="1">
+      <c r="G36" s="78" t="n"/>
+    </row>
+    <row r="37" ht="21" customHeight="1"/>
+    <row r="38" ht="21" customHeight="1"/>
+    <row r="39" ht="21" customHeight="1"/>
+    <row r="40" ht="21" customHeight="1"/>
+    <row r="41" ht="21" customHeight="1"/>
     <row r="42" ht="21" customHeight="1"/>
     <row r="43" ht="25.5" customHeight="1"/>
     <row r="44" ht="21" customHeight="1"/>
@@ -2689,20 +2416,27 @@
     <row r="198"/>
     <row r="199"/>
     <row r="200"/>
+    <row r="201"/>
+    <row r="202"/>
+    <row r="203"/>
+    <row r="204"/>
+    <row r="205"/>
+    <row r="206"/>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="A36:G36"/>
+  <mergeCells count="13">
+    <mergeCell ref="A32:G32"/>
+    <mergeCell ref="A28:C28"/>
     <mergeCell ref="A1:G1"/>
-    <mergeCell ref="B34:G34"/>
-    <mergeCell ref="A37:G37"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="D20:D26"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="A31:G31"/>
     <mergeCell ref="A3:G3"/>
     <mergeCell ref="A6:G6"/>
-    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A26:G26"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B23"/>
+    <mergeCell ref="A5:G5"/>
   </mergeCells>
   <conditionalFormatting sqref="J22:J33">
     <cfRule type="duplicateValues" priority="1" stopIfTrue="1"/>
@@ -2724,7 +2458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L200"/>
+  <dimension ref="A1:P215"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" topLeftCell="A50" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F49" sqref="F49"/>
@@ -2732,15 +2466,15 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.7109375" defaultRowHeight="27" customHeight="1"/>
   <cols>
-    <col width="24.71" customWidth="1" style="72" min="1" max="1"/>
-    <col width="16" customWidth="1" style="72" min="2" max="2"/>
+    <col width="23.7109375" customWidth="1" style="72" min="1" max="1"/>
+    <col width="20.85546875" customWidth="1" style="72" min="2" max="2"/>
     <col width="31.28515625" customWidth="1" style="72" min="3" max="3"/>
-    <col width="19" customWidth="1" style="72" min="4" max="4"/>
-    <col width="15" customWidth="1" style="72" min="5" max="5"/>
-    <col width="15" customWidth="1" style="72" min="6" max="6"/>
-    <col width="15" customWidth="1" style="72" min="7" max="7"/>
+    <col width="15.5703125" customWidth="1" style="72" min="4" max="4"/>
+    <col width="11.7109375" customWidth="1" style="72" min="5" max="5"/>
+    <col width="16.42578125" customWidth="1" style="72" min="6" max="6"/>
+    <col width="14.5703125" customWidth="1" style="72" min="7" max="7"/>
     <col width="15" customWidth="1" style="72" min="8" max="8"/>
-    <col width="15" customWidth="1" style="69" min="9" max="9"/>
+    <col width="28.85546875" customWidth="1" style="69" min="9" max="9"/>
     <col width="15" customWidth="1" style="72" min="10" max="10"/>
     <col width="10" customWidth="1" style="72" min="11" max="11"/>
     <col width="25.140625" customWidth="1" style="72" min="12" max="12"/>
@@ -2791,14 +2525,14 @@
           <t>Tel: +855   975910636</t>
         </is>
       </c>
-      <c r="B5" s="91" t="n"/>
-      <c r="C5" s="91" t="n"/>
-      <c r="D5" s="91" t="n"/>
-      <c r="E5" s="91" t="n"/>
-      <c r="F5" s="91" t="n"/>
-      <c r="G5" s="91" t="n"/>
-      <c r="H5" s="91" t="n"/>
-      <c r="I5" s="91" t="n"/>
+      <c r="B5" s="87" t="n"/>
+      <c r="C5" s="87" t="n"/>
+      <c r="D5" s="87" t="n"/>
+      <c r="E5" s="87" t="n"/>
+      <c r="F5" s="87" t="n"/>
+      <c r="G5" s="87" t="n"/>
+      <c r="H5" s="87" t="n"/>
+      <c r="I5" s="87" t="n"/>
       <c r="J5" s="4" t="n"/>
       <c r="K5" s="4" t="n"/>
     </row>
@@ -2808,26 +2542,26 @@
           <t>PACKING LIST</t>
         </is>
       </c>
-      <c r="B6" s="92" t="n"/>
-      <c r="C6" s="92" t="n"/>
-      <c r="D6" s="92" t="n"/>
-      <c r="E6" s="92" t="n"/>
-      <c r="F6" s="92" t="n"/>
-      <c r="G6" s="92" t="n"/>
-      <c r="H6" s="92" t="n"/>
-      <c r="I6" s="92" t="n"/>
+      <c r="B6" s="88" t="n"/>
+      <c r="C6" s="88" t="n"/>
+      <c r="D6" s="88" t="n"/>
+      <c r="E6" s="88" t="n"/>
+      <c r="F6" s="88" t="n"/>
+      <c r="G6" s="88" t="n"/>
+      <c r="H6" s="88" t="n"/>
+      <c r="I6" s="88" t="n"/>
       <c r="J6" s="6" t="n"/>
       <c r="K6" s="6" t="n"/>
     </row>
     <row r="7" ht="27" customHeight="1">
-      <c r="H7" s="50" t="inlineStr">
+      <c r="H7" s="49" t="inlineStr">
         <is>
           <t>REFNO.:</t>
         </is>
       </c>
-      <c r="I7" s="51" t="inlineStr">
-        <is>
-          <t>CLF2025-157</t>
+      <c r="I7" s="50" t="inlineStr">
+        <is>
+          <t>CLF2025-181</t>
         </is>
       </c>
     </row>
@@ -2848,9 +2582,9 @@
           <t>INVOICE NO :</t>
         </is>
       </c>
-      <c r="I8" s="52" t="inlineStr">
-        <is>
-          <t>HAPPY25007</t>
+      <c r="I8" s="51" t="inlineStr">
+        <is>
+          <t>JFINV</t>
         </is>
       </c>
     </row>
@@ -2865,8 +2599,8 @@
           <t>Date:</t>
         </is>
       </c>
-      <c r="I9" s="93" t="n">
-        <v>45694</v>
+      <c r="I9" s="89" t="n">
+        <v>45825</v>
       </c>
     </row>
     <row r="10" ht="27" customHeight="1">
@@ -2881,7 +2615,7 @@
       </c>
       <c r="I10" s="76" t="inlineStr">
         <is>
-          <t>FCA  BAVET,SVAYRIENG</t>
+          <t>FOB BAVET</t>
         </is>
       </c>
       <c r="J10" s="13" t="n"/>
@@ -2973,12 +2707,12 @@
       </c>
       <c r="B19" s="94" t="inlineStr">
         <is>
-          <t>P.O N°</t>
+          <t>P.O Nº</t>
         </is>
       </c>
       <c r="C19" s="94" t="inlineStr">
         <is>
-          <t>ITEM N°</t>
+          <t>ITEM Nº</t>
         </is>
       </c>
       <c r="D19" s="94" t="inlineStr">
@@ -2991,17 +2725,17 @@
           <t>Quantity</t>
         </is>
       </c>
-      <c r="F19" s="106" t="n"/>
+      <c r="F19" s="95" t="n"/>
       <c r="G19" s="94" t="inlineStr">
         <is>
+          <t>G.W (kgs)</t>
+        </is>
+      </c>
+      <c r="H19" s="94" t="inlineStr">
+        <is>
           <t>N.W (kgs)</t>
         </is>
       </c>
-      <c r="H19" s="94" t="inlineStr">
-        <is>
-          <t>G.W (kgs)</t>
-        </is>
-      </c>
       <c r="I19" s="94" t="inlineStr">
         <is>
           <t>CBM</t>
@@ -3009,10 +2743,10 @@
       </c>
     </row>
     <row r="20" ht="27" customHeight="1">
-      <c r="A20" s="87" t="n"/>
-      <c r="B20" s="87" t="n"/>
-      <c r="C20" s="87" t="n"/>
-      <c r="D20" s="87" t="n"/>
+      <c r="A20" s="96" t="n"/>
+      <c r="B20" s="96" t="n"/>
+      <c r="C20" s="96" t="n"/>
+      <c r="D20" s="96" t="n"/>
       <c r="E20" s="94" t="inlineStr">
         <is>
           <t>PCS</t>
@@ -3023,640 +2757,503 @@
           <t>SF</t>
         </is>
       </c>
-      <c r="G20" s="87" t="n"/>
-      <c r="H20" s="87" t="n"/>
-      <c r="I20" s="87" t="n"/>
+      <c r="G20" s="96" t="n"/>
+      <c r="H20" s="96" t="n"/>
+      <c r="I20" s="96" t="n"/>
     </row>
     <row r="21" ht="27" customHeight="1">
-      <c r="A21" s="107" t="inlineStr">
+      <c r="A21" s="97" t="inlineStr">
         <is>
           <t>VENDOR#:</t>
         </is>
       </c>
-      <c r="B21" s="96" t="inlineStr">
-        <is>
-          <t>YNGY25022</t>
-        </is>
-      </c>
-      <c r="C21" s="96" t="inlineStr">
-        <is>
-          <t>Nick Dove</t>
-        </is>
-      </c>
-      <c r="D21" s="97" t="inlineStr">
+      <c r="B21" s="98" t="inlineStr">
+        <is>
+          <t>KBCGDD167779</t>
+        </is>
+      </c>
+      <c r="C21" s="98" t="inlineStr">
+        <is>
+          <t>NMP-029J</t>
+        </is>
+      </c>
+      <c r="D21" s="98" t="inlineStr">
         <is>
           <t>COW LEATHER</t>
         </is>
       </c>
-      <c r="E21" s="108" t="n">
-        <v>202</v>
-      </c>
-      <c r="F21" s="98" t="n">
-        <v>10030.1</v>
-      </c>
-      <c r="G21" s="98" t="n">
-        <v>748.5</v>
-      </c>
-      <c r="H21" s="98" t="n">
-        <v>793.5</v>
-      </c>
-      <c r="I21" s="109" t="n">
-        <v>2.4948</v>
+      <c r="E21" s="99" t="n">
+        <v>219</v>
+      </c>
+      <c r="F21" s="99" t="n">
+        <v>12581.6</v>
+      </c>
+      <c r="G21" s="99" t="n">
+        <v>944.0154</v>
+      </c>
+      <c r="H21" s="99" t="n">
+        <v>900.6013</v>
+      </c>
+      <c r="I21" s="99" t="n">
+        <v>2.7507</v>
       </c>
     </row>
     <row r="22" ht="27" customHeight="1">
-      <c r="A22" s="110" t="inlineStr">
+      <c r="A22" s="100" t="inlineStr">
         <is>
           <t>Des: COW LEATHER</t>
         </is>
       </c>
-      <c r="B22" s="96" t="inlineStr">
-        <is>
-          <t>YNGY25022</t>
-        </is>
-      </c>
-      <c r="C22" s="96" t="inlineStr">
-        <is>
-          <t>Nick Dove</t>
-        </is>
-      </c>
-      <c r="D22" s="86" t="n"/>
-      <c r="E22" s="108" t="n">
-        <v>201</v>
-      </c>
-      <c r="F22" s="98" t="n">
-        <v>10031.6</v>
-      </c>
-      <c r="G22" s="98" t="n">
-        <v>740</v>
-      </c>
-      <c r="H22" s="98" t="n">
-        <v>785</v>
-      </c>
-      <c r="I22" s="109" t="n">
-        <v>2.4948</v>
+      <c r="B22" s="98" t="inlineStr">
+        <is>
+          <t>KBCGDD167779</t>
+        </is>
+      </c>
+      <c r="C22" s="98" t="inlineStr">
+        <is>
+          <t>NMP-029J</t>
+        </is>
+      </c>
+      <c r="D22" s="101" t="n"/>
+      <c r="E22" s="99" t="n">
+        <v>8</v>
+      </c>
+      <c r="F22" s="99" t="n">
+        <v>412.3</v>
+      </c>
+      <c r="G22" s="99" t="n">
+        <v>34.4846</v>
+      </c>
+      <c r="H22" s="99" t="n">
+        <v>32.8987</v>
+      </c>
+      <c r="I22" s="99" t="n">
+        <v>0.1005</v>
       </c>
     </row>
     <row r="23" ht="27" customHeight="1">
-      <c r="A23" s="110" t="inlineStr">
+      <c r="A23" s="100" t="inlineStr">
         <is>
           <t>Case Qty:</t>
         </is>
       </c>
-      <c r="B23" s="96" t="inlineStr">
-        <is>
-          <t>YNGY25022</t>
-        </is>
-      </c>
-      <c r="C23" s="96" t="inlineStr">
-        <is>
-          <t>Nick Dove</t>
-        </is>
-      </c>
-      <c r="D23" s="86" t="n"/>
-      <c r="E23" s="108" t="n">
-        <v>202</v>
-      </c>
-      <c r="F23" s="98" t="n">
-        <v>10041</v>
-      </c>
-      <c r="G23" s="98" t="n">
-        <v>750</v>
-      </c>
-      <c r="H23" s="98" t="n">
-        <v>795</v>
-      </c>
-      <c r="I23" s="109" t="n">
-        <v>2.4948</v>
+      <c r="B23" s="98" t="inlineStr">
+        <is>
+          <t>2025.4.14</t>
+        </is>
+      </c>
+      <c r="C23" s="98" t="inlineStr">
+        <is>
+          <t>NMP-029J</t>
+        </is>
+      </c>
+      <c r="D23" s="101" t="n"/>
+      <c r="E23" s="99" t="n">
+        <v>195</v>
+      </c>
+      <c r="F23" s="99" t="n">
+        <v>11172.6</v>
+      </c>
+      <c r="G23" s="99" t="n">
+        <v>828</v>
+      </c>
+      <c r="H23" s="99" t="n">
+        <v>783</v>
+      </c>
+      <c r="I23" s="99" t="n">
+        <v>2.6928</v>
       </c>
     </row>
     <row r="24" ht="27" customHeight="1">
-      <c r="A24" s="110" t="inlineStr">
+      <c r="A24" s="100" t="inlineStr">
         <is>
           <t>MADE IN CAMBODIA</t>
         </is>
       </c>
-      <c r="B24" s="96" t="inlineStr">
-        <is>
-          <t>YNGY25022</t>
-        </is>
-      </c>
-      <c r="C24" s="96" t="inlineStr">
-        <is>
-          <t>Nick Dove</t>
-        </is>
-      </c>
-      <c r="D24" s="86" t="n"/>
-      <c r="E24" s="108" t="n">
-        <v>205</v>
-      </c>
-      <c r="F24" s="98" t="n">
-        <v>10029.2</v>
-      </c>
-      <c r="G24" s="98" t="n">
-        <v>756.5</v>
-      </c>
-      <c r="H24" s="98" t="n">
-        <v>801.5</v>
-      </c>
-      <c r="I24" s="109" t="n">
-        <v>2.4948</v>
+      <c r="B24" s="98" t="inlineStr">
+        <is>
+          <t>2025.4.14</t>
+        </is>
+      </c>
+      <c r="C24" s="98" t="inlineStr">
+        <is>
+          <t>NMP-029J</t>
+        </is>
+      </c>
+      <c r="D24" s="101" t="n"/>
+      <c r="E24" s="99" t="n">
+        <v>144</v>
+      </c>
+      <c r="F24" s="99" t="n">
+        <v>7959</v>
+      </c>
+      <c r="G24" s="99" t="n">
+        <v>599.5</v>
+      </c>
+      <c r="H24" s="99" t="n">
+        <v>554.5</v>
+      </c>
+      <c r="I24" s="99" t="n">
+        <v>2.178</v>
       </c>
     </row>
     <row r="25" ht="27" customHeight="1">
-      <c r="A25" s="111" t="n"/>
-      <c r="B25" s="96" t="inlineStr">
-        <is>
-          <t>YNGY25022</t>
-        </is>
-      </c>
-      <c r="C25" s="96" t="inlineStr">
-        <is>
-          <t>Nick Dove</t>
-        </is>
-      </c>
-      <c r="D25" s="86" t="n"/>
-      <c r="E25" s="108" t="n">
-        <v>200</v>
-      </c>
-      <c r="F25" s="98" t="n">
-        <v>10062.9</v>
-      </c>
-      <c r="G25" s="98" t="n">
-        <v>751.5</v>
-      </c>
-      <c r="H25" s="98" t="n">
-        <v>796.5</v>
-      </c>
-      <c r="I25" s="109" t="n">
-        <v>2.574</v>
+      <c r="A25" s="100" t="n"/>
+      <c r="B25" s="98" t="inlineStr">
+        <is>
+          <t>2025.4.14</t>
+        </is>
+      </c>
+      <c r="C25" s="98" t="inlineStr">
+        <is>
+          <t>NMP-029J</t>
+        </is>
+      </c>
+      <c r="D25" s="101" t="n"/>
+      <c r="E25" s="99" t="n">
+        <v>115</v>
+      </c>
+      <c r="F25" s="99" t="n">
+        <v>6485.5</v>
+      </c>
+      <c r="G25" s="99" t="n">
+        <v>489.6774</v>
+      </c>
+      <c r="H25" s="99" t="n">
+        <v>447.9435</v>
+      </c>
+      <c r="I25" s="99" t="n">
+        <v>1.7628</v>
       </c>
     </row>
     <row r="26" ht="27" customFormat="1" customHeight="1" s="4">
-      <c r="A26" s="111" t="n"/>
-      <c r="B26" s="96" t="inlineStr">
-        <is>
-          <t>YNGY25022</t>
-        </is>
-      </c>
-      <c r="C26" s="96" t="inlineStr">
-        <is>
-          <t>Nick Dove</t>
-        </is>
-      </c>
-      <c r="D26" s="86" t="n"/>
-      <c r="E26" s="108" t="n">
-        <v>239</v>
-      </c>
-      <c r="F26" s="98" t="n">
-        <v>11902.4</v>
-      </c>
-      <c r="G26" s="98" t="n">
-        <v>883.5</v>
-      </c>
-      <c r="H26" s="98" t="n">
-        <v>928.5</v>
-      </c>
-      <c r="I26" s="109" t="n">
-        <v>2.772</v>
+      <c r="A26" s="100" t="n"/>
+      <c r="B26" s="98" t="inlineStr">
+        <is>
+          <t>2025.4.14</t>
+        </is>
+      </c>
+      <c r="C26" s="98" t="inlineStr">
+        <is>
+          <t>NMP-029J</t>
+        </is>
+      </c>
+      <c r="D26" s="101" t="n"/>
+      <c r="E26" s="99" t="n">
+        <v>9</v>
+      </c>
+      <c r="F26" s="99" t="n">
+        <v>495.6</v>
+      </c>
+      <c r="G26" s="99" t="n">
+        <v>38.3226</v>
+      </c>
+      <c r="H26" s="99" t="n">
+        <v>35.0565</v>
+      </c>
+      <c r="I26" s="99" t="n">
+        <v>0.138</v>
       </c>
     </row>
     <row r="27" ht="27" customHeight="1">
-      <c r="A27" s="111" t="n"/>
-      <c r="B27" s="96" t="inlineStr">
-        <is>
-          <t>YNGY25022</t>
-        </is>
-      </c>
-      <c r="C27" s="96" t="inlineStr">
-        <is>
-          <t>Nick Dove</t>
-        </is>
-      </c>
-      <c r="D27" s="86" t="n"/>
-      <c r="E27" s="108" t="n">
-        <v>200</v>
-      </c>
-      <c r="F27" s="98" t="n">
-        <v>10181.8</v>
-      </c>
-      <c r="G27" s="98" t="n">
-        <v>756</v>
-      </c>
-      <c r="H27" s="98" t="n">
-        <v>801</v>
-      </c>
-      <c r="I27" s="109" t="n">
-        <v>2.6532</v>
+      <c r="A27" s="100" t="n"/>
+      <c r="B27" s="98" t="inlineStr">
+        <is>
+          <t>2025.01.15</t>
+        </is>
+      </c>
+      <c r="C27" s="98" t="inlineStr">
+        <is>
+          <t>RB0604</t>
+        </is>
+      </c>
+      <c r="D27" s="101" t="n"/>
+      <c r="E27" s="99" t="n">
+        <v>190</v>
+      </c>
+      <c r="F27" s="99" t="n">
+        <v>10214.8</v>
+      </c>
+      <c r="G27" s="99" t="n">
+        <v>853</v>
+      </c>
+      <c r="H27" s="99" t="n">
+        <v>808</v>
+      </c>
+      <c r="I27" s="99" t="n">
+        <v>2.5344</v>
       </c>
     </row>
     <row r="28" ht="27" customHeight="1">
-      <c r="A28" s="111" t="n"/>
-      <c r="B28" s="96" t="inlineStr">
-        <is>
-          <t>YNGY25022</t>
-        </is>
-      </c>
-      <c r="C28" s="96" t="inlineStr">
-        <is>
-          <t>Nick Dove</t>
-        </is>
-      </c>
-      <c r="D28" s="86" t="n"/>
-      <c r="E28" s="108" t="n">
-        <v>215</v>
-      </c>
-      <c r="F28" s="98" t="n">
-        <v>10251.6</v>
-      </c>
-      <c r="G28" s="98" t="n">
-        <v>776.4372</v>
-      </c>
-      <c r="H28" s="98" t="n">
-        <v>815.6073</v>
-      </c>
-      <c r="I28" s="109" t="n">
-        <v>2.4129</v>
+      <c r="A28" s="100" t="n"/>
+      <c r="B28" s="98" t="inlineStr">
+        <is>
+          <t>2025.01.15</t>
+        </is>
+      </c>
+      <c r="C28" s="98" t="inlineStr">
+        <is>
+          <t>RB0604</t>
+        </is>
+      </c>
+      <c r="D28" s="101" t="n"/>
+      <c r="E28" s="99" t="n">
+        <v>180</v>
+      </c>
+      <c r="F28" s="99" t="n">
+        <v>10214.5</v>
+      </c>
+      <c r="G28" s="99" t="n">
+        <v>846.1957</v>
+      </c>
+      <c r="H28" s="99" t="n">
+        <v>802.1739</v>
+      </c>
+      <c r="I28" s="99" t="n">
+        <v>2.6343</v>
       </c>
     </row>
     <row r="29" ht="27" customHeight="1">
-      <c r="A29" s="111" t="n"/>
-      <c r="B29" s="96" t="inlineStr">
-        <is>
-          <t>YNGY25022</t>
-        </is>
-      </c>
-      <c r="C29" s="96" t="inlineStr">
-        <is>
-          <t>Nick Dove</t>
-        </is>
-      </c>
-      <c r="D29" s="86" t="n"/>
-      <c r="E29" s="108" t="n">
-        <v>32</v>
-      </c>
-      <c r="F29" s="98" t="n">
-        <v>1371.2</v>
-      </c>
-      <c r="G29" s="98" t="n">
-        <v>115.5628</v>
-      </c>
-      <c r="H29" s="98" t="n">
-        <v>121.3927</v>
-      </c>
-      <c r="I29" s="109" t="n">
-        <v>0.3591</v>
+      <c r="A29" s="100" t="n"/>
+      <c r="B29" s="98" t="inlineStr">
+        <is>
+          <t>2025.01.15</t>
+        </is>
+      </c>
+      <c r="C29" s="98" t="inlineStr">
+        <is>
+          <t>RB0604</t>
+        </is>
+      </c>
+      <c r="D29" s="101" t="n"/>
+      <c r="E29" s="99" t="n">
+        <v>4</v>
+      </c>
+      <c r="F29" s="99" t="n">
+        <v>203.6</v>
+      </c>
+      <c r="G29" s="99" t="n">
+        <v>18.8043</v>
+      </c>
+      <c r="H29" s="99" t="n">
+        <v>17.8261</v>
+      </c>
+      <c r="I29" s="99" t="n">
+        <v>0.0585</v>
       </c>
     </row>
     <row r="30" ht="27" customHeight="1">
-      <c r="A30" s="111" t="n"/>
-      <c r="B30" s="96" t="inlineStr">
-        <is>
-          <t>YNGY25017</t>
-        </is>
-      </c>
-      <c r="C30" s="96" t="inlineStr">
-        <is>
-          <t>M1243</t>
-        </is>
-      </c>
-      <c r="D30" s="86" t="n"/>
-      <c r="E30" s="108" t="n">
-        <v>205</v>
-      </c>
-      <c r="F30" s="98" t="n">
-        <v>10178.9</v>
-      </c>
-      <c r="G30" s="98" t="n">
-        <v>779</v>
-      </c>
-      <c r="H30" s="98" t="n">
-        <v>824</v>
-      </c>
-      <c r="I30" s="109" t="n">
-        <v>2.574</v>
+      <c r="A30" s="100" t="n"/>
+      <c r="B30" s="98" t="inlineStr">
+        <is>
+          <t>2025.01.15</t>
+        </is>
+      </c>
+      <c r="C30" s="98" t="inlineStr">
+        <is>
+          <t>RB0604</t>
+        </is>
+      </c>
+      <c r="D30" s="101" t="n"/>
+      <c r="E30" s="99" t="n">
+        <v>167</v>
+      </c>
+      <c r="F30" s="99" t="n">
+        <v>9048.5</v>
+      </c>
+      <c r="G30" s="99" t="n">
+        <v>753</v>
+      </c>
+      <c r="H30" s="99" t="n">
+        <v>708</v>
+      </c>
+      <c r="I30" s="99" t="n">
+        <v>2.4552</v>
       </c>
     </row>
     <row r="31" ht="27" customHeight="1">
-      <c r="A31" s="111" t="n"/>
-      <c r="B31" s="96" t="inlineStr">
-        <is>
-          <t>GYOJY_M24360</t>
-        </is>
-      </c>
-      <c r="C31" s="96" t="inlineStr">
-        <is>
-          <t>M1243</t>
-        </is>
-      </c>
-      <c r="D31" s="86" t="n"/>
-      <c r="E31" s="108" t="n">
-        <v>200</v>
-      </c>
-      <c r="F31" s="98" t="n">
-        <v>10294.5</v>
-      </c>
-      <c r="G31" s="98" t="n">
-        <v>781.5</v>
-      </c>
-      <c r="H31" s="98" t="n">
-        <v>826.5</v>
-      </c>
-      <c r="I31" s="109" t="n">
-        <v>2.376</v>
+      <c r="A31" s="100" t="n"/>
+      <c r="B31" s="98" t="inlineStr">
+        <is>
+          <t>2024.11.29</t>
+        </is>
+      </c>
+      <c r="C31" s="98" t="inlineStr">
+        <is>
+          <t>RB08649</t>
+        </is>
+      </c>
+      <c r="D31" s="96" t="n"/>
+      <c r="E31" s="99" t="n">
+        <v>225</v>
+      </c>
+      <c r="F31" s="99" t="n">
+        <v>11143.6</v>
+      </c>
+      <c r="G31" s="99" t="n">
+        <v>967.5</v>
+      </c>
+      <c r="H31" s="99" t="n">
+        <v>922.5</v>
+      </c>
+      <c r="I31" s="99" t="n">
+        <v>2.97</v>
       </c>
     </row>
     <row r="32" ht="27" customHeight="1">
-      <c r="A32" s="111" t="n"/>
-      <c r="B32" s="96" t="inlineStr">
-        <is>
-          <t>GYOJY_M24367</t>
-        </is>
-      </c>
-      <c r="C32" s="96" t="inlineStr">
-        <is>
-          <t>M1243</t>
-        </is>
-      </c>
-      <c r="D32" s="86" t="n"/>
-      <c r="E32" s="108" t="n">
-        <v>195</v>
-      </c>
-      <c r="F32" s="98" t="n">
-        <v>10154.6</v>
-      </c>
-      <c r="G32" s="98" t="n">
-        <v>777.5625</v>
-      </c>
-      <c r="H32" s="98" t="n">
-        <v>821.4375</v>
-      </c>
-      <c r="I32" s="109" t="n">
-        <v>2.7027</v>
-      </c>
+      <c r="A32" s="100" t="n"/>
+      <c r="B32" s="98" t="inlineStr">
+        <is>
+          <t>LEATHER (HS.CODE: 4107.12.00)</t>
+        </is>
+      </c>
+      <c r="C32" s="95" t="n"/>
+      <c r="D32" s="102" t="n"/>
+      <c r="E32" s="99" t="n"/>
+      <c r="F32" s="99" t="n"/>
+      <c r="G32" s="99" t="n"/>
+      <c r="H32" s="99" t="n"/>
+      <c r="I32" s="99" t="n"/>
     </row>
     <row r="33" ht="27" customHeight="1">
-      <c r="A33" s="111" t="n"/>
-      <c r="B33" s="96" t="inlineStr">
-        <is>
-          <t>GYOJY_M24367</t>
-        </is>
-      </c>
-      <c r="C33" s="96" t="inlineStr">
-        <is>
-          <t>M1243</t>
-        </is>
-      </c>
-      <c r="D33" s="86" t="n"/>
-      <c r="E33" s="108" t="n">
-        <v>5</v>
-      </c>
-      <c r="F33" s="98" t="n">
-        <v>224.6</v>
-      </c>
-      <c r="G33" s="98" t="n">
-        <v>19.9375</v>
-      </c>
-      <c r="H33" s="98" t="n">
-        <v>21.0625</v>
-      </c>
-      <c r="I33" s="109" t="n">
-        <v>0.0693</v>
-      </c>
-    </row>
-    <row r="34" ht="27" customHeight="1">
-      <c r="A34" s="111" t="n"/>
-      <c r="B34" s="96" t="n">
-        <v>20250531</v>
-      </c>
-      <c r="C34" s="96" t="inlineStr">
-        <is>
-          <t>Almond</t>
-        </is>
-      </c>
-      <c r="D34" s="86" t="n"/>
-      <c r="E34" s="108" t="n">
-        <v>19</v>
-      </c>
-      <c r="F34" s="98" t="n">
-        <v>1018</v>
-      </c>
-      <c r="G34" s="98" t="n">
-        <v>80.33329999999999</v>
-      </c>
-      <c r="H34" s="98" t="n">
-        <v>95.33329999999999</v>
-      </c>
-      <c r="I34" s="109" t="n">
-        <v>0.528</v>
-      </c>
-    </row>
-    <row r="35" ht="27" customHeight="1">
-      <c r="A35" s="111" t="n"/>
-      <c r="B35" s="96" t="n">
-        <v>20250531</v>
-      </c>
-      <c r="C35" s="96" t="inlineStr">
-        <is>
-          <t>KNOX BLACK 660</t>
-        </is>
-      </c>
-      <c r="D35" s="86" t="n"/>
-      <c r="E35" s="108" t="n">
-        <v>19</v>
-      </c>
-      <c r="F35" s="98" t="n">
-        <v>1023.9</v>
-      </c>
-      <c r="G35" s="98" t="n">
-        <v>80.33329999999999</v>
-      </c>
-      <c r="H35" s="98" t="n">
-        <v>95.33329999999999</v>
-      </c>
-      <c r="I35" s="109" t="n">
-        <v>0.528</v>
-      </c>
-    </row>
-    <row r="36" ht="27" customHeight="1">
-      <c r="A36" s="111" t="n"/>
-      <c r="B36" s="96" t="n">
-        <v>20250531</v>
-      </c>
-      <c r="C36" s="96" t="inlineStr">
-        <is>
-          <t>KNOX SILVER GRAY 998</t>
-        </is>
-      </c>
-      <c r="D36" s="87" t="n"/>
-      <c r="E36" s="108" t="n">
-        <v>19</v>
-      </c>
-      <c r="F36" s="98" t="n">
-        <v>969.6</v>
-      </c>
-      <c r="G36" s="98" t="n">
-        <v>80.33329999999999</v>
-      </c>
-      <c r="H36" s="98" t="n">
-        <v>95.33329999999999</v>
-      </c>
-      <c r="I36" s="109" t="n">
-        <v>0.528</v>
-      </c>
+      <c r="A33" s="103" t="n"/>
+      <c r="B33" s="103" t="inlineStr">
+        <is>
+          <t>TOTAL OF:</t>
+        </is>
+      </c>
+      <c r="C33" s="103" t="n"/>
+      <c r="D33" s="103" t="n"/>
+      <c r="E33" s="104">
+        <f>SUM(E21:E31)</f>
+        <v/>
+      </c>
+      <c r="F33" s="105">
+        <f>SUM(F21:F31)</f>
+        <v/>
+      </c>
+      <c r="G33" s="105">
+        <f>SUM(G21:G31)</f>
+        <v/>
+      </c>
+      <c r="H33" s="105">
+        <f>SUM(H21:H31)</f>
+        <v/>
+      </c>
+      <c r="I33" s="106">
+        <f>SUM(I21:I31)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="18" t="n"/>
+      <c r="B34" s="18" t="n"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="18" t="n"/>
+      <c r="B35" s="18" t="n"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="19" t="n"/>
+      <c r="B36" s="19" t="n"/>
+      <c r="C36" s="20" t="n"/>
+      <c r="D36" s="20" t="n"/>
+      <c r="E36" s="20" t="n"/>
+      <c r="F36" s="20" t="n"/>
+      <c r="G36" s="20" t="n"/>
+      <c r="H36" s="20" t="n"/>
+      <c r="I36" s="78" t="n"/>
+      <c r="L36" s="76" t="n"/>
     </row>
     <row r="37" ht="27" customHeight="1">
-      <c r="A37" s="110" t="n"/>
-      <c r="B37" s="96" t="inlineStr">
-        <is>
-          <t>LEATHER (HS.CODE: 4107.12.00)</t>
-        </is>
-      </c>
-      <c r="C37" s="106" t="n"/>
-      <c r="D37" s="97" t="n"/>
-      <c r="E37" s="108" t="n"/>
-      <c r="F37" s="98" t="n"/>
-      <c r="G37" s="98" t="n"/>
-      <c r="H37" s="98" t="n"/>
-      <c r="I37" s="109" t="n"/>
-    </row>
-    <row r="38" ht="27" customHeight="1">
-      <c r="A38" s="103" t="n"/>
-      <c r="B38" s="94" t="inlineStr">
-        <is>
-          <t xml:space="preserve">TOTAL OF: </t>
-        </is>
-      </c>
-      <c r="C38" s="94" t="inlineStr">
-        <is>
-          <t>12 PALLETS</t>
-        </is>
-      </c>
-      <c r="D38" s="90" t="n"/>
-      <c r="E38" s="112">
-        <f>SUM(E21:E36)</f>
-        <v/>
-      </c>
-      <c r="F38" s="104">
-        <f>SUM(F21:F36)</f>
-        <v/>
-      </c>
-      <c r="G38" s="104">
-        <f>SUM(G21:G36)</f>
-        <v/>
-      </c>
-      <c r="H38" s="104">
-        <f>SUM(H21:H36)</f>
-        <v/>
-      </c>
-      <c r="I38" s="113">
-        <f>SUM(I21:I36)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="18" t="n"/>
-      <c r="B40" s="18" t="n"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="18" t="n"/>
-      <c r="B41" s="18" t="n"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="19" t="n"/>
-      <c r="B42" s="19" t="n"/>
-      <c r="C42" s="20" t="n"/>
-      <c r="D42" s="20" t="n"/>
-      <c r="E42" s="20" t="n"/>
-      <c r="F42" s="20" t="n"/>
-      <c r="G42" s="20" t="n"/>
-      <c r="H42" s="20" t="n"/>
-      <c r="I42" s="78" t="n"/>
-      <c r="L42" s="76" t="n"/>
-    </row>
-    <row r="43" ht="27" customHeight="1">
-      <c r="A43" s="74" t="inlineStr">
+      <c r="A37" s="74" t="inlineStr">
         <is>
           <t>Country of Original Cambodia</t>
         </is>
       </c>
-      <c r="D43" s="74" t="n"/>
-      <c r="E43" s="74" t="n"/>
-      <c r="F43" s="20" t="n"/>
-      <c r="G43" s="20" t="n"/>
-      <c r="H43" s="20" t="n"/>
-      <c r="I43" s="78" t="n"/>
-    </row>
-    <row r="44" ht="42" customHeight="1">
-      <c r="A44" s="22" t="inlineStr">
+      <c r="D37" s="74" t="n"/>
+      <c r="E37" s="74" t="n"/>
+      <c r="F37" s="20" t="n"/>
+      <c r="G37" s="20" t="n"/>
+      <c r="H37" s="20" t="n"/>
+      <c r="I37" s="78" t="n"/>
+    </row>
+    <row r="38" ht="42" customHeight="1">
+      <c r="A38" s="22" t="inlineStr">
         <is>
           <t>Manufacture:</t>
         </is>
       </c>
-      <c r="B44" s="75" t="inlineStr">
+      <c r="B38" s="75" t="inlineStr">
         <is>
           <t>CALIFOR UPHOLSTERY MATERIALS CO., LTD.
 XIN BAVET SEZ, Road No. 316A, Trapeang Bon and Prey Kokir Villages, Prey Kokir Commune
 , Chantrea District,Svay Rieng Province, Kingdom of Cambodia, Tel: +855   975910636</t>
         </is>
       </c>
-      <c r="L44" s="76" t="n"/>
-    </row>
-    <row r="45" ht="42.75" customHeight="1">
-      <c r="A45" s="71" t="inlineStr">
+      <c r="L38" s="76" t="n"/>
+    </row>
+    <row r="39" ht="42.75" customHeight="1">
+      <c r="A39" s="71" t="inlineStr">
         <is>
           <t>BENEFICIARY BANK：BANK OF CHINA(HONG KONG)LIMITED PHNOM PENH BRANCH
                                           /BANK OF CHINA PHNOM PENH BRANCH</t>
         </is>
       </c>
-      <c r="J45" s="4" t="n"/>
-      <c r="K45" s="4" t="n"/>
-      <c r="L45" s="76" t="n"/>
+      <c r="J39" s="4" t="n"/>
+      <c r="K39" s="4" t="n"/>
+      <c r="L39" s="76" t="n"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="4" t="inlineStr">
+        <is>
+          <t>A/C NO:100001100764430</t>
+        </is>
+      </c>
+      <c r="B40" s="4" t="n"/>
+      <c r="C40" s="4" t="n"/>
+      <c r="D40" s="4" t="n"/>
+      <c r="E40" s="4" t="n"/>
+      <c r="F40" s="4" t="n"/>
+      <c r="G40" s="4" t="n"/>
+      <c r="H40" s="4" t="n"/>
+      <c r="I40" s="4" t="n"/>
+      <c r="J40" s="4" t="n"/>
+      <c r="K40" s="4" t="n"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="4" t="inlineStr">
+        <is>
+          <t>SWIFT CODE  ：BKCHKHPPXXX</t>
+        </is>
+      </c>
+      <c r="F41" s="23" t="inlineStr">
+        <is>
+          <t>CALIFOR UPHOLSTERY MATERIALS CO., LTD.</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="I42" s="16" t="n"/>
+    </row>
+    <row r="43">
+      <c r="H43" s="24" t="n"/>
+    </row>
+    <row r="44"/>
+    <row r="45">
+      <c r="J45" s="72" t="n"/>
     </row>
     <row r="46">
-      <c r="A46" s="4" t="inlineStr">
-        <is>
-          <t>A/C NO:100001100764430</t>
-        </is>
-      </c>
-      <c r="B46" s="4" t="n"/>
-      <c r="C46" s="4" t="n"/>
-      <c r="D46" s="4" t="n"/>
-      <c r="E46" s="4" t="n"/>
-      <c r="F46" s="4" t="n"/>
-      <c r="G46" s="4" t="n"/>
-      <c r="H46" s="4" t="n"/>
-      <c r="I46" s="4" t="n"/>
-      <c r="J46" s="4" t="n"/>
-      <c r="K46" s="4" t="n"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="4" t="inlineStr">
-        <is>
-          <t>SWIFT CODE  ：BKCHKHPPXXX</t>
-        </is>
-      </c>
-      <c r="F47" s="23" t="inlineStr">
-        <is>
-          <t>CALIFOR UPHOLSTERY MATERIALS CO., LTD.</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="I48" s="16" t="n"/>
-    </row>
-    <row r="49">
-      <c r="H49" s="24" t="n"/>
-    </row>
+      <c r="H46" s="7" t="n"/>
+      <c r="I46" s="7" t="n"/>
+      <c r="J46" s="7" t="n"/>
+    </row>
+    <row r="47"/>
+    <row r="48"/>
+    <row r="49"/>
     <row r="50"/>
-    <row r="51">
-      <c r="J51" s="72" t="n"/>
-    </row>
-    <row r="52">
-      <c r="H52" s="7" t="n"/>
-      <c r="I52" s="7" t="n"/>
-      <c r="J52" s="7" t="n"/>
-    </row>
+    <row r="51"/>
+    <row r="52"/>
     <row r="53"/>
     <row r="54"/>
     <row r="55"/>
@@ -3805,29 +3402,45 @@
     <row r="198"/>
     <row r="199"/>
     <row r="200" ht="27" customHeight="1"/>
+    <row r="201"/>
+    <row r="202"/>
+    <row r="203"/>
+    <row r="204"/>
+    <row r="205"/>
+    <row r="206"/>
+    <row r="207"/>
+    <row r="208"/>
+    <row r="209"/>
+    <row r="210"/>
+    <row r="211"/>
+    <row r="212"/>
+    <row r="213"/>
+    <row r="214"/>
+    <row r="215"/>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="A5:I5"/>
+  <mergeCells count="22">
     <mergeCell ref="B14:G14"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="A45:I45"/>
-    <mergeCell ref="B44:I44"/>
-    <mergeCell ref="A200:B200"/>
-    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="B33"/>
     <mergeCell ref="A3:I3"/>
     <mergeCell ref="G19:G20"/>
     <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="B38:I38"/>
+    <mergeCell ref="A39:I39"/>
+    <mergeCell ref="I19:I20"/>
     <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D21:D36"/>
     <mergeCell ref="C19:C20"/>
-    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="A200:B200"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="D21:D31"/>
   </mergeCells>
   <conditionalFormatting sqref="N22:N34">
     <cfRule type="duplicateValues" priority="1" stopIfTrue="1"/>

--- a/invoice_gen/result.xlsx
+++ b/invoice_gen/result.xlsx
@@ -10,9 +10,6 @@
     <sheet name="Packing list" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Invoice" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId4"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Contract'!$A$1:$F$37</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Packing list'!$A$1:$I$29</definedName>
@@ -28,7 +25,7 @@
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="166" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="167" formatCode="##,000.00"/>
+    <numFmt numFmtId="167" formatCode="#,##0.000000000"/>
   </numFmts>
   <fonts count="42">
     <font>
@@ -436,7 +433,7 @@
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
@@ -626,6 +623,21 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -634,36 +646,6 @@
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -681,18 +663,33 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -708,10 +705,15 @@
     <xf numFmtId="4" fontId="39" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="167" fontId="39" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="38" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="4" fontId="38" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -723,20 +725,24 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="41" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="41" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="4" fontId="41" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="41" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -758,7 +764,13 @@
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="40" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="40" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="40" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -771,9 +783,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="4" fontId="38" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1030,31 +1039,6 @@
     <clientData/>
   </twoCellAnchor>
 </wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook r:id="rId1">
-    <sheetNames>
-      <sheetName val="Contract"/>
-      <sheetName val="Packing list"/>
-      <sheetName val="Invoice OJY24001"/>
-      <sheetName val="Invoice OJY24001 SIGN"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2">
-        <row r="10">
-          <cell r="F10" t="str">
-            <v>Delivery term:</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1319,10 +1303,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P202"/>
+  <dimension ref="A1:N200"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:F5"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -1337,15 +1321,15 @@
     <col width="28.7109375" customWidth="1" style="44" min="16383" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" ht="45.95" customHeight="1" s="83">
-      <c r="A1" s="69" t="inlineStr">
+    <row r="1" ht="45.95" customHeight="1" s="78">
+      <c r="A1" s="74" t="inlineStr">
         <is>
           <t>SALES CONTRACT</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="27" customHeight="1" s="83">
-      <c r="A2" s="70" t="inlineStr">
+    <row r="2" ht="27" customHeight="1" s="78">
+      <c r="A2" s="75" t="inlineStr">
         <is>
           <t>HỢP ĐỒNG MUA BÁN</t>
         </is>
@@ -1355,7 +1339,7 @@
       <c r="A3" s="45" t="n"/>
       <c r="B3" s="46" t="n"/>
       <c r="C3" s="46" t="n"/>
-      <c r="D3" s="71" t="inlineStr">
+      <c r="D3" s="76" t="inlineStr">
         <is>
           <t>DATE(NGÀY HỢP ĐỒNG):</t>
         </is>
@@ -1368,7 +1352,7 @@
       <c r="A4" s="48" t="n"/>
       <c r="B4" s="48" t="n"/>
       <c r="C4" s="48" t="n"/>
-      <c r="D4" s="71" t="inlineStr">
+      <c r="D4" s="76" t="inlineStr">
         <is>
           <t>CONTRACT NO(SỐ HỢP ĐỒNG).:</t>
         </is>
@@ -1385,7 +1369,7 @@
           <t>The Seller:</t>
         </is>
       </c>
-      <c r="B5" s="72" t="inlineStr">
+      <c r="B5" s="73" t="inlineStr">
         <is>
           <t>CALIFOR UPHOLSTERY MATERIALS CO.,LTD.</t>
         </is>
@@ -1433,7 +1417,7 @@
           <t>BÊN BÁN</t>
         </is>
       </c>
-      <c r="B9" s="73" t="inlineStr">
+      <c r="B9" s="72" t="inlineStr">
         <is>
           <t>CALIFOR UPHOLSTERY MATERIALS CO.,LTD.</t>
         </is>
@@ -1441,7 +1425,7 @@
     </row>
     <row r="10" ht="27.95" customFormat="1" customHeight="1" s="40">
       <c r="A10" s="50" t="n"/>
-      <c r="B10" s="73" t="inlineStr">
+      <c r="B10" s="72" t="inlineStr">
         <is>
           <t>XIN BAVET SEZ, Road No. 316A, Trapeang Bon and  Prey Kokir  Villages, Prey Kokir  Commune, Chantrea District,</t>
         </is>
@@ -1449,7 +1433,7 @@
     </row>
     <row r="11" ht="18.95" customFormat="1" customHeight="1" s="40">
       <c r="A11" s="50" t="n"/>
-      <c r="B11" s="73" t="inlineStr">
+      <c r="B11" s="72" t="inlineStr">
         <is>
           <t>Svay Rieng Province, Kingdom of Cambodia.</t>
         </is>
@@ -1457,7 +1441,7 @@
     </row>
     <row r="12" ht="18.95" customFormat="1" customHeight="1" s="40">
       <c r="A12" s="50" t="n"/>
-      <c r="B12" s="73" t="inlineStr">
+      <c r="B12" s="72" t="inlineStr">
         <is>
           <t>+855   975910636</t>
         </is>
@@ -1469,7 +1453,7 @@
           <t>The Buyer:</t>
         </is>
       </c>
-      <c r="B13" s="72" t="inlineStr">
+      <c r="B13" s="73" t="inlineStr">
         <is>
           <t>OUCANYON FURNITURE ( VIETNAM) CO.,LTD.</t>
         </is>
@@ -1477,7 +1461,7 @@
     </row>
     <row r="14" ht="39" customFormat="1" customHeight="1" s="41">
       <c r="A14" s="55" t="n"/>
-      <c r="B14" s="73" t="inlineStr">
+      <c r="B14" s="72" t="inlineStr">
         <is>
           <t>NO.3A,2A STREET, VIETNAM - SINGAPORE INDUSTRIAL PARK, TINH PHONG COMMUNE, SON TINH DISTRICT, QUANG NGAI PROVINCE, VIETNAM</t>
         </is>
@@ -1489,27 +1473,27 @@
           <t>BÊN MUA</t>
         </is>
       </c>
-      <c r="B15" s="72" t="inlineStr">
+      <c r="B15" s="73" t="inlineStr">
         <is>
           <t>CÔNG TY TNHH OUCANYON FURNITURE ( VIỆT NAM)</t>
         </is>
       </c>
-      <c r="C15" s="73" t="n"/>
-      <c r="D15" s="73" t="n"/>
-      <c r="E15" s="73" t="n"/>
-      <c r="F15" s="73" t="n"/>
+      <c r="C15" s="72" t="n"/>
+      <c r="D15" s="72" t="n"/>
+      <c r="E15" s="72" t="n"/>
+      <c r="F15" s="72" t="n"/>
     </row>
     <row r="16" ht="24" customFormat="1" customHeight="1" s="41">
       <c r="A16" s="55" t="n"/>
-      <c r="B16" s="72" t="inlineStr">
+      <c r="B16" s="73" t="inlineStr">
         <is>
           <t>số 3A, Đường số 2A, KCN Việt Nam-Singapore, Xã Tịnh Phong, Huyện Sơn Tịnh, Tỉnh Quảng Ngãi, Việt Nam</t>
         </is>
       </c>
-      <c r="C16" s="73" t="n"/>
-      <c r="D16" s="73" t="n"/>
-      <c r="E16" s="73" t="n"/>
-      <c r="F16" s="73" t="n"/>
+      <c r="C16" s="72" t="n"/>
+      <c r="D16" s="72" t="n"/>
+      <c r="E16" s="72" t="n"/>
+      <c r="F16" s="72" t="n"/>
     </row>
     <row r="17" ht="17.1" customFormat="1" customHeight="1" s="41">
       <c r="A17" s="55" t="inlineStr">
@@ -1524,27 +1508,27 @@
       <c r="F17" s="55" t="n"/>
     </row>
     <row r="18" ht="30.95" customFormat="1" customHeight="1" s="40">
-      <c r="A18" s="73" t="inlineStr">
+      <c r="A18" s="72" t="inlineStr">
         <is>
           <t>EMAll:leohung.happyfur@ounoya.com</t>
         </is>
       </c>
     </row>
     <row r="19" ht="18.95" customFormat="1" customHeight="1" s="40">
-      <c r="A19" s="74" t="inlineStr">
+      <c r="A19" s="69" t="inlineStr">
         <is>
           <t>The undersigned Sellers 、Buyers and Beneficiary have agreed to close the  following transactions according to the terms and conditions Stipulated below:</t>
         </is>
       </c>
     </row>
-    <row r="20" s="83">
-      <c r="A20" s="74" t="inlineStr">
+    <row r="20" s="78">
+      <c r="A20" s="69" t="inlineStr">
         <is>
           <t>Người bán, người mua và người thụ hưởng đã thống nhất đồng ý các giao dịch sau theo các điều khoản và điều kiện được quy định dưới đây:</t>
         </is>
       </c>
     </row>
-    <row r="21" ht="29" customHeight="1" s="83">
+    <row r="21" ht="29" customHeight="1" s="78">
       <c r="A21" s="93" t="inlineStr">
         <is>
           <t>P.O Nº</t>
@@ -1571,7 +1555,7 @@
       <c r="E21" s="93" t="inlineStr">
         <is>
           <t>Unit Price(USD)
-Đơn giá)</t>
+Đơn giá</t>
         </is>
       </c>
       <c r="F21" s="93" t="inlineStr">
@@ -1581,226 +1565,292 @@
         </is>
       </c>
     </row>
-    <row r="22" ht="21" customHeight="1" s="83">
+    <row r="22" ht="21" customHeight="1" s="78">
       <c r="A22" s="94" t="inlineStr">
         <is>
-          <t>GYOJY_M25371/GYOJY_M25374
-YNGY25022/YNGY25028</t>
+          <t>YNGY25022</t>
         </is>
       </c>
       <c r="B22" s="94" t="inlineStr">
         <is>
-          <t>M1243/Nick Dove</t>
+          <t>M1243</t>
         </is>
       </c>
       <c r="C22" s="95" t="inlineStr">
         <is>
-          <t>COW LEATHER</t>
+          <t>COW LEATHER
+DA BÒ THUỘC</t>
         </is>
       </c>
       <c r="D22" s="96" t="n">
-        <v>225927.8</v>
-      </c>
-      <c r="E22" s="96">
+        <v>10045.4</v>
+      </c>
+      <c r="E22" s="97">
         <f>F22/D22</f>
         <v/>
       </c>
       <c r="F22" s="96" t="n">
-        <v>259081.023</v>
-      </c>
-    </row>
-    <row r="23" ht="29" customHeight="1" s="83">
-      <c r="A23" s="97" t="inlineStr">
-        <is>
-          <t>TOTAL OF:</t>
-        </is>
-      </c>
-      <c r="B23" s="97" t="n"/>
-      <c r="C23" s="97" t="n"/>
-      <c r="D23" s="98">
-        <f>SUM(D22:D22)</f>
+        <v>11451.756</v>
+      </c>
+    </row>
+    <row r="23" ht="21" customHeight="1" s="78">
+      <c r="A23" s="94" t="inlineStr">
+        <is>
+          <t>YNGY25028</t>
+        </is>
+      </c>
+      <c r="B23" s="94" t="inlineStr">
+        <is>
+          <t>M1243</t>
+        </is>
+      </c>
+      <c r="C23" s="98" t="n"/>
+      <c r="D23" s="96" t="n">
+        <v>40549.3</v>
+      </c>
+      <c r="E23" s="97">
+        <f>F23/D23</f>
         <v/>
       </c>
-      <c r="E23" s="97" t="n"/>
-      <c r="F23" s="98">
-        <f>SUM(F22:F22)</f>
+      <c r="F23" s="96" t="n">
+        <v>46116.952</v>
+      </c>
+    </row>
+    <row r="24" ht="21" customFormat="1" customHeight="1" s="42">
+      <c r="A24" s="94" t="inlineStr">
+        <is>
+          <t>GYOJY_M25371</t>
+        </is>
+      </c>
+      <c r="B24" s="94" t="inlineStr">
+        <is>
+          <t>Nick Dove</t>
+        </is>
+      </c>
+      <c r="C24" s="98" t="n"/>
+      <c r="D24" s="96" t="n">
+        <v>136491.8</v>
+      </c>
+      <c r="E24" s="97">
+        <f>F24/D24</f>
         <v/>
       </c>
-    </row>
-    <row r="24" ht="29.1" customFormat="1" customHeight="1" s="42">
-      <c r="A24" s="74" t="n"/>
-      <c r="B24" s="74" t="n"/>
-      <c r="C24" s="74" t="n"/>
-      <c r="D24" s="74" t="n"/>
-      <c r="E24" s="74" t="n"/>
-      <c r="F24" s="74" t="n"/>
-    </row>
-    <row r="25" ht="29.1" customFormat="1" customHeight="1" s="42">
-      <c r="A25" s="74" t="n"/>
-      <c r="B25" s="74" t="n"/>
-      <c r="C25" s="74" t="n"/>
-      <c r="D25" s="74" t="n"/>
-      <c r="E25" s="74" t="n"/>
-      <c r="F25" s="74" t="n"/>
-    </row>
-    <row r="26" ht="29.1" customFormat="1" customHeight="1" s="42">
-      <c r="A26" s="57" t="inlineStr">
-        <is>
-          <t>FOB:</t>
-        </is>
-      </c>
-      <c r="B26" s="58" t="inlineStr">
+      <c r="F24" s="96" t="n">
+        <v>156939.419</v>
+      </c>
+    </row>
+    <row r="25" ht="21" customFormat="1" customHeight="1" s="42">
+      <c r="A25" s="94" t="inlineStr">
+        <is>
+          <t>GYOJY_M25374</t>
+        </is>
+      </c>
+      <c r="B25" s="94" t="inlineStr">
+        <is>
+          <t>Nick Dove</t>
+        </is>
+      </c>
+      <c r="C25" s="99" t="n"/>
+      <c r="D25" s="96" t="n">
+        <v>38841.3</v>
+      </c>
+      <c r="E25" s="97">
+        <f>F25/D25</f>
+        <v/>
+      </c>
+      <c r="F25" s="96" t="n">
+        <v>44572.89599999999</v>
+      </c>
+    </row>
+    <row r="26" ht="29" customFormat="1" customHeight="1" s="42">
+      <c r="A26" s="100" t="inlineStr">
+        <is>
+          <t>TOTAL AMOUNT(Tổng trị giá):</t>
+        </is>
+      </c>
+      <c r="B26" s="100" t="n"/>
+      <c r="C26" s="100" t="n"/>
+      <c r="D26" s="101">
+        <f>SUM(D22:D25)</f>
+        <v/>
+      </c>
+      <c r="E26" s="100" t="n"/>
+      <c r="F26" s="101">
+        <f>SUM(F22:F25)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" ht="29.1" customFormat="1" customHeight="1" s="42">
+      <c r="A27" s="69" t="n"/>
+      <c r="B27" s="69" t="n"/>
+      <c r="C27" s="69" t="n"/>
+      <c r="D27" s="69" t="n"/>
+      <c r="E27" s="69" t="n"/>
+      <c r="F27" s="69" t="n"/>
+    </row>
+    <row r="28" ht="45.95" customFormat="1" customHeight="1" s="42">
+      <c r="A28" s="69" t="n"/>
+      <c r="B28" s="69" t="n"/>
+      <c r="C28" s="69" t="n"/>
+      <c r="D28" s="69" t="n"/>
+      <c r="E28" s="69" t="n"/>
+      <c r="F28" s="69" t="n"/>
+    </row>
+    <row r="29" ht="41.1" customFormat="1" customHeight="1" s="42">
+      <c r="A29" s="57" t="inlineStr">
+        <is>
+          <t>FCA:</t>
+        </is>
+      </c>
+      <c r="B29" s="58" t="inlineStr">
         <is>
           <t xml:space="preserve">BAVET,SVAYRIENG </t>
         </is>
       </c>
-      <c r="C26" s="58" t="n"/>
-      <c r="D26" s="50" t="n"/>
-      <c r="E26" s="50" t="n"/>
-      <c r="F26" s="61" t="n"/>
-    </row>
-    <row r="27" ht="29.1" customFormat="1" customHeight="1" s="42">
-      <c r="A27" s="50" t="inlineStr">
+      <c r="C29" s="58" t="n"/>
+      <c r="D29" s="50" t="n"/>
+      <c r="E29" s="50" t="n"/>
+      <c r="F29" s="61" t="n"/>
+    </row>
+    <row r="30" ht="29.1" customFormat="1" customHeight="1" s="42">
+      <c r="A30" s="50" t="inlineStr">
         <is>
           <t>Term of Payment: 100% TT after shipment(Điều kiện thanh toán: 100% T/T, thời hạn thanh toán sau khi giao hàng)</t>
-        </is>
-      </c>
-      <c r="B27" s="50" t="n"/>
-      <c r="C27" s="50" t="n"/>
-      <c r="D27" s="50" t="n"/>
-      <c r="E27" s="50" t="n"/>
-      <c r="F27" s="50" t="n"/>
-    </row>
-    <row r="28" ht="45.95" customFormat="1" customHeight="1" s="42">
-      <c r="A28" s="50" t="inlineStr">
-        <is>
-          <t>Transaction method: FOB(USD)  (Phương thức giao hàng: FOB(USD))</t>
-        </is>
-      </c>
-      <c r="B28" s="50" t="n"/>
-      <c r="C28" s="50" t="n"/>
-      <c r="D28" s="50" t="n"/>
-      <c r="E28" s="50" t="n"/>
-      <c r="F28" s="50" t="n"/>
-    </row>
-    <row r="29" ht="41.1" customFormat="1" customHeight="1" s="42">
-      <c r="A29" s="50" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Beneficiary bank information(Thông tin ngân hàng thụ hưởng): </t>
-        </is>
-      </c>
-      <c r="B29" s="50" t="n"/>
-      <c r="C29" s="50" t="n"/>
-      <c r="D29" s="50" t="inlineStr">
-        <is>
-          <t>CALIFOR UPHOLSTERY MATERIALS CO.,LTD.</t>
-        </is>
-      </c>
-      <c r="E29" s="50" t="n"/>
-      <c r="F29" s="50" t="n"/>
-    </row>
-    <row r="30" ht="45.95" customFormat="1" customHeight="1" s="42">
-      <c r="A30" s="50" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Beneficiary Bank' s Name(Tên ngân hàng thụ hưởng): </t>
         </is>
       </c>
       <c r="B30" s="50" t="n"/>
       <c r="C30" s="50" t="n"/>
-      <c r="D30" s="74" t="inlineStr">
+      <c r="D30" s="50" t="n"/>
+      <c r="E30" s="50" t="n"/>
+      <c r="F30" s="50" t="n"/>
+    </row>
+    <row r="31" ht="29.1" customFormat="1" customHeight="1" s="42">
+      <c r="A31" s="50" t="inlineStr">
+        <is>
+          <t>Transaction method: FCA(USD)  (Phương thức giao hàng: FCA(USD))</t>
+        </is>
+      </c>
+      <c r="B31" s="50" t="n"/>
+      <c r="C31" s="50" t="n"/>
+      <c r="D31" s="50" t="n"/>
+      <c r="E31" s="50" t="n"/>
+      <c r="F31" s="50" t="n"/>
+    </row>
+    <row r="32" ht="29.1" customFormat="1" customHeight="1" s="42">
+      <c r="A32" s="50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Beneficiary bank information(Thông tin ngân hàng thụ hưởng): </t>
+        </is>
+      </c>
+      <c r="B32" s="50" t="n"/>
+      <c r="C32" s="50" t="n"/>
+      <c r="D32" s="50" t="inlineStr">
+        <is>
+          <t>CALIFOR UPHOLSTERY MATERIALS CO.,LTD.</t>
+        </is>
+      </c>
+      <c r="E32" s="50" t="n"/>
+      <c r="F32" s="50" t="n"/>
+    </row>
+    <row r="33" ht="45.95" customFormat="1" customHeight="1" s="43">
+      <c r="A33" s="50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Beneficiary Bank' s Name(Tên ngân hàng thụ hưởng): </t>
+        </is>
+      </c>
+      <c r="B33" s="50" t="n"/>
+      <c r="C33" s="50" t="n"/>
+      <c r="D33" s="69" t="inlineStr">
         <is>
           <t>BANK OF CHINA(HONG KONG)LIMITED PHNOM PENH BRANCH
  /BANK OF CHINA PHNOM PENH BRANCH</t>
         </is>
       </c>
     </row>
-    <row r="31" ht="41.1" customFormat="1" customHeight="1" s="42">
-      <c r="A31" s="50" t="inlineStr">
+    <row r="34" ht="41.1" customFormat="1" customHeight="1" s="43">
+      <c r="A34" s="50" t="inlineStr">
         <is>
           <t xml:space="preserve">Bank Address( địa chỉ ngân hàng):  </t>
         </is>
       </c>
-      <c r="B31" s="50" t="n"/>
-      <c r="C31" s="50" t="n"/>
-      <c r="D31" s="74" t="inlineStr">
+      <c r="B34" s="50" t="n"/>
+      <c r="C34" s="50" t="n"/>
+      <c r="D34" s="69" t="inlineStr">
         <is>
           <t>1st AND 2nd FLOOR,CANADIA TOWER,No.315 ANDDUONG ST.
 PHNOM PEMH,CAMBODIA.</t>
         </is>
       </c>
     </row>
-    <row r="32" ht="29.1" customFormat="1" customHeight="1" s="42">
-      <c r="A32" s="50" t="inlineStr">
+    <row r="35" ht="29.1" customHeight="1" s="78">
+      <c r="A35" s="50" t="inlineStr">
         <is>
           <t>Bank account(số tài khoản) :</t>
         </is>
       </c>
-      <c r="B32" s="50" t="n"/>
-      <c r="C32" s="50" t="n"/>
-      <c r="D32" s="75" t="inlineStr">
+      <c r="B35" s="50" t="n"/>
+      <c r="C35" s="50" t="n"/>
+      <c r="D35" s="70" t="inlineStr">
         <is>
           <t>100001100764430</t>
         </is>
       </c>
     </row>
-    <row r="33" ht="29.1" customFormat="1" customHeight="1" s="43">
-      <c r="A33" s="50" t="inlineStr">
+    <row r="36">
+      <c r="A36" s="50" t="inlineStr">
         <is>
           <t>SWIFT CODE( mã swift)  ：</t>
         </is>
       </c>
-      <c r="B33" s="50" t="n"/>
-      <c r="C33" s="50" t="n"/>
-      <c r="D33" s="50" t="inlineStr">
+      <c r="B36" s="50" t="n"/>
+      <c r="C36" s="50" t="n"/>
+      <c r="D36" s="50" t="inlineStr">
         <is>
           <t>BKCHKHPPXXX</t>
         </is>
       </c>
-      <c r="E33" s="50" t="n"/>
-      <c r="F33" s="50" t="n"/>
-    </row>
-    <row r="34" ht="57" customFormat="1" customHeight="1" s="43">
-      <c r="A34" s="50" t="n"/>
-      <c r="B34" s="50" t="n"/>
-      <c r="C34" s="50" t="n"/>
-      <c r="D34" s="50" t="n"/>
-      <c r="E34" s="50" t="n"/>
-      <c r="F34" s="50" t="n"/>
-      <c r="G34" s="59" t="n"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="52" t="inlineStr">
+      <c r="E36" s="50" t="n"/>
+      <c r="F36" s="50" t="n"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="50" t="n"/>
+      <c r="B37" s="50" t="n"/>
+      <c r="C37" s="50" t="n"/>
+      <c r="D37" s="50" t="n"/>
+      <c r="E37" s="50" t="n"/>
+      <c r="F37" s="50" t="n"/>
+      <c r="G37" s="59" t="n"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="52" t="inlineStr">
         <is>
           <t>The Buyer(bên mua):</t>
         </is>
       </c>
-      <c r="B35" s="52" t="n"/>
-      <c r="C35" s="52" t="n"/>
-      <c r="D35" s="52" t="n"/>
-      <c r="E35" s="50" t="inlineStr">
+      <c r="B38" s="52" t="n"/>
+      <c r="C38" s="52" t="n"/>
+      <c r="D38" s="52" t="n"/>
+      <c r="E38" s="50" t="inlineStr">
         <is>
           <t>The Seller(bên bán):</t>
         </is>
       </c>
-      <c r="F35" s="52" t="n"/>
-    </row>
-    <row r="36" ht="57" customHeight="1" s="83">
-      <c r="A36" s="76" t="inlineStr">
+      <c r="F38" s="52" t="n"/>
+    </row>
+    <row r="39" ht="57" customHeight="1" s="78">
+      <c r="A39" s="71" t="inlineStr">
         <is>
           <t>OUCANYON FURNITURE ( VIETNAM) CO.,LTD.</t>
         </is>
       </c>
-      <c r="C36" s="76" t="n"/>
-      <c r="D36" s="74" t="n"/>
-      <c r="E36" s="76" t="inlineStr">
+      <c r="C39" s="71" t="n"/>
+      <c r="D39" s="69" t="n"/>
+      <c r="E39" s="71" t="inlineStr">
         <is>
           <t>CALIFOR UPHOLSTERY MATERIALS CO.,LTD.</t>
         </is>
       </c>
     </row>
-    <row r="37"/>
-    <row r="38"/>
-    <row r="39"/>
     <row r="40"/>
     <row r="41"/>
     <row r="42"/>
@@ -1962,32 +2012,31 @@
     <row r="198"/>
     <row r="199"/>
     <row r="200"/>
-    <row r="201"/>
-    <row r="202"/>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="A36:B36"/>
+  <mergeCells count="24">
     <mergeCell ref="A18:F18"/>
+    <mergeCell ref="E39:F39"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="B12:F12"/>
     <mergeCell ref="D28:F28"/>
+    <mergeCell ref="C22:C25"/>
     <mergeCell ref="B11:F11"/>
     <mergeCell ref="B14:F14"/>
     <mergeCell ref="D30:F30"/>
     <mergeCell ref="A20:F20"/>
+    <mergeCell ref="D33:F33"/>
     <mergeCell ref="B13:F13"/>
-    <mergeCell ref="E34:F34"/>
     <mergeCell ref="D29:F29"/>
     <mergeCell ref="A19:F19"/>
     <mergeCell ref="B10:F10"/>
+    <mergeCell ref="D35:F35"/>
     <mergeCell ref="D4:E4"/>
-    <mergeCell ref="E36:F36"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="B9:F9"/>
-    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="D34:F34"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="B5:F5"/>
+    <mergeCell ref="A39:B39"/>
     <mergeCell ref="A34:B34"/>
   </mergeCells>
   <pageMargins left="0.357638888888889" right="0.357638888888889" top="0.802777777777778" bottom="1" header="0.5" footer="0.5"/>
@@ -2008,33 +2057,33 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P240"/>
+  <dimension ref="A1:N200"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" topLeftCell="A6" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.7109375" defaultRowHeight="27" customHeight="1"/>
   <cols>
-    <col width="22.85546875" customWidth="1" style="83" min="1" max="1"/>
-    <col width="20.85546875" customWidth="1" style="83" min="2" max="2"/>
-    <col width="18.5703125" customWidth="1" style="83" min="3" max="3"/>
-    <col width="17.140625" customWidth="1" style="83" min="4" max="4"/>
-    <col width="11.7109375" customWidth="1" style="83" min="5" max="5"/>
-    <col width="16.42578125" customWidth="1" style="83" min="6" max="6"/>
-    <col width="14.42578125" customWidth="1" style="83" min="7" max="7"/>
-    <col width="13.28515625" customWidth="1" style="83" min="8" max="8"/>
+    <col width="22.85546875" customWidth="1" style="78" min="1" max="1"/>
+    <col width="20.85546875" customWidth="1" style="78" min="2" max="2"/>
+    <col width="18.5703125" customWidth="1" style="78" min="3" max="3"/>
+    <col width="17.140625" customWidth="1" style="78" min="4" max="4"/>
+    <col width="11.7109375" customWidth="1" style="78" min="5" max="5"/>
+    <col width="16.42578125" customWidth="1" style="78" min="6" max="6"/>
+    <col width="14.42578125" customWidth="1" style="78" min="7" max="7"/>
+    <col width="13.28515625" customWidth="1" style="78" min="8" max="8"/>
     <col width="27.7109375" customWidth="1" style="17" min="9" max="9"/>
-    <col width="15" customWidth="1" style="83" min="10" max="10"/>
-    <col width="10" customWidth="1" style="83" min="11" max="11"/>
-    <col width="25.140625" customWidth="1" style="83" min="12" max="12"/>
-    <col width="15.5703125" customWidth="1" style="83" min="13" max="13"/>
-    <col width="10.28515625" customWidth="1" style="83" min="14" max="14"/>
-    <col width="12.42578125" customWidth="1" style="83" min="16" max="16"/>
+    <col width="15" customWidth="1" style="78" min="10" max="10"/>
+    <col width="10" customWidth="1" style="78" min="11" max="11"/>
+    <col width="25.140625" customWidth="1" style="78" min="12" max="12"/>
+    <col width="15.5703125" customWidth="1" style="78" min="13" max="13"/>
+    <col width="10.28515625" customWidth="1" style="78" min="14" max="14"/>
+    <col width="12.42578125" customWidth="1" style="78" min="16" max="16"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27" customHeight="1" s="83">
-      <c r="A1" s="77" t="inlineStr">
+    <row r="1" ht="27" customHeight="1" s="78">
+      <c r="A1" s="83" t="inlineStr">
         <is>
           <t>CALIFOR UPHOLSTERY MATERIALS CO., LTD.</t>
         </is>
@@ -2042,8 +2091,8 @@
       <c r="J1" s="35" t="n"/>
       <c r="K1" s="35" t="n"/>
     </row>
-    <row r="2" ht="27" customHeight="1" s="83">
-      <c r="A2" s="78" t="inlineStr">
+    <row r="2" ht="27" customHeight="1" s="78">
+      <c r="A2" s="84" t="inlineStr">
         <is>
           <t xml:space="preserve"> XIN BAVET SEZ, Road No. 316A, Trapeang Bon and  Prey Kokir  Villages, Prey Kokir  Commune, Chantrea District, </t>
         </is>
@@ -2051,8 +2100,8 @@
       <c r="J2" s="18" t="n"/>
       <c r="K2" s="18" t="n"/>
     </row>
-    <row r="3" ht="27" customHeight="1" s="83">
-      <c r="A3" s="79" t="inlineStr">
+    <row r="3" ht="27" customHeight="1" s="78">
+      <c r="A3" s="85" t="inlineStr">
         <is>
           <t>Svay Rieng Province, Kingdom of Cambodia.</t>
         </is>
@@ -2060,8 +2109,8 @@
       <c r="J3" s="33" t="n"/>
       <c r="K3" s="33" t="n"/>
     </row>
-    <row r="4" ht="27" customHeight="1" s="83">
-      <c r="A4" s="80" t="inlineStr">
+    <row r="4" ht="27" customHeight="1" s="78">
+      <c r="A4" s="86" t="inlineStr">
         <is>
           <t>VAT:L001-901903209</t>
         </is>
@@ -2069,41 +2118,41 @@
       <c r="J4" s="33" t="n"/>
       <c r="K4" s="33" t="n"/>
     </row>
-    <row r="5" ht="27" customHeight="1" s="83">
-      <c r="A5" s="81" t="inlineStr">
+    <row r="5" ht="27" customHeight="1" s="78">
+      <c r="A5" s="87" t="inlineStr">
         <is>
           <t>Tel: +855   975910636</t>
         </is>
       </c>
-      <c r="B5" s="99" t="n"/>
-      <c r="C5" s="99" t="n"/>
-      <c r="D5" s="99" t="n"/>
-      <c r="E5" s="99" t="n"/>
-      <c r="F5" s="99" t="n"/>
-      <c r="G5" s="99" t="n"/>
-      <c r="H5" s="99" t="n"/>
-      <c r="I5" s="99" t="n"/>
+      <c r="B5" s="102" t="n"/>
+      <c r="C5" s="102" t="n"/>
+      <c r="D5" s="102" t="n"/>
+      <c r="E5" s="102" t="n"/>
+      <c r="F5" s="102" t="n"/>
+      <c r="G5" s="102" t="n"/>
+      <c r="H5" s="102" t="n"/>
+      <c r="I5" s="102" t="n"/>
       <c r="J5" s="33" t="n"/>
       <c r="K5" s="33" t="n"/>
     </row>
-    <row r="6" ht="27" customHeight="1" s="83">
-      <c r="A6" s="84" t="inlineStr">
+    <row r="6" ht="27" customHeight="1" s="78">
+      <c r="A6" s="79" t="inlineStr">
         <is>
           <t>PACKING LIST</t>
         </is>
       </c>
-      <c r="B6" s="100" t="n"/>
-      <c r="C6" s="100" t="n"/>
-      <c r="D6" s="100" t="n"/>
-      <c r="E6" s="100" t="n"/>
-      <c r="F6" s="100" t="n"/>
-      <c r="G6" s="100" t="n"/>
-      <c r="H6" s="100" t="n"/>
-      <c r="I6" s="100" t="n"/>
+      <c r="B6" s="103" t="n"/>
+      <c r="C6" s="103" t="n"/>
+      <c r="D6" s="103" t="n"/>
+      <c r="E6" s="103" t="n"/>
+      <c r="F6" s="103" t="n"/>
+      <c r="G6" s="103" t="n"/>
+      <c r="H6" s="103" t="n"/>
+      <c r="I6" s="103" t="n"/>
       <c r="J6" s="36" t="n"/>
       <c r="K6" s="36" t="n"/>
     </row>
-    <row r="7" ht="27" customHeight="1" s="83">
+    <row r="7" ht="27" customHeight="1" s="78">
       <c r="A7" s="18" t="n"/>
       <c r="B7" s="18" t="n"/>
       <c r="C7" s="18" t="n"/>
@@ -2121,7 +2170,7 @@
         </is>
       </c>
     </row>
-    <row r="8" ht="27" customHeight="1" s="83">
+    <row r="8" ht="27" customHeight="1" s="78">
       <c r="A8" s="20" t="inlineStr">
         <is>
           <t>EXPORTER:</t>
@@ -2144,7 +2193,7 @@
         </is>
       </c>
     </row>
-    <row r="9" ht="27" customHeight="1" s="83">
+    <row r="9" ht="27" customHeight="1" s="78">
       <c r="A9" s="18" t="n"/>
       <c r="B9" s="18" t="inlineStr">
         <is>
@@ -2157,11 +2206,11 @@
           <t>Date:</t>
         </is>
       </c>
-      <c r="I9" s="101" t="n">
+      <c r="I9" s="104" t="n">
         <v>45906</v>
       </c>
     </row>
-    <row r="10" ht="27" customHeight="1" s="83">
+    <row r="10" ht="27" customHeight="1" s="78">
       <c r="A10" s="18" t="n"/>
       <c r="B10" s="18" t="inlineStr">
         <is>
@@ -2169,18 +2218,19 @@
         </is>
       </c>
       <c r="F10" s="18" t="n"/>
-      <c r="H10" s="67">
-        <f>'[1]Invoice OJY24001'!F10</f>
-        <v/>
+      <c r="H10" s="67" t="inlineStr">
+        <is>
+          <t>Delivery term:</t>
+        </is>
       </c>
       <c r="I10" s="68" t="inlineStr">
         <is>
-          <t>FOB BAVET</t>
+          <t xml:space="preserve">FCA  BAVET,SVAYRIENG </t>
         </is>
       </c>
       <c r="J10" s="37" t="n"/>
     </row>
-    <row r="11" ht="27" customHeight="1" s="83">
+    <row r="11" ht="27" customHeight="1" s="78">
       <c r="A11" s="18" t="n"/>
       <c r="B11" s="18" t="inlineStr">
         <is>
@@ -2190,11 +2240,11 @@
       <c r="F11" s="18" t="n"/>
       <c r="G11" s="18" t="n"/>
       <c r="H11" s="18" t="n"/>
-      <c r="I11" s="78" t="n"/>
+      <c r="I11" s="84" t="n"/>
       <c r="J11" s="18" t="n"/>
       <c r="K11" s="18" t="n"/>
     </row>
-    <row r="12" ht="27" customHeight="1" s="83">
+    <row r="12" ht="27" customHeight="1" s="78">
       <c r="A12" s="18" t="n"/>
       <c r="B12" s="18" t="n"/>
       <c r="C12" s="18" t="n"/>
@@ -2203,11 +2253,11 @@
       <c r="F12" s="18" t="n"/>
       <c r="G12" s="18" t="n"/>
       <c r="H12" s="18" t="n"/>
-      <c r="I12" s="78" t="n"/>
+      <c r="I12" s="84" t="n"/>
       <c r="J12" s="18" t="n"/>
       <c r="K12" s="18" t="n"/>
     </row>
-    <row r="13" ht="27" customHeight="1" s="83">
+    <row r="13" ht="27" customHeight="1" s="78">
       <c r="A13" s="22" t="inlineStr">
         <is>
           <t>CONSIGNEE :</t>
@@ -2224,7 +2274,7 @@
       <c r="F13" s="23" t="n"/>
       <c r="G13" s="17" t="n"/>
     </row>
-    <row r="14" ht="27" customHeight="1" s="83">
+    <row r="14" ht="27" customHeight="1" s="78">
       <c r="A14" s="18" t="n"/>
       <c r="B14" s="24" t="inlineStr">
         <is>
@@ -2237,7 +2287,7 @@
       <c r="F14" s="26" t="n"/>
       <c r="G14" s="17" t="n"/>
     </row>
-    <row r="15" ht="27" customHeight="1" s="83">
+    <row r="15" ht="27" customHeight="1" s="78">
       <c r="A15" s="18" t="n"/>
       <c r="B15" s="18" t="inlineStr">
         <is>
@@ -2250,7 +2300,7 @@
       <c r="F15" s="25" t="n"/>
       <c r="G15" s="17" t="n"/>
     </row>
-    <row r="16" ht="27" customHeight="1" s="83">
+    <row r="16" ht="27" customHeight="1" s="78">
       <c r="A16" s="18" t="n"/>
       <c r="B16" s="18" t="inlineStr">
         <is>
@@ -2263,7 +2313,7 @@
       <c r="F16" s="26" t="n"/>
       <c r="G16" s="17" t="n"/>
     </row>
-    <row r="17" ht="27" customHeight="1" s="83">
+    <row r="17" ht="27" customHeight="1" s="78">
       <c r="A17" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">SHIP: </t>
@@ -2277,1160 +2327,1163 @@
       <c r="F17" s="17" t="n"/>
       <c r="G17" s="17" t="n"/>
     </row>
-    <row r="18" ht="27" customHeight="1" s="83">
+    <row r="18" ht="27" customHeight="1" s="78">
       <c r="A18" s="27" t="n"/>
       <c r="B18" s="18" t="n"/>
       <c r="F18" s="17" t="n"/>
       <c r="G18" s="17" t="n"/>
     </row>
-    <row r="19" ht="27" customHeight="1" s="83">
-      <c r="A19" s="102" t="inlineStr">
+    <row r="19" ht="27" customHeight="1" s="78">
+      <c r="A19" s="105" t="inlineStr">
         <is>
           <t>Mark &amp; Nº</t>
         </is>
       </c>
-      <c r="B19" s="102" t="inlineStr">
+      <c r="B19" s="105" t="inlineStr">
         <is>
           <t>P.O Nº</t>
         </is>
       </c>
-      <c r="C19" s="102" t="inlineStr">
+      <c r="C19" s="105" t="inlineStr">
         <is>
           <t>ITEM Nº</t>
         </is>
       </c>
-      <c r="D19" s="102" t="inlineStr">
+      <c r="D19" s="105" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="E19" s="102" t="inlineStr">
+      <c r="E19" s="105" t="inlineStr">
         <is>
           <t>Quantity</t>
         </is>
       </c>
-      <c r="F19" s="103" t="n"/>
-      <c r="G19" s="102" t="inlineStr">
+      <c r="F19" s="106" t="n"/>
+      <c r="G19" s="105" t="inlineStr">
         <is>
           <t>G.W (kgs)</t>
         </is>
       </c>
-      <c r="H19" s="102" t="inlineStr">
+      <c r="H19" s="105" t="inlineStr">
         <is>
           <t>N.W (kgs)</t>
         </is>
       </c>
-      <c r="I19" s="102" t="inlineStr">
+      <c r="I19" s="105" t="inlineStr">
         <is>
           <t>CBM</t>
         </is>
       </c>
     </row>
-    <row r="20" ht="27" customHeight="1" s="83">
-      <c r="A20" s="104" t="n"/>
-      <c r="B20" s="104" t="n"/>
-      <c r="C20" s="104" t="n"/>
-      <c r="D20" s="104" t="n"/>
-      <c r="E20" s="102" t="inlineStr">
+    <row r="20" ht="27" customHeight="1" s="78">
+      <c r="A20" s="99" t="n"/>
+      <c r="B20" s="99" t="n"/>
+      <c r="C20" s="99" t="n"/>
+      <c r="D20" s="99" t="n"/>
+      <c r="E20" s="105" t="inlineStr">
         <is>
           <t>PCS</t>
         </is>
       </c>
-      <c r="F20" s="102" t="inlineStr">
+      <c r="F20" s="105" t="inlineStr">
         <is>
           <t>SF</t>
         </is>
       </c>
-      <c r="G20" s="104" t="n"/>
-      <c r="H20" s="104" t="n"/>
-      <c r="I20" s="104" t="n"/>
-    </row>
-    <row r="21" ht="27" customHeight="1" s="83">
-      <c r="A21" s="105" t="inlineStr">
+      <c r="G20" s="99" t="n"/>
+      <c r="H20" s="99" t="n"/>
+      <c r="I20" s="99" t="n"/>
+    </row>
+    <row r="21" ht="27" customHeight="1" s="78">
+      <c r="A21" s="107" t="inlineStr">
         <is>
           <t>VENDOR#:</t>
         </is>
       </c>
-      <c r="B21" s="106" t="inlineStr">
+      <c r="B21" s="108" t="inlineStr">
         <is>
           <t>YNGY25022</t>
         </is>
       </c>
-      <c r="C21" s="106" t="inlineStr">
+      <c r="C21" s="108" t="inlineStr">
         <is>
           <t>M1243</t>
         </is>
       </c>
-      <c r="D21" s="106" t="inlineStr">
-        <is>
-          <t>COW LEATHER</t>
-        </is>
-      </c>
-      <c r="E21" s="107" t="n">
+      <c r="D21" s="108" t="inlineStr">
+        <is>
+          <t>COW LEATHER
+DA BÒ THUỘC</t>
+        </is>
+      </c>
+      <c r="E21" s="109" t="n">
         <v>195</v>
       </c>
-      <c r="F21" s="107" t="n">
+      <c r="F21" s="110" t="n">
         <v>10045.4</v>
       </c>
-      <c r="G21" s="107" t="n">
+      <c r="G21" s="110" t="n">
         <v>804</v>
       </c>
-      <c r="H21" s="107" t="n">
+      <c r="H21" s="110" t="n">
         <v>759</v>
       </c>
-      <c r="I21" s="107" t="n">
+      <c r="I21" s="111" t="n">
         <v>2.4948</v>
       </c>
     </row>
-    <row r="22" ht="27" customHeight="1" s="83">
-      <c r="A22" s="108" t="inlineStr">
+    <row r="22" ht="27" customHeight="1" s="78">
+      <c r="A22" s="112" t="inlineStr">
         <is>
           <t>Des: COW LEATHER</t>
         </is>
       </c>
-      <c r="B22" s="106" t="inlineStr">
+      <c r="B22" s="108" t="inlineStr">
         <is>
           <t>YNGY25028</t>
         </is>
       </c>
-      <c r="C22" s="106" t="inlineStr">
+      <c r="C22" s="108" t="inlineStr">
         <is>
           <t>M1243</t>
         </is>
       </c>
-      <c r="D22" s="109" t="n"/>
-      <c r="E22" s="107" t="n">
+      <c r="D22" s="98" t="n"/>
+      <c r="E22" s="109" t="n">
         <v>215</v>
       </c>
-      <c r="F22" s="107" t="n">
+      <c r="F22" s="110" t="n">
         <v>11181.6</v>
       </c>
-      <c r="G22" s="107" t="n">
+      <c r="G22" s="110" t="n">
         <v>887</v>
       </c>
-      <c r="H22" s="107" t="n">
+      <c r="H22" s="110" t="n">
         <v>842</v>
       </c>
-      <c r="I22" s="107" t="n">
+      <c r="I22" s="111" t="n">
         <v>2.772</v>
       </c>
     </row>
-    <row r="23" ht="27" customHeight="1" s="83">
-      <c r="A23" s="108" t="inlineStr">
+    <row r="23" ht="27" customHeight="1" s="78">
+      <c r="A23" s="112" t="inlineStr">
         <is>
           <t>Case Qty:</t>
         </is>
       </c>
-      <c r="B23" s="106" t="inlineStr">
+      <c r="B23" s="108" t="inlineStr">
         <is>
           <t>YNGY25028</t>
         </is>
       </c>
-      <c r="C23" s="106" t="inlineStr">
+      <c r="C23" s="108" t="inlineStr">
         <is>
           <t>M1243</t>
         </is>
       </c>
-      <c r="D23" s="109" t="n"/>
-      <c r="E23" s="107" t="n">
+      <c r="D23" s="98" t="n"/>
+      <c r="E23" s="109" t="n">
         <v>210</v>
       </c>
-      <c r="F23" s="107" t="n">
+      <c r="F23" s="110" t="n">
         <v>10982.8</v>
       </c>
-      <c r="G23" s="107" t="n">
+      <c r="G23" s="110" t="n">
         <v>866.5</v>
       </c>
-      <c r="H23" s="107" t="n">
+      <c r="H23" s="110" t="n">
         <v>821.5</v>
       </c>
-      <c r="I23" s="107" t="n">
+      <c r="I23" s="111" t="n">
         <v>2.6532</v>
       </c>
     </row>
-    <row r="24" ht="27" customHeight="1" s="83">
-      <c r="A24" s="108" t="inlineStr">
+    <row r="24" ht="27" customHeight="1" s="78">
+      <c r="A24" s="112" t="inlineStr">
         <is>
           <t>MADE IN CAMBODIA</t>
         </is>
       </c>
-      <c r="B24" s="106" t="inlineStr">
+      <c r="B24" s="108" t="inlineStr">
         <is>
           <t>YNGY25028</t>
         </is>
       </c>
-      <c r="C24" s="106" t="inlineStr">
+      <c r="C24" s="108" t="inlineStr">
         <is>
           <t>M1243</t>
         </is>
       </c>
-      <c r="D24" s="109" t="n"/>
-      <c r="E24" s="107" t="n">
+      <c r="D24" s="98" t="n"/>
+      <c r="E24" s="109" t="n">
         <v>210</v>
       </c>
-      <c r="F24" s="107" t="n">
+      <c r="F24" s="110" t="n">
         <v>11087.8</v>
       </c>
-      <c r="G24" s="107" t="n">
+      <c r="G24" s="110" t="n">
         <v>878.5</v>
       </c>
-      <c r="H24" s="107" t="n">
+      <c r="H24" s="110" t="n">
         <v>833.5</v>
       </c>
-      <c r="I24" s="107" t="n">
+      <c r="I24" s="111" t="n">
         <v>2.8512</v>
       </c>
     </row>
-    <row r="25" ht="27" customHeight="1" s="83">
-      <c r="A25" s="108" t="n"/>
-      <c r="B25" s="106" t="inlineStr">
+    <row r="25" ht="27" customHeight="1" s="78">
+      <c r="A25" s="112" t="n"/>
+      <c r="B25" s="108" t="inlineStr">
         <is>
           <t>YNGY25028</t>
         </is>
       </c>
-      <c r="C25" s="106" t="inlineStr">
+      <c r="C25" s="108" t="inlineStr">
         <is>
           <t>M1243</t>
         </is>
       </c>
-      <c r="D25" s="109" t="n"/>
-      <c r="E25" s="107" t="n">
+      <c r="D25" s="98" t="n"/>
+      <c r="E25" s="109" t="n">
         <v>130</v>
       </c>
-      <c r="F25" s="107" t="n">
+      <c r="F25" s="110" t="n">
         <v>6822.1</v>
       </c>
-      <c r="G25" s="107" t="n">
+      <c r="G25" s="110" t="n">
         <v>555.7971</v>
       </c>
-      <c r="H25" s="107" t="n">
+      <c r="H25" s="110" t="n">
         <v>513.4058</v>
       </c>
-      <c r="I25" s="107" t="n">
+      <c r="I25" s="111" t="n">
         <v>2.1637</v>
       </c>
     </row>
-    <row r="26" ht="27" customHeight="1" s="83">
-      <c r="A26" s="108" t="n"/>
-      <c r="B26" s="106" t="inlineStr">
+    <row r="26" ht="27" customHeight="1" s="78">
+      <c r="A26" s="112" t="n"/>
+      <c r="B26" s="108" t="inlineStr">
         <is>
           <t>YNGY25028</t>
         </is>
       </c>
-      <c r="C26" s="106" t="inlineStr">
+      <c r="C26" s="108" t="inlineStr">
         <is>
           <t>M1243</t>
         </is>
       </c>
-      <c r="D26" s="109" t="n"/>
-      <c r="E26" s="107" t="n">
+      <c r="D26" s="98" t="n"/>
+      <c r="E26" s="109" t="n">
         <v>8</v>
       </c>
-      <c r="F26" s="107" t="n">
+      <c r="F26" s="110" t="n">
         <v>475</v>
       </c>
-      <c r="G26" s="107" t="n">
+      <c r="G26" s="110" t="n">
         <v>34.2029</v>
       </c>
-      <c r="H26" s="107" t="n">
+      <c r="H26" s="110" t="n">
         <v>31.5942</v>
       </c>
-      <c r="I26" s="107" t="n">
+      <c r="I26" s="111" t="n">
         <v>0.1331</v>
       </c>
     </row>
-    <row r="27" ht="27" customHeight="1" s="83">
-      <c r="A27" s="108" t="n"/>
-      <c r="B27" s="106" t="inlineStr">
+    <row r="27" ht="27" customHeight="1" s="78">
+      <c r="A27" s="112" t="n"/>
+      <c r="B27" s="108" t="inlineStr">
         <is>
           <t>GYOJY_M25371</t>
         </is>
       </c>
-      <c r="C27" s="106" t="inlineStr">
+      <c r="C27" s="108" t="inlineStr">
         <is>
           <t>Nick Dove</t>
         </is>
       </c>
-      <c r="D27" s="109" t="n"/>
-      <c r="E27" s="107" t="n">
+      <c r="D27" s="98" t="n"/>
+      <c r="E27" s="109" t="n">
         <v>220</v>
       </c>
-      <c r="F27" s="107" t="n">
+      <c r="F27" s="110" t="n">
         <v>10205.7</v>
       </c>
-      <c r="G27" s="107" t="n">
+      <c r="G27" s="110" t="n">
         <v>820</v>
       </c>
-      <c r="H27" s="107" t="n">
+      <c r="H27" s="110" t="n">
         <v>775</v>
       </c>
-      <c r="I27" s="107" t="n">
+      <c r="I27" s="111" t="n">
         <v>2.4948</v>
       </c>
     </row>
-    <row r="28" ht="27" customHeight="1" s="83">
-      <c r="A28" s="108" t="n"/>
-      <c r="B28" s="106" t="inlineStr">
+    <row r="28" ht="27" customHeight="1" s="78">
+      <c r="A28" s="112" t="n"/>
+      <c r="B28" s="108" t="inlineStr">
         <is>
           <t>GYOJY_M25371</t>
         </is>
       </c>
-      <c r="C28" s="106" t="inlineStr">
+      <c r="C28" s="108" t="inlineStr">
         <is>
           <t>Nick Dove</t>
         </is>
       </c>
-      <c r="D28" s="104" t="n"/>
-      <c r="E28" s="107" t="n">
+      <c r="D28" s="99" t="n"/>
+      <c r="E28" s="109" t="n">
         <v>215</v>
       </c>
-      <c r="F28" s="107" t="n">
+      <c r="F28" s="110" t="n">
         <v>10012.8</v>
       </c>
-      <c r="G28" s="107" t="n">
+      <c r="G28" s="110" t="n">
         <v>797.5</v>
       </c>
-      <c r="H28" s="107" t="n">
+      <c r="H28" s="110" t="n">
         <v>752.5</v>
       </c>
-      <c r="I28" s="107" t="n">
+      <c r="I28" s="111" t="n">
         <v>2.772</v>
       </c>
     </row>
-    <row r="29" ht="27" customHeight="1" s="83">
-      <c r="A29" s="110" t="n"/>
-      <c r="B29" s="106" t="inlineStr">
+    <row r="29" ht="27" customHeight="1" s="78">
+      <c r="A29" s="113" t="n"/>
+      <c r="B29" s="108" t="inlineStr">
         <is>
           <t>LEATHER (HS.CODE: 4107.12.00)</t>
         </is>
       </c>
-      <c r="C29" s="103" t="n"/>
-      <c r="D29" s="111" t="n"/>
-      <c r="E29" s="107" t="n"/>
-      <c r="F29" s="107" t="n"/>
-      <c r="G29" s="107" t="n"/>
-      <c r="H29" s="107" t="n"/>
-      <c r="I29" s="107" t="n"/>
-    </row>
-    <row r="30" ht="27" customHeight="1" s="83">
-      <c r="A30" s="112" t="n"/>
-      <c r="B30" s="112" t="inlineStr">
+      <c r="C29" s="106" t="n"/>
+      <c r="D29" s="114" t="n"/>
+      <c r="E29" s="109" t="n"/>
+      <c r="F29" s="110" t="n"/>
+      <c r="G29" s="110" t="n"/>
+      <c r="H29" s="110" t="n"/>
+      <c r="I29" s="111" t="n"/>
+    </row>
+    <row r="30" ht="27" customHeight="1" s="78">
+      <c r="A30" s="115" t="n"/>
+      <c r="B30" s="115" t="inlineStr">
         <is>
           <t>TOTAL OF:</t>
         </is>
       </c>
-      <c r="C30" s="112" t="inlineStr">
+      <c r="C30" s="115" t="inlineStr">
         <is>
           <t>7 PALLETS</t>
         </is>
       </c>
-      <c r="D30" s="112" t="n"/>
-      <c r="E30" s="113">
+      <c r="D30" s="115" t="n"/>
+      <c r="E30" s="116">
         <f>SUM(E21:E28)</f>
         <v/>
       </c>
-      <c r="F30" s="114">
+      <c r="F30" s="117">
         <f>SUM(F21:F28)</f>
         <v/>
       </c>
-      <c r="G30" s="114">
+      <c r="G30" s="117">
         <f>SUM(G21:G28)</f>
         <v/>
       </c>
-      <c r="H30" s="114">
+      <c r="H30" s="117">
         <f>SUM(H21:H28)</f>
         <v/>
       </c>
-      <c r="I30" s="115">
+      <c r="I30" s="118">
         <f>SUM(I21:I28)</f>
         <v/>
       </c>
     </row>
-    <row r="31" ht="27" customHeight="1" s="83"/>
-    <row r="32" ht="27" customHeight="1" s="83">
-      <c r="A32" s="102" t="inlineStr">
+    <row r="31" ht="27" customHeight="1" s="78"/>
+    <row r="32" ht="27" customHeight="1" s="78">
+      <c r="A32" s="105" t="inlineStr">
         <is>
           <t>Mark &amp; Nº</t>
         </is>
       </c>
-      <c r="B32" s="102" t="inlineStr">
+      <c r="B32" s="105" t="inlineStr">
         <is>
           <t>P.O Nº</t>
         </is>
       </c>
-      <c r="C32" s="102" t="inlineStr">
+      <c r="C32" s="105" t="inlineStr">
         <is>
           <t>ITEM Nº</t>
         </is>
       </c>
-      <c r="D32" s="102" t="inlineStr">
+      <c r="D32" s="105" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="E32" s="102" t="inlineStr">
+      <c r="E32" s="105" t="inlineStr">
         <is>
           <t>Quantity</t>
         </is>
       </c>
-      <c r="F32" s="103" t="n"/>
-      <c r="G32" s="102" t="inlineStr">
+      <c r="F32" s="106" t="n"/>
+      <c r="G32" s="105" t="inlineStr">
         <is>
           <t>G.W (kgs)</t>
         </is>
       </c>
-      <c r="H32" s="102" t="inlineStr">
+      <c r="H32" s="105" t="inlineStr">
         <is>
           <t>N.W (kgs)</t>
         </is>
       </c>
-      <c r="I32" s="102" t="inlineStr">
+      <c r="I32" s="105" t="inlineStr">
         <is>
           <t>CBM</t>
         </is>
       </c>
     </row>
-    <row r="33" ht="27" customHeight="1" s="83">
-      <c r="A33" s="104" t="n"/>
-      <c r="B33" s="104" t="n"/>
-      <c r="C33" s="104" t="n"/>
-      <c r="D33" s="104" t="n"/>
-      <c r="E33" s="102" t="inlineStr">
+    <row r="33" ht="27" customHeight="1" s="78">
+      <c r="A33" s="99" t="n"/>
+      <c r="B33" s="99" t="n"/>
+      <c r="C33" s="99" t="n"/>
+      <c r="D33" s="99" t="n"/>
+      <c r="E33" s="105" t="inlineStr">
         <is>
           <t>PCS</t>
         </is>
       </c>
-      <c r="F33" s="102" t="inlineStr">
+      <c r="F33" s="105" t="inlineStr">
         <is>
           <t>SF</t>
         </is>
       </c>
-      <c r="G33" s="104" t="n"/>
-      <c r="H33" s="104" t="n"/>
-      <c r="I33" s="104" t="n"/>
-    </row>
-    <row r="34" ht="27" customHeight="1" s="83">
-      <c r="A34" s="105" t="inlineStr">
+      <c r="G33" s="99" t="n"/>
+      <c r="H33" s="99" t="n"/>
+      <c r="I33" s="99" t="n"/>
+    </row>
+    <row r="34" ht="27" customHeight="1" s="78">
+      <c r="A34" s="107" t="inlineStr">
         <is>
           <t>VENDOR#:</t>
         </is>
       </c>
-      <c r="B34" s="106" t="inlineStr">
+      <c r="B34" s="108" t="inlineStr">
         <is>
           <t>GYOJY_M25371</t>
         </is>
       </c>
-      <c r="C34" s="106" t="inlineStr">
+      <c r="C34" s="108" t="inlineStr">
         <is>
           <t>Nick Dove</t>
         </is>
       </c>
-      <c r="D34" s="106" t="inlineStr">
-        <is>
-          <t>COW LEATHER</t>
-        </is>
-      </c>
-      <c r="E34" s="107" t="n">
+      <c r="D34" s="108" t="inlineStr">
+        <is>
+          <t>COW LEATHER
+DA BÒ THUỘC</t>
+        </is>
+      </c>
+      <c r="E34" s="109" t="n">
         <v>225</v>
       </c>
-      <c r="F34" s="107" t="n">
+      <c r="F34" s="110" t="n">
         <v>10166.7</v>
       </c>
-      <c r="G34" s="107" t="n">
+      <c r="G34" s="110" t="n">
         <v>805.5</v>
       </c>
-      <c r="H34" s="107" t="n">
+      <c r="H34" s="110" t="n">
         <v>760.5</v>
       </c>
-      <c r="I34" s="107" t="n">
+      <c r="I34" s="111" t="n">
         <v>2.4948</v>
       </c>
     </row>
-    <row r="35" ht="27" customHeight="1" s="83">
-      <c r="A35" s="108" t="inlineStr">
+    <row r="35" ht="27" customHeight="1" s="78">
+      <c r="A35" s="112" t="inlineStr">
         <is>
           <t>Des: COW LEATHER</t>
         </is>
       </c>
-      <c r="B35" s="106" t="inlineStr">
+      <c r="B35" s="108" t="inlineStr">
         <is>
           <t>GYOJY_M25371</t>
         </is>
       </c>
-      <c r="C35" s="106" t="inlineStr">
+      <c r="C35" s="108" t="inlineStr">
         <is>
           <t>Nick Dove</t>
         </is>
       </c>
-      <c r="D35" s="109" t="n"/>
-      <c r="E35" s="107" t="n">
+      <c r="D35" s="98" t="n"/>
+      <c r="E35" s="109" t="n">
         <v>225</v>
       </c>
-      <c r="F35" s="107" t="n">
+      <c r="F35" s="110" t="n">
         <v>10363.9</v>
       </c>
-      <c r="G35" s="107" t="n">
+      <c r="G35" s="110" t="n">
         <v>818.5</v>
       </c>
-      <c r="H35" s="107" t="n">
+      <c r="H35" s="110" t="n">
         <v>773.5</v>
       </c>
-      <c r="I35" s="107" t="n">
+      <c r="I35" s="111" t="n">
         <v>2.5344</v>
       </c>
     </row>
-    <row r="36" ht="27" customHeight="1" s="83">
-      <c r="A36" s="108" t="inlineStr">
+    <row r="36" ht="27" customHeight="1" s="78">
+      <c r="A36" s="112" t="inlineStr">
         <is>
           <t>Case Qty:</t>
         </is>
       </c>
-      <c r="B36" s="106" t="inlineStr">
+      <c r="B36" s="108" t="inlineStr">
         <is>
           <t>GYOJY_M25371</t>
         </is>
       </c>
-      <c r="C36" s="106" t="inlineStr">
+      <c r="C36" s="108" t="inlineStr">
         <is>
           <t>Nick Dove</t>
         </is>
       </c>
-      <c r="D36" s="109" t="n"/>
-      <c r="E36" s="107" t="n">
+      <c r="D36" s="98" t="n"/>
+      <c r="E36" s="109" t="n">
         <v>220</v>
       </c>
-      <c r="F36" s="107" t="n">
+      <c r="F36" s="110" t="n">
         <v>10090.5</v>
       </c>
-      <c r="G36" s="107" t="n">
+      <c r="G36" s="110" t="n">
         <v>809</v>
       </c>
-      <c r="H36" s="107" t="n">
+      <c r="H36" s="110" t="n">
         <v>764</v>
       </c>
-      <c r="I36" s="107" t="n">
+      <c r="I36" s="111" t="n">
         <v>2.6136</v>
       </c>
     </row>
-    <row r="37" ht="27" customHeight="1" s="83">
-      <c r="A37" s="108" t="inlineStr">
+    <row r="37" ht="27" customHeight="1" s="78">
+      <c r="A37" s="112" t="inlineStr">
         <is>
           <t>MADE IN CAMBODIA</t>
         </is>
       </c>
-      <c r="B37" s="106" t="inlineStr">
+      <c r="B37" s="108" t="inlineStr">
         <is>
           <t>GYOJY_M25371</t>
         </is>
       </c>
-      <c r="C37" s="106" t="inlineStr">
+      <c r="C37" s="108" t="inlineStr">
         <is>
           <t>Nick Dove</t>
         </is>
       </c>
-      <c r="D37" s="109" t="n"/>
-      <c r="E37" s="107" t="n">
+      <c r="D37" s="98" t="n"/>
+      <c r="E37" s="109" t="n">
         <v>194</v>
       </c>
-      <c r="F37" s="107" t="n">
+      <c r="F37" s="110" t="n">
         <v>8956.4</v>
       </c>
-      <c r="G37" s="107" t="n">
+      <c r="G37" s="110" t="n">
         <v>711.5</v>
       </c>
-      <c r="H37" s="107" t="n">
+      <c r="H37" s="110" t="n">
         <v>666.5</v>
       </c>
-      <c r="I37" s="107" t="n">
+      <c r="I37" s="111" t="n">
         <v>2.3364</v>
       </c>
     </row>
-    <row r="38" ht="27" customHeight="1" s="83">
-      <c r="A38" s="108" t="n"/>
-      <c r="B38" s="106" t="inlineStr">
+    <row r="38" ht="27" customHeight="1" s="78">
+      <c r="A38" s="112" t="n"/>
+      <c r="B38" s="108" t="inlineStr">
         <is>
           <t>GYOJY_M25371</t>
         </is>
       </c>
-      <c r="C38" s="106" t="inlineStr">
+      <c r="C38" s="108" t="inlineStr">
         <is>
           <t>Nick Dove</t>
         </is>
       </c>
-      <c r="D38" s="109" t="n"/>
-      <c r="E38" s="107" t="n">
+      <c r="D38" s="98" t="n"/>
+      <c r="E38" s="109" t="n">
         <v>220</v>
       </c>
-      <c r="F38" s="107" t="n">
+      <c r="F38" s="110" t="n">
         <v>10072.8</v>
       </c>
-      <c r="G38" s="107" t="n">
+      <c r="G38" s="110" t="n">
         <v>789.5</v>
       </c>
-      <c r="H38" s="107" t="n">
+      <c r="H38" s="110" t="n">
         <v>744.5</v>
       </c>
-      <c r="I38" s="107" t="n">
+      <c r="I38" s="111" t="n">
         <v>2.2968</v>
       </c>
     </row>
-    <row r="39" ht="27" customHeight="1" s="83">
-      <c r="A39" s="108" t="n"/>
-      <c r="B39" s="106" t="inlineStr">
+    <row r="39" ht="27" customHeight="1" s="78">
+      <c r="A39" s="112" t="n"/>
+      <c r="B39" s="108" t="inlineStr">
         <is>
           <t>GYOJY_M25371</t>
         </is>
       </c>
-      <c r="C39" s="106" t="inlineStr">
+      <c r="C39" s="108" t="inlineStr">
         <is>
           <t>Nick Dove</t>
         </is>
       </c>
-      <c r="D39" s="109" t="n"/>
-      <c r="E39" s="107" t="n">
+      <c r="D39" s="98" t="n"/>
+      <c r="E39" s="109" t="n">
         <v>255</v>
       </c>
-      <c r="F39" s="107" t="n">
+      <c r="F39" s="110" t="n">
         <v>11907.9</v>
       </c>
-      <c r="G39" s="107" t="n">
+      <c r="G39" s="110" t="n">
         <v>939</v>
       </c>
-      <c r="H39" s="107" t="n">
+      <c r="H39" s="110" t="n">
         <v>894</v>
       </c>
-      <c r="I39" s="107" t="n">
+      <c r="I39" s="111" t="n">
         <v>2.772</v>
       </c>
     </row>
-    <row r="40" ht="27" customHeight="1" s="83">
-      <c r="A40" s="108" t="n"/>
-      <c r="B40" s="106" t="inlineStr">
+    <row r="40" ht="27" customHeight="1" s="78">
+      <c r="A40" s="112" t="n"/>
+      <c r="B40" s="108" t="inlineStr">
         <is>
           <t>GYOJY_M25371</t>
         </is>
       </c>
-      <c r="C40" s="106" t="inlineStr">
+      <c r="C40" s="108" t="inlineStr">
         <is>
           <t>Nick Dove</t>
         </is>
       </c>
-      <c r="D40" s="109" t="n"/>
-      <c r="E40" s="107" t="n">
+      <c r="D40" s="98" t="n"/>
+      <c r="E40" s="109" t="n">
         <v>245</v>
       </c>
-      <c r="F40" s="107" t="n">
+      <c r="F40" s="110" t="n">
         <v>11152.3</v>
       </c>
-      <c r="G40" s="107" t="n">
+      <c r="G40" s="110" t="n">
         <v>879.7278</v>
       </c>
-      <c r="H40" s="107" t="n">
+      <c r="H40" s="110" t="n">
         <v>835.2722</v>
       </c>
-      <c r="I40" s="107" t="n">
+      <c r="I40" s="111" t="n">
         <v>2.5037</v>
       </c>
     </row>
-    <row r="41" ht="27" customHeight="1" s="83">
-      <c r="A41" s="108" t="n"/>
-      <c r="B41" s="106" t="inlineStr">
+    <row r="41" ht="27" customHeight="1" s="78">
+      <c r="A41" s="112" t="n"/>
+      <c r="B41" s="108" t="inlineStr">
         <is>
           <t>GYOJY_M25371</t>
         </is>
       </c>
-      <c r="C41" s="106" t="inlineStr">
+      <c r="C41" s="108" t="inlineStr">
         <is>
           <t>Nick Dove</t>
         </is>
       </c>
-      <c r="D41" s="109" t="n"/>
-      <c r="E41" s="107" t="n">
+      <c r="D41" s="98" t="n"/>
+      <c r="E41" s="109" t="n">
         <v>3</v>
       </c>
-      <c r="F41" s="107" t="n">
+      <c r="F41" s="110" t="n">
         <v>113.7</v>
       </c>
-      <c r="G41" s="107" t="n">
+      <c r="G41" s="110" t="n">
         <v>10.7722</v>
       </c>
-      <c r="H41" s="107" t="n">
+      <c r="H41" s="110" t="n">
         <v>10.2278</v>
       </c>
-      <c r="I41" s="107" t="n">
+      <c r="I41" s="111" t="n">
         <v>0.0307</v>
       </c>
     </row>
-    <row r="42" ht="27" customHeight="1" s="83">
-      <c r="A42" s="108" t="n"/>
-      <c r="B42" s="106" t="inlineStr">
+    <row r="42" ht="27" customHeight="1" s="78">
+      <c r="A42" s="112" t="n"/>
+      <c r="B42" s="108" t="inlineStr">
         <is>
           <t>GYOJY_M25371</t>
         </is>
       </c>
-      <c r="C42" s="106" t="inlineStr">
+      <c r="C42" s="108" t="inlineStr">
         <is>
           <t>Nick Dove</t>
         </is>
       </c>
-      <c r="D42" s="109" t="n"/>
-      <c r="E42" s="107" t="n">
+      <c r="D42" s="98" t="n"/>
+      <c r="E42" s="109" t="n">
         <v>232</v>
       </c>
-      <c r="F42" s="107" t="n">
+      <c r="F42" s="110" t="n">
         <v>11138.3</v>
       </c>
-      <c r="G42" s="107" t="n">
+      <c r="G42" s="110" t="n">
         <v>872.5</v>
       </c>
-      <c r="H42" s="107" t="n">
+      <c r="H42" s="110" t="n">
         <v>827.5</v>
       </c>
-      <c r="I42" s="107" t="n">
+      <c r="I42" s="111" t="n">
         <v>2.5344</v>
       </c>
     </row>
-    <row r="43" ht="27" customHeight="1" s="83">
-      <c r="A43" s="108" t="n"/>
-      <c r="B43" s="106" t="inlineStr">
+    <row r="43" ht="27" customHeight="1" s="78">
+      <c r="A43" s="112" t="n"/>
+      <c r="B43" s="108" t="inlineStr">
         <is>
           <t>GYOJY_M25371</t>
         </is>
       </c>
-      <c r="C43" s="106" t="inlineStr">
+      <c r="C43" s="108" t="inlineStr">
         <is>
           <t>Nick Dove</t>
         </is>
       </c>
-      <c r="D43" s="109" t="n"/>
-      <c r="E43" s="107" t="n">
+      <c r="D43" s="98" t="n"/>
+      <c r="E43" s="109" t="n">
         <v>210</v>
       </c>
-      <c r="F43" s="107" t="n">
+      <c r="F43" s="110" t="n">
         <v>9969.5</v>
       </c>
-      <c r="G43" s="107" t="n">
+      <c r="G43" s="110" t="n">
         <v>786.5</v>
       </c>
-      <c r="H43" s="107" t="n">
+      <c r="H43" s="110" t="n">
         <v>741.5</v>
       </c>
-      <c r="I43" s="107" t="n">
+      <c r="I43" s="111" t="n">
         <v>2.376</v>
       </c>
     </row>
-    <row r="44" ht="27" customHeight="1" s="83">
-      <c r="A44" s="108" t="n"/>
-      <c r="B44" s="106" t="inlineStr">
+    <row r="44" ht="27" customHeight="1" s="78">
+      <c r="A44" s="112" t="n"/>
+      <c r="B44" s="108" t="inlineStr">
         <is>
           <t>GYOJY_M25371</t>
         </is>
       </c>
-      <c r="C44" s="106" t="inlineStr">
+      <c r="C44" s="108" t="inlineStr">
         <is>
           <t>Nick Dove</t>
         </is>
       </c>
-      <c r="D44" s="109" t="n"/>
-      <c r="E44" s="107" t="n">
+      <c r="D44" s="98" t="n"/>
+      <c r="E44" s="109" t="n">
         <v>235</v>
       </c>
-      <c r="F44" s="107" t="n">
+      <c r="F44" s="110" t="n">
         <v>11202.6</v>
       </c>
-      <c r="G44" s="107" t="n">
+      <c r="G44" s="110" t="n">
         <v>884</v>
       </c>
-      <c r="H44" s="107" t="n">
+      <c r="H44" s="110" t="n">
         <v>839</v>
       </c>
-      <c r="I44" s="107" t="n">
+      <c r="I44" s="111" t="n">
         <v>2.376</v>
       </c>
     </row>
-    <row r="45" ht="27" customHeight="1" s="83">
-      <c r="A45" s="108" t="n"/>
-      <c r="B45" s="106" t="inlineStr">
+    <row r="45" ht="27" customHeight="1" s="78">
+      <c r="A45" s="112" t="n"/>
+      <c r="B45" s="108" t="inlineStr">
         <is>
           <t>GYOJY_M25371</t>
         </is>
       </c>
-      <c r="C45" s="106" t="inlineStr">
+      <c r="C45" s="108" t="inlineStr">
         <is>
           <t>Nick Dove</t>
         </is>
       </c>
-      <c r="D45" s="104" t="n"/>
-      <c r="E45" s="107" t="n">
+      <c r="D45" s="99" t="n"/>
+      <c r="E45" s="109" t="n">
         <v>235</v>
       </c>
-      <c r="F45" s="107" t="n">
+      <c r="F45" s="110" t="n">
         <v>11138.7</v>
       </c>
-      <c r="G45" s="107" t="n">
+      <c r="G45" s="110" t="n">
         <v>878</v>
       </c>
-      <c r="H45" s="107" t="n">
+      <c r="H45" s="110" t="n">
         <v>833</v>
       </c>
-      <c r="I45" s="107" t="n">
+      <c r="I45" s="111" t="n">
         <v>2.376</v>
       </c>
     </row>
-    <row r="46" ht="27" customHeight="1" s="83">
-      <c r="A46" s="110" t="n"/>
-      <c r="B46" s="106" t="inlineStr">
+    <row r="46" ht="27" customHeight="1" s="78">
+      <c r="A46" s="113" t="n"/>
+      <c r="B46" s="108" t="inlineStr">
         <is>
           <t>LEATHER (HS.CODE: 4107.12.00)</t>
         </is>
       </c>
-      <c r="C46" s="103" t="n"/>
-      <c r="D46" s="111" t="n"/>
-      <c r="E46" s="107" t="n"/>
-      <c r="F46" s="107" t="n"/>
-      <c r="G46" s="107" t="n"/>
-      <c r="H46" s="107" t="n"/>
-      <c r="I46" s="107" t="n"/>
-    </row>
-    <row r="47" ht="27" customHeight="1" s="83">
-      <c r="A47" s="112" t="n"/>
-      <c r="B47" s="112" t="inlineStr">
+      <c r="C46" s="106" t="n"/>
+      <c r="D46" s="114" t="n"/>
+      <c r="E46" s="109" t="n"/>
+      <c r="F46" s="110" t="n"/>
+      <c r="G46" s="110" t="n"/>
+      <c r="H46" s="110" t="n"/>
+      <c r="I46" s="111" t="n"/>
+    </row>
+    <row r="47" ht="27" customHeight="1" s="78">
+      <c r="A47" s="115" t="n"/>
+      <c r="B47" s="115" t="inlineStr">
         <is>
           <t>TOTAL OF:</t>
         </is>
       </c>
-      <c r="C47" s="112" t="inlineStr">
+      <c r="C47" s="115" t="inlineStr">
         <is>
           <t>11 PALLETS</t>
         </is>
       </c>
-      <c r="D47" s="112" t="n"/>
-      <c r="E47" s="113">
+      <c r="D47" s="115" t="n"/>
+      <c r="E47" s="116">
         <f>SUM(E34:E45)</f>
         <v/>
       </c>
-      <c r="F47" s="114">
+      <c r="F47" s="117">
         <f>SUM(F34:F45)</f>
         <v/>
       </c>
-      <c r="G47" s="114">
+      <c r="G47" s="117">
         <f>SUM(G34:G45)</f>
         <v/>
       </c>
-      <c r="H47" s="114">
+      <c r="H47" s="117">
         <f>SUM(H34:H45)</f>
         <v/>
       </c>
-      <c r="I47" s="115">
+      <c r="I47" s="118">
         <f>SUM(I34:I45)</f>
         <v/>
       </c>
     </row>
-    <row r="48" ht="27" customHeight="1" s="83"/>
-    <row r="49" ht="27" customHeight="1" s="83">
-      <c r="A49" s="102" t="inlineStr">
+    <row r="48" ht="27" customHeight="1" s="78"/>
+    <row r="49" ht="27" customHeight="1" s="78">
+      <c r="A49" s="105" t="inlineStr">
         <is>
           <t>Mark &amp; Nº</t>
         </is>
       </c>
-      <c r="B49" s="102" t="inlineStr">
+      <c r="B49" s="105" t="inlineStr">
         <is>
           <t>P.O Nº</t>
         </is>
       </c>
-      <c r="C49" s="102" t="inlineStr">
+      <c r="C49" s="105" t="inlineStr">
         <is>
           <t>ITEM Nº</t>
         </is>
       </c>
-      <c r="D49" s="102" t="inlineStr">
+      <c r="D49" s="105" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="E49" s="102" t="inlineStr">
+      <c r="E49" s="105" t="inlineStr">
         <is>
           <t>Quantity</t>
         </is>
       </c>
-      <c r="F49" s="103" t="n"/>
-      <c r="G49" s="102" t="inlineStr">
+      <c r="F49" s="106" t="n"/>
+      <c r="G49" s="105" t="inlineStr">
         <is>
           <t>G.W (kgs)</t>
         </is>
       </c>
-      <c r="H49" s="102" t="inlineStr">
+      <c r="H49" s="105" t="inlineStr">
         <is>
           <t>N.W (kgs)</t>
         </is>
       </c>
-      <c r="I49" s="102" t="inlineStr">
+      <c r="I49" s="105" t="inlineStr">
         <is>
           <t>CBM</t>
         </is>
       </c>
     </row>
-    <row r="50" ht="27" customHeight="1" s="83">
-      <c r="A50" s="104" t="n"/>
-      <c r="B50" s="104" t="n"/>
-      <c r="C50" s="104" t="n"/>
-      <c r="D50" s="104" t="n"/>
-      <c r="E50" s="102" t="inlineStr">
+    <row r="50" ht="27" customHeight="1" s="78">
+      <c r="A50" s="99" t="n"/>
+      <c r="B50" s="99" t="n"/>
+      <c r="C50" s="99" t="n"/>
+      <c r="D50" s="99" t="n"/>
+      <c r="E50" s="105" t="inlineStr">
         <is>
           <t>PCS</t>
         </is>
       </c>
-      <c r="F50" s="102" t="inlineStr">
+      <c r="F50" s="105" t="inlineStr">
         <is>
           <t>SF</t>
         </is>
       </c>
-      <c r="G50" s="104" t="n"/>
-      <c r="H50" s="104" t="n"/>
-      <c r="I50" s="104" t="n"/>
-    </row>
-    <row r="51" ht="27" customHeight="1" s="83">
-      <c r="A51" s="105" t="inlineStr">
+      <c r="G50" s="99" t="n"/>
+      <c r="H50" s="99" t="n"/>
+      <c r="I50" s="99" t="n"/>
+    </row>
+    <row r="51" ht="27" customHeight="1" s="78">
+      <c r="A51" s="107" t="inlineStr">
         <is>
           <t>VENDOR#:</t>
         </is>
       </c>
-      <c r="B51" s="106" t="inlineStr">
+      <c r="B51" s="108" t="inlineStr">
         <is>
           <t>GYOJY_M25374</t>
         </is>
       </c>
-      <c r="C51" s="106" t="inlineStr">
+      <c r="C51" s="108" t="inlineStr">
         <is>
           <t>Nick Dove</t>
         </is>
       </c>
-      <c r="D51" s="106" t="inlineStr">
-        <is>
-          <t>COW LEATHER</t>
-        </is>
-      </c>
-      <c r="E51" s="107" t="n">
+      <c r="D51" s="108" t="inlineStr">
+        <is>
+          <t>COW LEATHER
+DA BÒ THUỘC</t>
+        </is>
+      </c>
+      <c r="E51" s="109" t="n">
         <v>240</v>
       </c>
-      <c r="F51" s="107" t="n">
+      <c r="F51" s="110" t="n">
         <v>11235.9</v>
       </c>
-      <c r="G51" s="107" t="n">
+      <c r="G51" s="110" t="n">
         <v>874.5</v>
       </c>
-      <c r="H51" s="107" t="n">
+      <c r="H51" s="110" t="n">
         <v>829.5</v>
       </c>
-      <c r="I51" s="107" t="n">
+      <c r="I51" s="111" t="n">
         <v>2.772</v>
       </c>
     </row>
-    <row r="52" ht="27" customHeight="1" s="83">
-      <c r="A52" s="108" t="inlineStr">
+    <row r="52" ht="27" customHeight="1" s="78">
+      <c r="A52" s="112" t="inlineStr">
         <is>
           <t>Des: COW LEATHER</t>
         </is>
       </c>
-      <c r="B52" s="106" t="inlineStr">
+      <c r="B52" s="108" t="inlineStr">
         <is>
           <t>GYOJY_M25374</t>
         </is>
       </c>
-      <c r="C52" s="106" t="inlineStr">
+      <c r="C52" s="108" t="inlineStr">
         <is>
           <t>Nick Dove</t>
         </is>
       </c>
-      <c r="D52" s="109" t="n"/>
-      <c r="E52" s="107" t="n">
+      <c r="D52" s="98" t="n"/>
+      <c r="E52" s="109" t="n">
         <v>230</v>
       </c>
-      <c r="F52" s="107" t="n">
+      <c r="F52" s="110" t="n">
         <v>11142</v>
       </c>
-      <c r="G52" s="107" t="n">
+      <c r="G52" s="110" t="n">
         <v>865.5</v>
       </c>
-      <c r="H52" s="107" t="n">
+      <c r="H52" s="110" t="n">
         <v>820.5</v>
       </c>
-      <c r="I52" s="107" t="n">
+      <c r="I52" s="111" t="n">
         <v>2.6136</v>
       </c>
     </row>
-    <row r="53" ht="27" customHeight="1" s="83">
-      <c r="A53" s="108" t="inlineStr">
+    <row r="53" ht="27" customHeight="1" s="78">
+      <c r="A53" s="112" t="inlineStr">
         <is>
           <t>Case Qty:</t>
         </is>
       </c>
-      <c r="B53" s="106" t="inlineStr">
+      <c r="B53" s="108" t="inlineStr">
         <is>
           <t>GYOJY_M25374</t>
         </is>
       </c>
-      <c r="C53" s="106" t="inlineStr">
+      <c r="C53" s="108" t="inlineStr">
         <is>
           <t>Nick Dove</t>
         </is>
       </c>
-      <c r="D53" s="109" t="n"/>
-      <c r="E53" s="107" t="n">
+      <c r="D53" s="98" t="n"/>
+      <c r="E53" s="109" t="n">
         <v>235</v>
       </c>
-      <c r="F53" s="107" t="n">
+      <c r="F53" s="110" t="n">
         <v>11237.6</v>
       </c>
-      <c r="G53" s="107" t="n">
+      <c r="G53" s="110" t="n">
         <v>868.5</v>
       </c>
-      <c r="H53" s="107" t="n">
+      <c r="H53" s="110" t="n">
         <v>823.5</v>
       </c>
-      <c r="I53" s="107" t="n">
+      <c r="I53" s="111" t="n">
         <v>2.574</v>
       </c>
     </row>
-    <row r="54" ht="27" customHeight="1" s="83">
-      <c r="A54" s="108" t="inlineStr">
+    <row r="54" ht="27" customHeight="1" s="78">
+      <c r="A54" s="112" t="inlineStr">
         <is>
           <t>MADE IN CAMBODIA</t>
         </is>
       </c>
-      <c r="B54" s="106" t="inlineStr">
+      <c r="B54" s="108" t="inlineStr">
         <is>
           <t>GYOJY_M25374</t>
         </is>
       </c>
-      <c r="C54" s="106" t="inlineStr">
+      <c r="C54" s="108" t="inlineStr">
         <is>
           <t>Nick Dove</t>
         </is>
       </c>
-      <c r="D54" s="109" t="n"/>
-      <c r="E54" s="107" t="n">
+      <c r="D54" s="98" t="n"/>
+      <c r="E54" s="109" t="n">
         <v>99</v>
       </c>
-      <c r="F54" s="107" t="n">
+      <c r="F54" s="110" t="n">
         <v>4814.5</v>
       </c>
-      <c r="G54" s="107" t="n">
+      <c r="G54" s="110" t="n">
         <v>401.5</v>
       </c>
-      <c r="H54" s="107" t="n">
+      <c r="H54" s="110" t="n">
         <v>360.25</v>
       </c>
-      <c r="I54" s="107" t="n">
+      <c r="I54" s="111" t="n">
         <v>2.178</v>
       </c>
     </row>
-    <row r="55" ht="27" customHeight="1" s="83">
-      <c r="A55" s="108" t="n"/>
-      <c r="B55" s="106" t="inlineStr">
+    <row r="55" ht="27" customHeight="1" s="78">
+      <c r="A55" s="112" t="n"/>
+      <c r="B55" s="108" t="inlineStr">
         <is>
           <t>GYOJY_M25374</t>
         </is>
       </c>
-      <c r="C55" s="106" t="inlineStr">
+      <c r="C55" s="108" t="inlineStr">
         <is>
           <t>Nick Dove</t>
         </is>
       </c>
-      <c r="D55" s="104" t="n"/>
-      <c r="E55" s="107" t="n">
+      <c r="D55" s="99" t="n"/>
+      <c r="E55" s="109" t="n">
         <v>9</v>
       </c>
-      <c r="F55" s="107" t="n">
+      <c r="F55" s="110" t="n">
         <v>411.3</v>
       </c>
-      <c r="G55" s="107" t="n">
+      <c r="G55" s="110" t="n">
         <v>36.5</v>
       </c>
-      <c r="H55" s="107" t="n">
+      <c r="H55" s="110" t="n">
         <v>32.75</v>
       </c>
-      <c r="I55" s="107" t="n">
+      <c r="I55" s="111" t="n">
         <v>0.198</v>
       </c>
     </row>
-    <row r="56" ht="27" customHeight="1" s="83">
-      <c r="A56" s="110" t="n"/>
-      <c r="B56" s="106" t="inlineStr">
+    <row r="56" ht="27" customHeight="1" s="78">
+      <c r="A56" s="113" t="n"/>
+      <c r="B56" s="108" t="inlineStr">
         <is>
           <t>LEATHER (HS.CODE: 4107.12.00)</t>
         </is>
       </c>
-      <c r="C56" s="103" t="n"/>
-      <c r="D56" s="111" t="n"/>
-      <c r="E56" s="107" t="n"/>
-      <c r="F56" s="107" t="n"/>
-      <c r="G56" s="107" t="n"/>
-      <c r="H56" s="107" t="n"/>
-      <c r="I56" s="107" t="n"/>
-    </row>
-    <row r="57" ht="27" customHeight="1" s="83">
-      <c r="A57" s="112" t="n"/>
-      <c r="B57" s="112" t="inlineStr">
+      <c r="C56" s="106" t="n"/>
+      <c r="D56" s="114" t="n"/>
+      <c r="E56" s="109" t="n"/>
+      <c r="F56" s="110" t="n"/>
+      <c r="G56" s="110" t="n"/>
+      <c r="H56" s="110" t="n"/>
+      <c r="I56" s="111" t="n"/>
+    </row>
+    <row r="57" ht="27" customHeight="1" s="78">
+      <c r="A57" s="115" t="n"/>
+      <c r="B57" s="115" t="inlineStr">
         <is>
           <t>TOTAL OF:</t>
         </is>
       </c>
-      <c r="C57" s="112" t="inlineStr">
+      <c r="C57" s="115" t="inlineStr">
         <is>
           <t>4 PALLETS</t>
         </is>
       </c>
-      <c r="D57" s="112" t="n"/>
-      <c r="E57" s="113">
+      <c r="D57" s="115" t="n"/>
+      <c r="E57" s="116">
         <f>SUM(E51:E55)</f>
         <v/>
       </c>
-      <c r="F57" s="114">
+      <c r="F57" s="117">
         <f>SUM(F51:F55)</f>
         <v/>
       </c>
-      <c r="G57" s="114">
+      <c r="G57" s="117">
         <f>SUM(G51:G55)</f>
         <v/>
       </c>
-      <c r="H57" s="114">
+      <c r="H57" s="117">
         <f>SUM(H51:H55)</f>
         <v/>
       </c>
-      <c r="I57" s="115">
+      <c r="I57" s="118">
         <f>SUM(I51:I55)</f>
         <v/>
       </c>
     </row>
-    <row r="58" ht="27" customHeight="1" s="83">
-      <c r="B58" s="116" t="inlineStr">
+    <row r="58" ht="27" customHeight="1" s="78">
+      <c r="B58" s="119" t="inlineStr">
         <is>
           <t>TOTAL OF:</t>
         </is>
       </c>
-      <c r="C58" s="116" t="inlineStr">
+      <c r="C58" s="119" t="inlineStr">
         <is>
           <t>22 PALLETS</t>
         </is>
       </c>
-      <c r="E58" s="117">
+      <c r="E58" s="120">
         <f>SUM(E21:E28,E34:E45,E51:E55)</f>
         <v/>
       </c>
-      <c r="F58" s="117">
+      <c r="F58" s="121">
         <f>SUM(F21:F28,F34:F45,F51:F55)</f>
         <v/>
       </c>
-      <c r="G58" s="117">
+      <c r="G58" s="121">
         <f>SUM(G21:G28,G34:G45,G51:G55)</f>
         <v/>
       </c>
-      <c r="H58" s="117">
+      <c r="H58" s="121">
         <f>SUM(H21:H28,H34:H45,H51:H55)</f>
         <v/>
       </c>
-      <c r="I58" s="117">
+      <c r="I58" s="122">
         <f>SUM(I21:I28,I34:I45,I51:I55)</f>
         <v/>
       </c>
@@ -3455,30 +3508,30 @@
       <c r="G61" s="30" t="n"/>
       <c r="H61" s="30" t="n"/>
       <c r="I61" s="39" t="n"/>
-      <c r="L61" s="82" t="n"/>
-    </row>
-    <row r="62" ht="27" customHeight="1" s="83">
-      <c r="A62" s="85" t="inlineStr">
+      <c r="L61" s="77" t="n"/>
+    </row>
+    <row r="62" ht="27" customHeight="1" s="78">
+      <c r="A62" s="80" t="inlineStr">
         <is>
           <t>Country of Original Cambodia</t>
         </is>
       </c>
-      <c r="D62" s="85" t="n"/>
-      <c r="E62" s="85" t="n"/>
+      <c r="D62" s="80" t="n"/>
+      <c r="E62" s="80" t="n"/>
       <c r="F62" s="31" t="n"/>
       <c r="G62" s="31" t="n"/>
       <c r="H62" s="31" t="n"/>
-      <c r="I62" s="80" t="n"/>
+      <c r="I62" s="86" t="n"/>
       <c r="J62" s="18" t="n"/>
       <c r="K62" s="18" t="n"/>
     </row>
-    <row r="63" ht="27" customHeight="1" s="83">
+    <row r="63" ht="27" customHeight="1" s="78">
       <c r="A63" s="32" t="inlineStr">
         <is>
           <t>Manufacture:</t>
         </is>
       </c>
-      <c r="B63" s="86" t="inlineStr">
+      <c r="B63" s="81" t="inlineStr">
         <is>
           <t>CALIFOR UPHOLSTERY MATERIALS CO., LTD.
 XIN BAVET SEZ, Road No. 316A, Trapeang Bon and Prey Kokir Villages, Prey Kokir Commune, Chantrea District,Svay Rieng Province, Kingdom of Cambodia, Tel: +855   975910636</t>
@@ -3486,10 +3539,10 @@
       </c>
       <c r="J63" s="18" t="n"/>
       <c r="K63" s="18" t="n"/>
-      <c r="L63" s="82" t="n"/>
-    </row>
-    <row r="64" ht="27" customHeight="1" s="83">
-      <c r="A64" s="87" t="inlineStr">
+      <c r="L63" s="77" t="n"/>
+    </row>
+    <row r="64" ht="27" customHeight="1" s="78">
+      <c r="A64" s="82" t="inlineStr">
         <is>
           <t>BENEFICIARY BANK：BANK OF CHINA(HONG KONG)LIMITED PHNOM PENH BRANCH
                                           /BANK OF CHINA PHNOM PENH BRANCH</t>
@@ -3497,7 +3550,7 @@
       </c>
       <c r="J64" s="33" t="n"/>
       <c r="K64" s="33" t="n"/>
-      <c r="L64" s="82" t="n"/>
+      <c r="L64" s="77" t="n"/>
     </row>
     <row r="65">
       <c r="A65" s="33" t="inlineStr">
@@ -3692,47 +3745,7 @@
     <row r="197"/>
     <row r="198"/>
     <row r="199"/>
-    <row r="200" ht="27" customHeight="1" s="83"/>
-    <row r="201"/>
-    <row r="202"/>
-    <row r="203"/>
-    <row r="204"/>
-    <row r="205"/>
-    <row r="206"/>
-    <row r="207"/>
-    <row r="208"/>
-    <row r="209"/>
-    <row r="210"/>
-    <row r="211"/>
-    <row r="212"/>
-    <row r="213"/>
-    <row r="214"/>
-    <row r="215"/>
-    <row r="216"/>
-    <row r="217"/>
-    <row r="218"/>
-    <row r="219"/>
-    <row r="220"/>
-    <row r="221"/>
-    <row r="222"/>
-    <row r="223"/>
-    <row r="224"/>
-    <row r="225"/>
-    <row r="226"/>
-    <row r="227"/>
-    <row r="228"/>
-    <row r="229"/>
-    <row r="230"/>
-    <row r="231"/>
-    <row r="232"/>
-    <row r="233"/>
-    <row r="234"/>
-    <row r="235"/>
-    <row r="236"/>
-    <row r="237"/>
-    <row r="238"/>
-    <row r="239"/>
-    <row r="240"/>
+    <row r="200" ht="27" customHeight="1" s="78"/>
   </sheetData>
   <mergeCells count="46">
     <mergeCell ref="I32:I33"/>
@@ -3800,10 +3813,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P206"/>
+  <dimension ref="A1:N200"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A3" zoomScale="95" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A10" zoomScale="95" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="7.140625" defaultRowHeight="15"/>
@@ -3814,7 +3827,7 @@
     <col width="20.7109375" customWidth="1" style="3" min="4" max="4"/>
     <col width="12.85546875" customWidth="1" style="3" min="5" max="5"/>
     <col width="16.28515625" customWidth="1" style="3" min="6" max="6"/>
-    <col width="24.140625" customWidth="1" style="78" min="7" max="7"/>
+    <col width="24.140625" customWidth="1" style="84" min="7" max="7"/>
     <col width="25.140625" customWidth="1" style="3" min="8" max="8"/>
     <col width="15.5703125" customWidth="1" style="3" min="9" max="9"/>
     <col width="10.28515625" customWidth="1" style="3" min="10" max="10"/>
@@ -3823,61 +3836,61 @@
     <col width="7.140625" customWidth="1" style="3" min="13" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" ht="38.25" customHeight="1" s="83">
-      <c r="A1" s="77" t="inlineStr">
+    <row r="1" ht="38.25" customHeight="1" s="78">
+      <c r="A1" s="83" t="inlineStr">
         <is>
           <t>CALIFOR UPHOLSTERY MATERIALS CO., LTD.</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="24" customHeight="1" s="83">
-      <c r="A2" s="78" t="inlineStr">
+    <row r="2" ht="24" customHeight="1" s="78">
+      <c r="A2" s="84" t="inlineStr">
         <is>
           <t>XIN BAVET SEZ, Road No. 316A, Trapeang Bon and  Prey Kokir  Villages, Prey Kokir  Commune, Chantrea District,</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="17.25" customHeight="1" s="83">
-      <c r="A3" s="78" t="inlineStr">
+    <row r="3" ht="17.25" customHeight="1" s="78">
+      <c r="A3" s="84" t="inlineStr">
         <is>
           <t>Svay Rieng Province, Kingdom of Cambodia.</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="17.25" customHeight="1" s="83">
-      <c r="A4" s="78" t="inlineStr">
+    <row r="4" ht="17.25" customHeight="1" s="78">
+      <c r="A4" s="84" t="inlineStr">
         <is>
           <t>VAT:L001-901903209</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="25.5" customHeight="1" s="83">
-      <c r="A5" s="88" t="inlineStr">
+    <row r="5" ht="25.5" customHeight="1" s="78">
+      <c r="A5" s="91" t="inlineStr">
         <is>
           <t>Tel: +855   975910636</t>
         </is>
       </c>
-      <c r="B5" s="99" t="n"/>
-      <c r="C5" s="99" t="n"/>
-      <c r="D5" s="99" t="n"/>
-      <c r="E5" s="99" t="n"/>
-      <c r="F5" s="99" t="n"/>
-      <c r="G5" s="99" t="n"/>
-    </row>
-    <row r="6" ht="39" customHeight="1" s="83">
-      <c r="A6" s="84" t="inlineStr">
+      <c r="B5" s="102" t="n"/>
+      <c r="C5" s="102" t="n"/>
+      <c r="D5" s="102" t="n"/>
+      <c r="E5" s="102" t="n"/>
+      <c r="F5" s="102" t="n"/>
+      <c r="G5" s="102" t="n"/>
+    </row>
+    <row r="6" ht="39" customHeight="1" s="78">
+      <c r="A6" s="79" t="inlineStr">
         <is>
           <t>INVOICE</t>
         </is>
       </c>
-      <c r="B6" s="100" t="n"/>
-      <c r="C6" s="100" t="n"/>
-      <c r="D6" s="100" t="n"/>
-      <c r="E6" s="100" t="n"/>
-      <c r="F6" s="100" t="n"/>
-      <c r="G6" s="100" t="n"/>
-    </row>
-    <row r="7" ht="14.25" customHeight="1" s="83">
+      <c r="B6" s="103" t="n"/>
+      <c r="C6" s="103" t="n"/>
+      <c r="D6" s="103" t="n"/>
+      <c r="E6" s="103" t="n"/>
+      <c r="F6" s="103" t="n"/>
+      <c r="G6" s="103" t="n"/>
+    </row>
+    <row r="7" ht="14.25" customHeight="1" s="78">
       <c r="F7" s="5" t="inlineStr">
         <is>
           <t>Ref No.:</t>
@@ -3889,7 +3902,7 @@
         </is>
       </c>
     </row>
-    <row r="8" ht="30" customFormat="1" customHeight="1" s="89">
+    <row r="8" ht="30" customFormat="1" customHeight="1" s="88">
       <c r="A8" s="7" t="inlineStr">
         <is>
           <t>EXPORTER:</t>
@@ -3911,8 +3924,8 @@
         <v/>
       </c>
     </row>
-    <row r="9" ht="21" customFormat="1" customHeight="1" s="89">
-      <c r="B9" s="89" t="inlineStr">
+    <row r="9" ht="21" customFormat="1" customHeight="1" s="88">
+      <c r="B9" s="88" t="inlineStr">
         <is>
           <t>XIN BAVET SEZ, Road No. 316A, Trapeang Bon and Prey Kokir Villages,</t>
         </is>
@@ -3922,49 +3935,49 @@
           <t>Date:</t>
         </is>
       </c>
-      <c r="G9" s="118">
+      <c r="G9" s="123">
         <f>'Packing list'!I9</f>
         <v/>
       </c>
     </row>
-    <row r="10" ht="22.5" customFormat="1" customHeight="1" s="89">
-      <c r="B10" s="89" t="inlineStr">
+    <row r="10" ht="22.5" customFormat="1" customHeight="1" s="88">
+      <c r="B10" s="88" t="inlineStr">
         <is>
           <t>Prey Kokir Commune, Chantrea District,Svay Rieng Province, Kingdom of Cambodia</t>
         </is>
       </c>
-      <c r="F10" s="89" t="inlineStr">
+      <c r="F10" s="88" t="inlineStr">
         <is>
           <t>Delivery term:</t>
         </is>
       </c>
-      <c r="G10" s="80" t="inlineStr">
-        <is>
-          <t>FOB BAVET</t>
-        </is>
-      </c>
-    </row>
-    <row r="11" ht="20.25" customFormat="1" customHeight="1" s="89">
-      <c r="B11" s="89" t="inlineStr">
+      <c r="G10" s="86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FCA  BAVET,SVAYRIENG </t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="20.25" customFormat="1" customHeight="1" s="88">
+      <c r="B11" s="88" t="inlineStr">
         <is>
           <t>Tel: +855   975910636</t>
         </is>
       </c>
-      <c r="F11" s="89" t="inlineStr">
+      <c r="F11" s="88" t="inlineStr">
         <is>
           <t>Payment term:</t>
         </is>
       </c>
-      <c r="G11" s="80" t="inlineStr">
+      <c r="G11" s="86" t="inlineStr">
         <is>
           <t>T/T</t>
         </is>
       </c>
     </row>
-    <row r="12" ht="15.75" customFormat="1" customHeight="1" s="89">
-      <c r="G12" s="80" t="n"/>
-    </row>
-    <row r="13" ht="25.5" customFormat="1" customHeight="1" s="89">
+    <row r="12" ht="15.75" customFormat="1" customHeight="1" s="88">
+      <c r="G12" s="86" t="n"/>
+    </row>
+    <row r="13" ht="25.5" customFormat="1" customHeight="1" s="88">
       <c r="A13" s="7" t="inlineStr">
         <is>
           <t>CONSIGNEE :</t>
@@ -3975,54 +3988,54 @@
           <t>OUCANYON FURNITURE ( VIETNAM) CO.,LTD.</t>
         </is>
       </c>
-      <c r="G13" s="80" t="n"/>
-    </row>
-    <row r="14" ht="25.5" customFormat="1" customHeight="1" s="89">
+      <c r="G13" s="86" t="n"/>
+    </row>
+    <row r="14" ht="25.5" customFormat="1" customHeight="1" s="88">
       <c r="B14" s="12" t="inlineStr">
         <is>
           <t>NO.3A,2A STREET, VIETNAM - SINGAPORE INDUSTRIAL PARK, TINH PHONG COMMUNE, SON TINH DISTRICT,</t>
         </is>
       </c>
-      <c r="F14" s="80" t="n"/>
-      <c r="G14" s="80" t="n"/>
-    </row>
-    <row r="15" ht="25.5" customFormat="1" customHeight="1" s="89">
-      <c r="B15" s="89" t="inlineStr">
+      <c r="F14" s="86" t="n"/>
+      <c r="G14" s="86" t="n"/>
+    </row>
+    <row r="15" ht="25.5" customFormat="1" customHeight="1" s="88">
+      <c r="B15" s="88" t="inlineStr">
         <is>
           <t>QUANG NGAI PROVINCE, VIETNAM</t>
         </is>
       </c>
-      <c r="G15" s="80" t="n"/>
-    </row>
-    <row r="16" ht="25.5" customFormat="1" customHeight="1" s="89">
-      <c r="B16" s="89" t="inlineStr">
+      <c r="G15" s="86" t="n"/>
+    </row>
+    <row r="16" ht="25.5" customFormat="1" customHeight="1" s="88">
+      <c r="B16" s="88" t="inlineStr">
         <is>
           <t>CONTACT: LEOHUNG TEL: 0084-0388087768 ，EMAIL: leohung.happyfur@ounoya.com</t>
         </is>
       </c>
-      <c r="F16" s="80" t="n"/>
-      <c r="G16" s="80" t="n"/>
-    </row>
-    <row r="17" ht="27.75" customFormat="1" customHeight="1" s="89">
+      <c r="F16" s="86" t="n"/>
+      <c r="G16" s="86" t="n"/>
+    </row>
+    <row r="17" ht="27.75" customFormat="1" customHeight="1" s="88">
       <c r="A17" s="13" t="inlineStr">
         <is>
           <t>SHIP:</t>
         </is>
       </c>
-      <c r="B17" s="89" t="inlineStr">
+      <c r="B17" s="88" t="inlineStr">
         <is>
           <t>BY TRUCK FROM BAVET, SVAY RIENG, CAMBODIA TO  QUANG NGAI PROVINCE, VIETNAM</t>
         </is>
       </c>
-      <c r="F17" s="80" t="n"/>
-      <c r="G17" s="80" t="n"/>
-    </row>
-    <row r="18" ht="27.75" customFormat="1" customHeight="1" s="89">
+      <c r="F17" s="86" t="n"/>
+      <c r="G17" s="86" t="n"/>
+    </row>
+    <row r="18" ht="27.75" customFormat="1" customHeight="1" s="88">
       <c r="A18" s="13" t="n"/>
-      <c r="F18" s="80" t="n"/>
-      <c r="G18" s="80" t="n"/>
-    </row>
-    <row r="19" ht="30" customFormat="1" customHeight="1" s="89">
+      <c r="F18" s="86" t="n"/>
+      <c r="G18" s="86" t="n"/>
+    </row>
+    <row r="19" ht="30" customFormat="1" customHeight="1" s="88">
       <c r="A19" s="93" t="inlineStr">
         <is>
           <t>Mark &amp; Nº</t>
@@ -4059,211 +4072,264 @@
         </is>
       </c>
     </row>
-    <row r="20" ht="30" customFormat="1" customHeight="1" s="89">
-      <c r="A20" s="119" t="inlineStr">
+    <row r="20" ht="30" customFormat="1" customHeight="1" s="88">
+      <c r="A20" s="124" t="inlineStr">
         <is>
           <t>VENDOR#:</t>
         </is>
       </c>
       <c r="B20" s="94" t="inlineStr">
         <is>
-          <t>GYOJY_M25371/GYOJY_M25374
-YNGY25022/YNGY25028</t>
+          <t>YNGY25022</t>
         </is>
       </c>
       <c r="C20" s="94" t="inlineStr">
         <is>
-          <t>M1243/Nick Dove</t>
+          <t>M1243</t>
         </is>
       </c>
       <c r="D20" s="95" t="inlineStr">
         <is>
-          <t>COW LEATHER</t>
+          <t>COW LEATHER
+DA BÒ THUỘC</t>
         </is>
       </c>
       <c r="E20" s="96" t="n">
-        <v>225927.8</v>
+        <v>10045.4</v>
       </c>
       <c r="F20" s="96">
         <f>G20/E20</f>
         <v/>
       </c>
       <c r="G20" s="96" t="n">
-        <v>259081.023</v>
-      </c>
-    </row>
-    <row r="21" ht="30" customFormat="1" customHeight="1" s="89">
-      <c r="A21" s="120" t="inlineStr">
+        <v>11451.756</v>
+      </c>
+    </row>
+    <row r="21" ht="30" customFormat="1" customHeight="1" s="88">
+      <c r="A21" s="125" t="inlineStr">
         <is>
           <t>Des: COW LEATHER</t>
         </is>
       </c>
-      <c r="B21" s="94" t="n"/>
-      <c r="C21" s="94" t="n"/>
-      <c r="D21" s="95" t="n"/>
-      <c r="E21" s="96" t="n"/>
-      <c r="F21" s="96" t="n"/>
-      <c r="G21" s="96" t="n"/>
-    </row>
-    <row r="22" ht="30" customFormat="1" customHeight="1" s="89">
-      <c r="A22" s="120" t="inlineStr">
+      <c r="B21" s="94" t="inlineStr">
+        <is>
+          <t>YNGY25028</t>
+        </is>
+      </c>
+      <c r="C21" s="94" t="inlineStr">
+        <is>
+          <t>M1243</t>
+        </is>
+      </c>
+      <c r="D21" s="98" t="n"/>
+      <c r="E21" s="96" t="n">
+        <v>40549.3</v>
+      </c>
+      <c r="F21" s="96">
+        <f>G21/E21</f>
+        <v/>
+      </c>
+      <c r="G21" s="96" t="n">
+        <v>46116.952</v>
+      </c>
+    </row>
+    <row r="22" ht="30" customFormat="1" customHeight="1" s="88">
+      <c r="A22" s="125" t="inlineStr">
         <is>
           <t>MADE IN CAMBODIA</t>
         </is>
       </c>
-      <c r="B22" s="94" t="n"/>
-      <c r="C22" s="94" t="n"/>
-      <c r="D22" s="95" t="n"/>
-      <c r="E22" s="96" t="n"/>
-      <c r="F22" s="96" t="n"/>
-      <c r="G22" s="96" t="n"/>
-    </row>
-    <row r="23" ht="30" customFormat="1" customHeight="1" s="89">
-      <c r="A23" s="97" t="n"/>
-      <c r="B23" s="97" t="inlineStr">
+      <c r="B22" s="94" t="inlineStr">
+        <is>
+          <t>GYOJY_M25371</t>
+        </is>
+      </c>
+      <c r="C22" s="94" t="inlineStr">
+        <is>
+          <t>Nick Dove</t>
+        </is>
+      </c>
+      <c r="D22" s="98" t="n"/>
+      <c r="E22" s="96" t="n">
+        <v>136491.8</v>
+      </c>
+      <c r="F22" s="96">
+        <f>G22/E22</f>
+        <v/>
+      </c>
+      <c r="G22" s="96" t="n">
+        <v>156939.419</v>
+      </c>
+    </row>
+    <row r="23" ht="30" customFormat="1" customHeight="1" s="88">
+      <c r="A23" s="125" t="n"/>
+      <c r="B23" s="94" t="inlineStr">
+        <is>
+          <t>GYOJY_M25374</t>
+        </is>
+      </c>
+      <c r="C23" s="94" t="inlineStr">
+        <is>
+          <t>Nick Dove</t>
+        </is>
+      </c>
+      <c r="D23" s="99" t="n"/>
+      <c r="E23" s="96" t="n">
+        <v>38841.3</v>
+      </c>
+      <c r="F23" s="96">
+        <f>G23/E23</f>
+        <v/>
+      </c>
+      <c r="G23" s="96" t="n">
+        <v>44572.89599999999</v>
+      </c>
+    </row>
+    <row r="24" ht="30" customFormat="1" customHeight="1" s="88">
+      <c r="A24" s="100" t="n"/>
+      <c r="B24" s="100" t="inlineStr">
         <is>
           <t>TOTAL OF:</t>
         </is>
       </c>
-      <c r="C23" s="97" t="inlineStr">
+      <c r="C24" s="100" t="inlineStr">
         <is>
           <t>22 PALLETS</t>
         </is>
       </c>
-      <c r="D23" s="97" t="n"/>
-      <c r="E23" s="98">
-        <f>SUM(E20:E22)</f>
+      <c r="D24" s="100" t="n"/>
+      <c r="E24" s="101">
+        <f>SUM(E20:E23)</f>
         <v/>
       </c>
-      <c r="F23" s="97" t="n"/>
-      <c r="G23" s="98">
-        <f>SUM(G20:G22)</f>
+      <c r="F24" s="100" t="n"/>
+      <c r="G24" s="101">
+        <f>SUM(G20:G23)</f>
         <v/>
       </c>
     </row>
-    <row r="24" ht="30" customFormat="1" customHeight="1" s="89">
-      <c r="A24" s="121" t="n"/>
-      <c r="B24" s="97" t="inlineStr">
+    <row r="25" ht="30" customFormat="1" customHeight="1" s="88">
+      <c r="A25" s="126" t="n"/>
+      <c r="B25" s="100" t="inlineStr">
         <is>
           <t>NET WEIGHT:</t>
         </is>
       </c>
-      <c r="C24" s="122" t="n">
+      <c r="C25" s="101" t="n">
         <v>16884.5</v>
       </c>
-      <c r="D24" s="121" t="n"/>
-      <c r="E24" s="121" t="n"/>
-      <c r="F24" s="121" t="n"/>
-      <c r="G24" s="121" t="n"/>
-    </row>
-    <row r="25" ht="30" customFormat="1" customHeight="1" s="89">
-      <c r="A25" s="121" t="n"/>
-      <c r="B25" s="97" t="inlineStr">
+      <c r="D25" s="126" t="n"/>
+      <c r="E25" s="126" t="n"/>
+      <c r="F25" s="126" t="n"/>
+      <c r="G25" s="126" t="n"/>
+    </row>
+    <row r="26" ht="30" customFormat="1" customHeight="1" s="88">
+      <c r="A26" s="126" t="n"/>
+      <c r="B26" s="100" t="inlineStr">
         <is>
           <t>GROSS WEIGHT:</t>
         </is>
       </c>
-      <c r="C25" s="122" t="n">
+      <c r="C26" s="101" t="n">
         <v>17874.5</v>
       </c>
-      <c r="D25" s="121" t="n"/>
-      <c r="E25" s="121" t="n"/>
-      <c r="F25" s="121" t="n"/>
-      <c r="G25" s="121" t="n"/>
-    </row>
-    <row r="26" ht="27" customFormat="1" customHeight="1" s="89">
-      <c r="A26" s="13" t="n"/>
-      <c r="F26" s="80" t="n"/>
-      <c r="G26" s="80" t="n"/>
-    </row>
-    <row r="27" ht="42" customFormat="1" customHeight="1" s="89">
-      <c r="A27" s="14" t="n"/>
-      <c r="B27" s="14" t="n"/>
-      <c r="G27" s="80" t="n"/>
-    </row>
-    <row r="28" ht="42" customFormat="1" customHeight="1" s="89">
-      <c r="A28" s="85" t="inlineStr">
+      <c r="D26" s="126" t="n"/>
+      <c r="E26" s="126" t="n"/>
+      <c r="F26" s="126" t="n"/>
+      <c r="G26" s="126" t="n"/>
+    </row>
+    <row r="27" ht="42" customFormat="1" customHeight="1" s="88">
+      <c r="A27" s="13" t="n"/>
+      <c r="F27" s="86" t="n"/>
+      <c r="G27" s="86" t="n"/>
+    </row>
+    <row r="28" ht="24" customFormat="1" customHeight="1" s="88">
+      <c r="A28" s="14" t="n"/>
+      <c r="B28" s="14" t="n"/>
+      <c r="G28" s="86" t="n"/>
+    </row>
+    <row r="29" ht="42" customFormat="1" customHeight="1" s="88">
+      <c r="A29" s="80" t="inlineStr">
         <is>
           <t>Country of Original Cambodia</t>
         </is>
       </c>
-      <c r="D28" s="85" t="n"/>
-      <c r="G28" s="80" t="n"/>
-    </row>
-    <row r="29" ht="61.5" customFormat="1" customHeight="1" s="89">
-      <c r="A29" s="8" t="inlineStr">
+      <c r="D29" s="80" t="n"/>
+      <c r="G29" s="86" t="n"/>
+    </row>
+    <row r="30" ht="61.5" customFormat="1" customHeight="1" s="88">
+      <c r="A30" s="8" t="inlineStr">
         <is>
           <t>Manufacture:</t>
         </is>
       </c>
-      <c r="B29" s="90" t="inlineStr">
+      <c r="B30" s="89" t="inlineStr">
         <is>
           <t>CALIFOR UPHOLSTERY MATERIALS CO., LTD.
 XIN BAVET SEZ, Road No. 316A, Trapeang Bon and Prey Kokir Villages, Prey Kokir Commune, Chantrea District,Svay Rieng Province, Kingdom of Cambodia, Tel: +855   975910636</t>
         </is>
       </c>
     </row>
-    <row r="30" ht="42" customFormat="1" customHeight="1" s="89">
-      <c r="A30" s="91" t="inlineStr">
+    <row r="31" ht="42" customHeight="1" s="78">
+      <c r="A31" s="90" t="inlineStr">
         <is>
           <t>BENEFICIARY BANK：BANK OF CHINA(HONG KONG)LIMITED PHNOM PENH BRANCH
                                                   /BANK OF CHINA PHNOM PENH BRANCH</t>
         </is>
       </c>
-      <c r="D30" s="91" t="n"/>
-      <c r="E30" s="91" t="n"/>
-      <c r="F30" s="91" t="n"/>
-      <c r="G30" s="80" t="n"/>
-    </row>
-    <row r="31" ht="24.75" customHeight="1" s="83">
-      <c r="A31" s="89" t="inlineStr">
+      <c r="D31" s="90" t="n"/>
+      <c r="E31" s="90" t="n"/>
+      <c r="F31" s="90" t="n"/>
+      <c r="G31" s="86" t="n"/>
+    </row>
+    <row r="32" ht="24.75" customHeight="1" s="78">
+      <c r="A32" s="88" t="inlineStr">
         <is>
           <t>A/C NO:100001100764430</t>
         </is>
       </c>
     </row>
-    <row r="32" ht="27" customHeight="1" s="83">
-      <c r="A32" s="89" t="inlineStr">
+    <row r="33" ht="27" customHeight="1" s="78">
+      <c r="A33" s="88" t="inlineStr">
         <is>
           <t>SWIFT CODE  ：BKCHKHPPXXX</t>
         </is>
       </c>
     </row>
-    <row r="33" ht="27.75" customHeight="1" s="83">
-      <c r="F33" s="80" t="inlineStr">
+    <row r="34" ht="24.75" customHeight="1" s="78">
+      <c r="F34" s="86" t="inlineStr">
         <is>
           <t>CALIFOR UPHOLSTERY MATERIALS CO., LTD.</t>
         </is>
       </c>
-      <c r="G33" s="80" t="n"/>
-    </row>
-    <row r="34" ht="24.75" customHeight="1" s="83">
-      <c r="F34" s="16" t="inlineStr">
+      <c r="G34" s="86" t="n"/>
+    </row>
+    <row r="35" ht="21" customHeight="1" s="78">
+      <c r="F35" s="16" t="inlineStr">
         <is>
           <t>Sign &amp; Stamp</t>
         </is>
       </c>
-      <c r="G34" s="80" t="n"/>
-    </row>
-    <row r="35" ht="21" customHeight="1" s="83">
-      <c r="G35" s="80" t="n"/>
-    </row>
-    <row r="36" ht="21" customHeight="1" s="83">
-      <c r="G36" s="80" t="n"/>
-    </row>
-    <row r="37" ht="21" customHeight="1" s="83"/>
-    <row r="38" ht="21" customHeight="1" s="83"/>
-    <row r="39" ht="21" customHeight="1" s="83"/>
-    <row r="40" ht="21" customHeight="1" s="83"/>
-    <row r="41" ht="21" customHeight="1" s="83"/>
-    <row r="42" ht="21" customHeight="1" s="83"/>
-    <row r="43" ht="25.5" customHeight="1" s="83"/>
-    <row r="44" ht="21" customHeight="1" s="83"/>
-    <row r="45" ht="21" customHeight="1" s="83"/>
-    <row r="46" ht="21" customHeight="1" s="83"/>
-    <row r="47" ht="21" customHeight="1" s="83"/>
-    <row r="48" ht="21" customHeight="1" s="83"/>
-    <row r="49" ht="17.25" customHeight="1" s="83"/>
+      <c r="G35" s="86" t="n"/>
+    </row>
+    <row r="36" ht="21" customHeight="1" s="78">
+      <c r="G36" s="86" t="n"/>
+    </row>
+    <row r="37" ht="21" customHeight="1" s="78">
+      <c r="G37" s="86" t="n"/>
+    </row>
+    <row r="38" ht="21" customHeight="1" s="78"/>
+    <row r="39" ht="21" customHeight="1" s="78"/>
+    <row r="40" ht="21" customHeight="1" s="78"/>
+    <row r="41" ht="21" customHeight="1" s="78"/>
+    <row r="42" ht="21" customHeight="1" s="78"/>
+    <row r="43" ht="25.5" customHeight="1" s="78"/>
+    <row r="44" ht="21" customHeight="1" s="78"/>
+    <row r="45" ht="21" customHeight="1" s="78"/>
+    <row r="46" ht="21" customHeight="1" s="78"/>
+    <row r="47" ht="21" customHeight="1" s="78"/>
+    <row r="48" ht="21" customHeight="1" s="78"/>
+    <row r="49" ht="17.25" customHeight="1" s="78"/>
     <row r="50"/>
     <row r="51"/>
     <row r="52"/>
@@ -4275,7 +4341,7 @@
     <row r="58"/>
     <row r="59"/>
     <row r="60"/>
-    <row r="61" ht="15" customHeight="1" s="83"/>
+    <row r="61" ht="15" customHeight="1" s="78"/>
     <row r="62"/>
     <row r="63"/>
     <row r="64"/>
@@ -4415,26 +4481,20 @@
     <row r="198"/>
     <row r="199"/>
     <row r="200"/>
-    <row r="201"/>
-    <row r="202"/>
-    <row r="203"/>
-    <row r="204"/>
-    <row r="205"/>
-    <row r="206"/>
   </sheetData>
   <mergeCells count="13">
     <mergeCell ref="A32:G32"/>
-    <mergeCell ref="A28:C28"/>
     <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A31:G31"/>
     <mergeCell ref="A3:G3"/>
     <mergeCell ref="A6:G6"/>
+    <mergeCell ref="A31:C31"/>
     <mergeCell ref="A4:G4"/>
-    <mergeCell ref="A26:G26"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="B24"/>
     <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="B23"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="A33:G33"/>
     <mergeCell ref="A5:G5"/>
   </mergeCells>
   <conditionalFormatting sqref="J22:J33">
